--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.749</v>
+        <v>16.654</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3106157096.922</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1484763.907</v>
+        <v>28.487</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.418</v>
+        <v>7.328</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2813762.938914036</v>
+        <v>23.04103022495055</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1821204.520015813</v>
+        <v>23.06533079565876</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1309985.495383642</v>
+        <v>23.05468023035564</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1272354.847552093</v>
+        <v>23.05769582714405</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-714755.6206165807</v>
+        <v>23.05728322184384</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>90291.58030952445</v>
+        <v>23.09021392897334</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2856667.247863495</v>
+        <v>23.02052907834538</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1132270.835542215</v>
+        <v>23.07859480162202</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9186.025706982919</v>
+        <v>23.11793753823268</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-67120.14473651275</v>
+        <v>23.11718178200535</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-730645.6643009731</v>
+        <v>23.04138345421909</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>946825.6846116835</v>
+        <v>23.13043030847115</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3334071.213894672</v>
+        <v>23.01075677590252</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1549429.622074546</v>
+        <v>23.06825906772491</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-367782.8438159522</v>
+        <v>23.10753874345303</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-283112.543826979</v>
+        <v>23.1117632254227</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1317212.631086501</v>
+        <v>23.02076505094166</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>201653.5017911408</v>
+        <v>23.10728473676867</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-5200076.495833997</v>
+        <v>23.01847595650435</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-2665804.646436424</v>
+        <v>23.06420243574313</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-882536.4512163294</v>
+        <v>23.08806184456794</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-667460.1032812245</v>
+        <v>23.09567347587078</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1551285.807522276</v>
+        <v>23.03049605596126</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>184613.6643827892</v>
+        <v>23.09268169757612</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-91412.7915220159</v>
+        <v>23.08053500505866</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>89068.89569772393</v>
+        <v>23.09947306806</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-714928.8434529447</v>
+        <v>23.03580328791002</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>44015.94113699254</v>
+        <v>23.08810116104758</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-87234.15414020426</v>
+        <v>23.10370773569805</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36067.6629605938</v>
+        <v>23.13221883106257</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1138945.627812246</v>
+        <v>23.18845042186653</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1378676.759361269</v>
+        <v>23.20868009304265</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-136409.522610243</v>
+        <v>23.04304998900852</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1646968.168599328</v>
+        <v>23.16827913911053</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1521995.342385563</v>
+        <v>23.28278064943529</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1584732.569222623</v>
+        <v>23.30163035950858</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>538708.3323849993</v>
+        <v>23.15676633275463</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1020707.517951167</v>
+        <v>23.18760133096026</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-534253.2854715384</v>
+        <v>23.0227245589506</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1287359.52459547</v>
+        <v>23.15026704392845</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1226235.616476244</v>
+        <v>23.25777608773066</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1434319.819886298</v>
+        <v>23.28478058871181</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>202322.6059989197</v>
+        <v>23.11122914056973</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>948117.1320327336</v>
+        <v>23.14317891315056</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-562198.5177590998</v>
+        <v>23.0362392711144</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1667766.222117569</v>
+        <v>23.13469690791315</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1466148.634443985</v>
+        <v>23.2015203764234</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1881615.305014896</v>
+        <v>23.23556768665836</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1385707.258260905</v>
+        <v>23.05322230450211</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1575850.200846471</v>
+        <v>23.12972543199168</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>601330.2256055904</v>
+        <v>23.1337445356237</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>786963.0526200529</v>
+        <v>23.13901480844632</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-866888.1750008058</v>
+        <v>23.03751056252604</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>330808.9158381769</v>
+        <v>23.11635419052089</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-1314104.254654657</v>
+        <v>23.03037328105956</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1864367.706114768</v>
+        <v>23.14645417312576</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1499863.623839031</v>
+        <v>23.2001260628441</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1474421.310984638</v>
+        <v>23.19968071095416</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-580998.6359866239</v>
+        <v>23.0166536598868</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1166000.444715611</v>
+        <v>23.15914881160355</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1571859.0859382</v>
+        <v>23.02187873580696</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1699669.692263339</v>
+        <v>23.13505183790522</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1523373.157884591</v>
+        <v>23.18986602544285</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1528596.788001422</v>
+        <v>23.19468362948791</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-818158.7481281232</v>
+        <v>22.99689711865426</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>776050.6955567215</v>
+        <v>23.13424186131066</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-2553188.601627987</v>
+        <v>23.02894967218043</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2012503.680852234</v>
+        <v>23.12131789333068</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1771696.770053866</v>
+        <v>23.1618002876145</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2054274.371056595</v>
+        <v>23.171587419067</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1122686.648931405</v>
+        <v>23.00339347141385</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>664805.2442623001</v>
+        <v>23.1063643992273</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>51558.80227969426</v>
+        <v>23.13054236660252</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>157588.647824025</v>
+        <v>23.14844665899599</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-606910.1919318433</v>
+        <v>23.01380699951733</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>491011.9050159692</v>
+        <v>23.12138719485646</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>254420.2173175433</v>
+        <v>23.14744296200853</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>465806.4771042907</v>
+        <v>23.17945912869374</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>899696.9969944477</v>
+        <v>23.2401355618518</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1020057.164128192</v>
+        <v>23.25638145532704</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-382817.0649268671</v>
+        <v>23.0095106053767</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1428418.248857698</v>
+        <v>23.20014405964633</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1096325.606492826</v>
+        <v>23.32282471665605</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1145514.175811121</v>
+        <v>23.34001021946527</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>661776.7796306402</v>
+        <v>23.20651085437378</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>919467.3374965672</v>
+        <v>23.23403431061351</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-584454.2422028839</v>
+        <v>22.98863170276999</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1244379.404487789</v>
+        <v>23.17922750953795</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>977228.0748108515</v>
+        <v>23.295373129161</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1089821.320938926</v>
+        <v>23.3207976066982</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>438241.8479846162</v>
+        <v>23.14395439710239</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>899764.1147833538</v>
+        <v>23.17516493090118</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-757475.4023998801</v>
+        <v>23.00520390783696</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1427065.311653668</v>
+        <v>23.15453895115975</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1167108.58300048</v>
+        <v>23.23116454693782</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1464688.248046692</v>
+        <v>23.26696308040125</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1487583.495166942</v>
+        <v>23.05160717099963</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1031846.729366651</v>
+        <v>23.12075295133792</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>441666.5894158112</v>
+        <v>23.13079150254475</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>473909.6915230289</v>
+        <v>23.13164987717403</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-757876.0929475665</v>
+        <v>23.04488500872627</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>559349.2231991717</v>
+        <v>23.12716763579504</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-996495.1434333421</v>
+        <v>23.036254070547</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1994982.948044144</v>
+        <v>23.14552413583581</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1816800.390030598</v>
+        <v>23.20818348940932</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1711773.299740927</v>
+        <v>23.20294182229775</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-483599.1396972417</v>
+        <v>23.03178928504552</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1354245.615778427</v>
+        <v>23.17932442417771</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1466633.208948691</v>
+        <v>23.02896198099793</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1757238.901028718</v>
+        <v>23.13622277138394</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1586284.00838109</v>
+        <v>23.20047648166979</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1525154.015833366</v>
+        <v>23.20029236709452</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-666655.8658983435</v>
+        <v>23.01566875450444</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1128645.067119731</v>
+        <v>23.15894253501015</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-2066022.932588864</v>
+        <v>23.03501314503453</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2605772.733439527</v>
+        <v>23.12288459991117</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2174330.248502591</v>
+        <v>23.17208881591711</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2229421.487491556</v>
+        <v>23.17717600899033</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-982318.6703830117</v>
+        <v>23.02239345987578</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1290174.080316612</v>
+        <v>23.13124287297714</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>365879.8663600094</v>
+        <v>23.1555676250424</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>405815.4949738999</v>
+        <v>23.16429977859563</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-494048.1378194506</v>
+        <v>23.01588392259993</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>555925.1531313504</v>
+        <v>23.12818029030814</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>445549.7284546085</v>
+        <v>23.17356545715089</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>610804.2734461919</v>
+        <v>23.19304290470336</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1242036.896904632</v>
+        <v>23.27834762136773</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1291102.12892232</v>
+        <v>23.28449831246076</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-221633.1713482747</v>
+        <v>23.01978935511357</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1523505.093711573</v>
+        <v>23.21693977239164</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1386240.479617921</v>
+        <v>23.36368664358337</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1397068.297248088</v>
+        <v>23.36725826786043</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1069653.48067304</v>
+        <v>23.25054563591342</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1212491.703735974</v>
+        <v>23.26759806537654</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-421126.8265152635</v>
+        <v>23.00151448793685</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1434959.090448997</v>
+        <v>23.19961156702647</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1292462.284119555</v>
+        <v>23.34074504329363</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1336842.160470641</v>
+        <v>23.35223968013915</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>973467.7713579613</v>
+        <v>23.18696591713661</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1188427.07100977</v>
+        <v>23.20847979045252</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-503955.2895393274</v>
+        <v>23.01897010128959</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1956334.738166995</v>
+        <v>23.17586691672431</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1626037.597166373</v>
+        <v>23.27536567843895</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1744581.21909215</v>
+        <v>23.29829506180794</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-2060467.765100742</v>
+        <v>23.04733037435244</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-1621143.513594545</v>
+        <v>23.06656758497146</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-78807.58902660327</v>
+        <v>23.06141163365724</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-33234.54299912891</v>
+        <v>23.06495756679814</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-834697.605985855</v>
+        <v>23.06281625982602</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-59451.26472560762</v>
+        <v>23.08661467363048</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-2044561.205092852</v>
+        <v>23.0293451358788</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-578407.4833694312</v>
+        <v>23.08168661098695</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1239513.243906049</v>
+        <v>23.12562861196686</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1178213.807340172</v>
+        <v>23.12576934510689</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-446106.7820647575</v>
+        <v>23.05232423612252</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1207367.269729446</v>
+        <v>23.13101884800756</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2568682.437953948</v>
+        <v>23.02021873439119</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-1062872.165474818</v>
+        <v>23.07206306331896</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>812022.3470067214</v>
+        <v>23.11554251644293</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>897553.8218147898</v>
+        <v>23.12052637501528</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-1094626.987950596</v>
+        <v>23.03168798252771</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>348615.2990030634</v>
+        <v>23.1080049861874</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-3950818.214495389</v>
+        <v>23.02555111740534</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-1904591.765595721</v>
+        <v>23.0665247678709</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>838548.3461445656</v>
+        <v>23.09435625296828</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1040289.051904992</v>
+        <v>23.10222621608852</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1609774.419614738</v>
+        <v>23.0349068876459</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42077.36653776265</v>
+        <v>23.08856652275032</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-482622.4125731777</v>
+        <v>23.07316160121603</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-358335.5594266206</v>
+        <v>23.09400692169475</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-882886.8656174091</v>
+        <v>23.03927720370131</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-202926.9793152542</v>
+        <v>23.07928656363348</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-260556.7256450887</v>
+        <v>23.09412690091077</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>-126138.2088278943</v>
+        <v>23.1240023173723</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1088889.826642034</v>
+        <v>23.18463465003918</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1355411.568557496</v>
+        <v>23.20729941541195</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19549.17697747082</v>
+        <v>23.05488076336865</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1621661.079990396</v>
+        <v>23.16595661101562</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1530639.596651779</v>
+        <v>23.27990042057735</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1643138.81492469</v>
+        <v>23.3008640100858</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>447055.6755049296</v>
+        <v>23.15297902708175</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>971931.7340739286</v>
+        <v>23.18590413592962</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-477479.9961761418</v>
+        <v>23.03456029808579</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1058337.487431953</v>
+        <v>23.14803332480879</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1125954.918523087</v>
+        <v>23.25459544378067</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1394027.758880277</v>
+        <v>23.28345453535277</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-251561.4980256761</v>
+        <v>23.10259453894967</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>501543.965127953</v>
+        <v>23.13563181599615</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-830462.8677705758</v>
+        <v>23.03865559524311</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1088609.025078741</v>
+        <v>23.12542870447291</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1059330.965306086</v>
+        <v>23.19008259486414</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1509585.885451898</v>
+        <v>23.22485745018297</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-2816850.735046613</v>
+        <v>23.05386591980958</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>398832.8058633053</v>
+        <v>23.11282412985076</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-97418.31613890843</v>
+        <v>23.12394844426412</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-145066.0538274519</v>
+        <v>23.12320637247057</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-571508.0880896655</v>
+        <v>23.06094610609459</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1063606.30537241</v>
+        <v>23.12986545060632</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1410985.733873534</v>
+        <v>23.04479332469554</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2855771.192007366</v>
+        <v>23.14021496545065</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2428978.514908163</v>
+        <v>23.20563354806757</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2283946.483502254</v>
+        <v>23.20048063817741</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-547209.303016531</v>
+        <v>23.05318095501955</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1792709.854406263</v>
+        <v>23.18057019808734</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1692476.755205875</v>
+        <v>23.04043952247959</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2784905.093046374</v>
+        <v>23.13463913718693</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2537368.410019405</v>
+        <v>23.20189414929291</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2518150.646527222</v>
+        <v>23.20143951629637</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-848226.192913197</v>
+        <v>23.03806340725398</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1476022.230797045</v>
+        <v>23.1623868237746</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2520084.452250459</v>
+        <v>23.0460191393895</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3965082.232841867</v>
+        <v>23.12360974617808</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3619660.953776082</v>
+        <v>23.17244964270329</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3582416.396807494</v>
+        <v>23.17577663327894</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-988747.6618546015</v>
+        <v>23.0457726529392</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2252243.621497601</v>
+        <v>23.14118666091308</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>723059.5519825796</v>
+        <v>23.15886164455101</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>721163.0822081697</v>
+        <v>23.16498994653459</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-655541.6717869639</v>
+        <v>23.02815653791708</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>493109.5655196372</v>
+        <v>23.114545439514</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>466232.8388651012</v>
+        <v>23.1563188959089</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>635303.7386796987</v>
+        <v>23.17387079006803</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1976415.094697147</v>
+        <v>23.2830664574112</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2028235.567354609</v>
+        <v>23.28852133159627</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-223294.3705486672</v>
+        <v>23.03403663618199</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1755599.910409674</v>
+        <v>23.1952217639436</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1853848.702455075</v>
+        <v>23.33779898087917</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1902919.278734673</v>
+        <v>23.34372699160092</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1734626.897038086</v>
+        <v>23.25805870458323</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-525874.6654491635</v>
+        <v>23.01803796980925</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1522549.070205011</v>
+        <v>23.18088902169605</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1684960.839403896</v>
+        <v>23.31823951145766</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1820952.699544458</v>
+        <v>23.33179598200023</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1844622.605197714</v>
+        <v>23.19897087640345</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2080238.70079334</v>
+        <v>23.21765017208437</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-444573.0460471192</v>
+        <v>23.0378621625134</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2512204.850218282</v>
+        <v>23.16755967875785</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2347741.646029712</v>
+        <v>23.26175295825052</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2560809.911457141</v>
+        <v>23.28398272667063</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-1390886.760938398</v>
+        <v>23.02861213214304</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>628686.7177085601</v>
+        <v>23.13944498568529</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-3997.644881655317</v>
+        <v>23.15020358142274</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17827.57903666883</v>
+        <v>23.15043947127836</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-369477.7077887156</v>
+        <v>23.03174187231577</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>641986.9079939333</v>
+        <v>23.16574104118999</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-867793.1784470433</v>
+        <v>22.99966089162683</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1187704.789621584</v>
+        <v>23.15958639867375</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>999734.1104129852</v>
+        <v>23.23543699001387</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>957068.9613761385</v>
+        <v>23.22752090601044</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-311916.7125277987</v>
+        <v>23.00533737055747</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>963357.7794454654</v>
+        <v>23.21935602311995</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-1092273.530547454</v>
+        <v>22.99311543127855</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1081844.574727172</v>
+        <v>23.15022555869634</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1215827.625161291</v>
+        <v>23.22978033496751</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1168411.072812891</v>
+        <v>23.22749441455692</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-461601.2557826979</v>
+        <v>22.98493028667742</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>837524.3649344388</v>
+        <v>23.19330912568997</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-1491927.029787024</v>
+        <v>23.01287440753331</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1899713.195532116</v>
+        <v>23.14387944164909</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1848621.170140235</v>
+        <v>23.20391800232289</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1867961.006047755</v>
+        <v>23.20864097327431</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-598508.8596793617</v>
+        <v>23.00131016307558</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1051795.60625501</v>
+        <v>23.1643003345288</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>365322.1343181494</v>
+        <v>23.20318355538982</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>402084.2569929748</v>
+        <v>23.2114398206394</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-338253.4208436852</v>
+        <v>22.99377196866662</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>386168.6184658822</v>
+        <v>23.15079609637458</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>268029.2885619905</v>
+        <v>23.19761306119142</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>361288.602970976</v>
+        <v>23.22372510131245</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>827142.6997053138</v>
+        <v>23.34551641693351</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>844818.5857925471</v>
+        <v>23.34924602246527</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-178872.4269469421</v>
+        <v>22.98375656124142</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>727939.2513362449</v>
+        <v>23.41229357204628</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>746017.1261639489</v>
+        <v>23.41847324759451</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>741995.8501570309</v>
+        <v>23.31114045183945</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>803835.1637882374</v>
+        <v>23.32757054561142</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-264656.4567294307</v>
+        <v>22.96235515019686</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>808715.0982843849</v>
+        <v>23.22192057617054</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>711040.9851924096</v>
+        <v>23.38626048637799</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>746356.8249525266</v>
+        <v>23.40127945077844</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>712321.7938967847</v>
+        <v>23.23447206874006</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>850619.7227010254</v>
+        <v>23.25762034310939</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-329924.9744201465</v>
+        <v>22.9972259722361</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1186966.507371718</v>
+        <v>23.20592857322968</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>937904.5743271209</v>
+        <v>23.3191015024772</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1022352.747687431</v>
+        <v>23.3482942510888</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-1616643.81436032</v>
+        <v>23.01859622384255</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-1163481.340353379</v>
+        <v>23.04163924080711</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-563853.6178715604</v>
+        <v>23.03666207604887</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-556378.7389537147</v>
+        <v>23.03949687806486</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-555275.3498343872</v>
+        <v>23.03865254209627</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-89363.29987336768</v>
+        <v>23.08954150888022</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-1605888.626881216</v>
+        <v>22.98165161851064</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-846092.3423346931</v>
+        <v>23.04798184478136</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>15053.74362080803</v>
+        <v>23.10223339300022</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-17513.59478560677</v>
+        <v>23.0996220672967</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-437825.973121419</v>
+        <v>23.01385988577415</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>332261.73214476</v>
+        <v>23.1398437176314</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-1965446.86782256</v>
+        <v>22.96648461367923</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-1154369.654437833</v>
+        <v>23.03152009554662</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-195733.4773434771</v>
+        <v>23.08530910249085</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-189590.3344635105</v>
+        <v>23.08915213394449</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-612185.5797546523</v>
+        <v>22.98914965526398</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>96654.20778521163</v>
+        <v>23.11049829497273</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-2816451.612998991</v>
+        <v>22.98067993742266</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-1714310.385988222</v>
+        <v>23.0316887404832</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-586346.4241642173</v>
+        <v>23.06740721246858</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-503437.4005377635</v>
+        <v>23.07623493713977</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-832554.433020816</v>
+        <v>23.00558324211583</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>33934.19233966048</v>
+        <v>23.09254369676012</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-94809.69048694102</v>
+        <v>23.08469280308271</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-42104.80662256801</v>
+        <v>23.10817149043349</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-485998.1736728456</v>
+        <v>23.0029169922892</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-60922.89884610022</v>
+        <v>23.08929866822061</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>33152.41127064075</v>
+        <v>23.12035355218072</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>95155.68053007162</v>
+        <v>23.15024147371679</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>376199.1233362901</v>
+        <v>23.21513104345868</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>456112.0409132236</v>
+        <v>23.23967512205391</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-157387.7985992767</v>
+        <v>23.01671066176869</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>655207.3685910119</v>
+        <v>23.2016601518254</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>670456.1781967494</v>
+        <v>23.35653850413452</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>700579.7188731128</v>
+        <v>23.37203497058399</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>198387.0468584323</v>
+        <v>23.17533664324623</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>354754.1958253392</v>
+        <v>23.21377613509039</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-297070.6611567886</v>
+        <v>22.99417145532891</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>580644.9965433726</v>
+        <v>23.18090025834174</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>576120.835692146</v>
+        <v>23.32792848766162</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>642113.4518652192</v>
+        <v>23.35404045253027</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28574.74124091847</v>
+        <v>23.12131683914129</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>237495.3603828804</v>
+        <v>23.16148142156161</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-357973.9649276469</v>
+        <v>23.01398855949403</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>859681.9548346957</v>
+        <v>23.15867053953976</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>724035.4522639255</v>
+        <v>23.2561199402439</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>825376.1175265415</v>
+        <v>23.29272221604819</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-2282141.164772687</v>
+        <v>23.02534361897826</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1844555.282598883</v>
+        <v>23.03828536133969</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-1318099.822638813</v>
+        <v>23.02050454912858</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1363919.570637345</v>
+        <v>23.02971056032162</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-951785.5057776964</v>
+        <v>23.01457765681763</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-877494.303464049</v>
+        <v>23.02103667672959</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-2446329.295136036</v>
+        <v>22.99531643432771</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1392060.505134227</v>
+        <v>23.0439188494277</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-477454.8691546335</v>
+        <v>23.07605407796107</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-581389.2975030799</v>
+        <v>23.08197638792265</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1500617.653859658</v>
+        <v>22.97585196379188</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-909791.8095829134</v>
+        <v>23.04128079086632</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-2831869.407555535</v>
+        <v>22.98710357120555</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1798399.040156479</v>
+        <v>23.03522666600204</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-817606.7031751517</v>
+        <v>23.06764533547067</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-831967.2110974317</v>
+        <v>23.07899427131467</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-1736244.856403426</v>
+        <v>22.9558165817627</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1284508.369354151</v>
+        <v>23.01891126677241</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-4354023.798887223</v>
+        <v>22.99512046189294</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-3060551.986904356</v>
+        <v>23.03314459542361</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-1709432.197094131</v>
+        <v>23.05146279695213</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-1663016.135295166</v>
+        <v>23.0650999305885</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-2281001.938963067</v>
+        <v>22.97279756360552</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1764851.425273331</v>
+        <v>23.01451567773078</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-604365.5457701363</v>
+        <v>23.00687695322697</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-557659.4814471344</v>
+        <v>23.032592739669</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1219883.456075881</v>
+        <v>22.9920424447664</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1151835.620330886</v>
+        <v>23.01493436909719</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-476951.3827954354</v>
+        <v>23.01788474099673</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-208490.5213580858</v>
+        <v>23.06540286837416</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-189425.3202989679</v>
+        <v>23.09343548184668</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-39892.35169747695</v>
+        <v>23.1215515906382</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-1018224.441287659</v>
+        <v>22.97537221995071</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-312291.5306556884</v>
+        <v>23.07549029378519</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>198400.2473976396</v>
+        <v>23.17659768861414</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>473541.0988013219</v>
+        <v>23.21530020870814</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-524337.3825352248</v>
+        <v>23.06166647465968</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-235173.0605695863</v>
+        <v>23.10138812814574</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1165899.72988869</v>
+        <v>22.95504905784933</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-518100.5255987332</v>
+        <v>23.05830278171676</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2233.520861119487</v>
+        <v>23.15172332421928</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>400610.5989589366</v>
+        <v>23.19910196042739</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1155270.878460179</v>
+        <v>23.02592232970268</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-875892.8018523904</v>
+        <v>23.06512207173918</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1559549.432873024</v>
+        <v>22.97889340758778</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-765529.6061308524</v>
+        <v>23.0563962893547</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-167304.8064109311</v>
+        <v>23.1107760466733</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>456554.2335692008</v>
+        <v>23.16259509419761</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-1100423.256191887</v>
+        <v>23.04037834875736</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1011490.26235129</v>
+        <v>23.13767736964389</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>580384.112497957</v>
+        <v>23.16369436870184</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>639644.1712266925</v>
+        <v>23.16450290001666</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-574007.6809167659</v>
+        <v>23.00564481324124</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>268548.8681092749</v>
+        <v>23.10745152171634</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-772735.2689017573</v>
+        <v>23.01681861747868</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1539799.548571918</v>
+        <v>23.16103022738742</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1553359.155053572</v>
+        <v>23.25202715449274</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1514644.412586422</v>
+        <v>23.24522656467913</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-403145.0183852141</v>
+        <v>22.98401700551883</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>765309.1573925536</v>
+        <v>23.16049532696407</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>-1185043.766499257</v>
+        <v>23.00688588162881</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1334332.859812984</v>
+        <v>23.14887300696817</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1437450.85064662</v>
+        <v>23.24211478620237</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1419187.427480099</v>
+        <v>23.24080989044877</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-571742.5793067606</v>
+        <v>22.96552109297458</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>587875.3717801837</v>
+        <v>23.13759532767971</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-2024471.131696389</v>
+        <v>23.01156311233589</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1591829.550326551</v>
+        <v>23.12862421718668</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1658466.585865034</v>
+        <v>23.19823576728315</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1742442.069935793</v>
+        <v>23.2032796467572</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-891092.3935839876</v>
+        <v>22.97335641995373</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>553898.6686580678</v>
+        <v>23.10531328763582</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>146228.0763957039</v>
+        <v>23.13308803480673</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>165341.2407084281</v>
+        <v>23.14001811953112</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-417700.466027779</v>
+        <v>22.99255401526496</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>309376.032240628</v>
+        <v>23.12483182938671</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>267363.4911452354</v>
+        <v>23.17218125286685</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>385679.7235578941</v>
+        <v>23.19410848691901</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>749080.3822191607</v>
+        <v>23.2716371275013</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>762676.9357093554</v>
+        <v>23.27438671261171</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-192720.3871561914</v>
+        <v>22.98683242959122</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>949537.4245962584</v>
+        <v>23.21590709148654</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>896517.8991836568</v>
+        <v>23.38189554867934</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>905203.3396331329</v>
+        <v>23.3845655030281</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>604327.536287679</v>
+        <v>23.24126858271578</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>681324.4529995958</v>
+        <v>23.25635453095669</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-320083.0031767081</v>
+        <v>22.96716780138217</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>896977.2503132046</v>
+        <v>23.19796055163046</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>833954.1255396109</v>
+        <v>23.35916275862156</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>865455.8426204543</v>
+        <v>23.3705069194065</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>394567.1042220644</v>
+        <v>23.16308002876388</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>547404.671009548</v>
+        <v>23.18459358234302</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-443251.1268134057</v>
+        <v>22.99051915300202</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1168514.163850621</v>
+        <v>23.17379964359997</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>994092.2919701595</v>
+        <v>23.28471881799546</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1101962.077072083</v>
+        <v>23.30997815845138</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1934849.803587263</v>
+        <v>23.02891006773462</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-1531105.016425487</v>
+        <v>23.03714220680766</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1084276.425191401</v>
+        <v>23.01764356105334</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1063939.597886803</v>
+        <v>23.02436338248905</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-997494.9959649668</v>
+        <v>23.02832027987611</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-591366.8579999569</v>
+        <v>23.04057140364579</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-1788170.758654391</v>
+        <v>23.00602898566319</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-934086.1778854494</v>
+        <v>23.05131382655228</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-279131.006753316</v>
+        <v>23.0795167115498</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-280526.217964483</v>
+        <v>23.08261572286695</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-672718.1938717153</v>
+        <v>23.01604798833246</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>140946.9503840115</v>
+        <v>23.09128763574164</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-2169150.548363537</v>
+        <v>22.99165823872483</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-1382783.728002193</v>
+        <v>23.03490015873865</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-560779.5156807167</v>
+        <v>23.06132695142196</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-470196.9021652599</v>
+        <v>23.0710167175777</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1040784.958041824</v>
+        <v>22.98722852323622</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-475537.8367724179</v>
+        <v>23.05763080409029</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-3349764.803616718</v>
+        <v>23.00000131069626</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2412750.295313091</v>
+        <v>23.03120909040284</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1245599.245972704</v>
+        <v>23.04606116366384</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1007784.235901024</v>
+        <v>23.05970347000935</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1693684.496824416</v>
+        <v>22.98968750980729</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1124551.79757017</v>
+        <v>23.03296592238081</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-540729.8386225787</v>
+        <v>23.0168931624889</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-478231.7304124355</v>
+        <v>23.0477690131902</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-711247.799420123</v>
+        <v>23.01148576960106</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-505650.9371566675</v>
+        <v>23.0449757934728</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-383960.7242107493</v>
+        <v>23.03943086408963</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-290115.6980864032</v>
+        <v>23.0864296148615</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>172301.8884296298</v>
+        <v>23.13215915016681</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>316721.9785203502</v>
+        <v>23.16610176435561</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-103522.4372776282</v>
+        <v>23.03744338593755</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>605054.836217663</v>
+        <v>23.15358213054672</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>616144.3052085468</v>
+        <v>23.25097858646463</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>743522.9941086121</v>
+        <v>23.28855021401548</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-249911.9752226748</v>
+        <v>23.08576161967628</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>57295.1184365919</v>
+        <v>23.1331590309128</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-381518.5039855741</v>
+        <v>23.00857664753272</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>238103.8310155821</v>
+        <v>23.12544103907004</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>360425.486003836</v>
+        <v>23.21199360110315</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>618872.3793547952</v>
+        <v>23.26026232685491</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>-835000.1083278081</v>
+        <v>23.03163383734858</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-456119.2422070234</v>
+        <v>23.07909644742691</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-611148.6500543039</v>
+        <v>23.00609863911385</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>138370.4331764879</v>
+        <v>23.09038479936922</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>211610.6973637428</v>
+        <v>23.13516010770446</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>590872.1336619536</v>
+        <v>23.18987554453386</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-2744065.490890058</v>
+        <v>22.98898055832678</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-2641542.38162624</v>
+        <v>23.03427342664205</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-1760365.18726418</v>
+        <v>23.01237840899397</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-1692224.876831752</v>
+        <v>23.01400527931192</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-700107.6734401205</v>
+        <v>23.04009980702151</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>223259.9632587655</v>
+        <v>23.10578181311366</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-2507758.170960533</v>
+        <v>22.95970757016502</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-2049150.278707712</v>
+        <v>23.04308564224534</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1095331.914376</v>
+        <v>23.06698984431173</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-1065052.577500749</v>
+        <v>23.06267594857169</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-595544.4393926339</v>
+        <v>23.01694952970144</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>801691.8524125919</v>
+        <v>23.14683374062218</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-2592719.418108745</v>
+        <v>22.95672473036159</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-2162449.927261444</v>
+        <v>23.03849478925252</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-1233750.789779031</v>
+        <v>23.06494047365107</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-1127618.028632203</v>
+        <v>23.06575222919848</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-686870.1604868221</v>
+        <v>23.00245455904916</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>666282.5970640726</v>
+        <v>23.12822300774848</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-3968873.750966526</v>
+        <v>22.97863590045888</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3123484.521777995</v>
+        <v>23.04536206577515</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1769918.194441278</v>
+        <v>23.06444465563343</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-1458802.742677686</v>
+        <v>23.07028786635556</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1007119.058670263</v>
+        <v>23.01482598749674</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>663443.2694664691</v>
+        <v>23.10907632438708</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>114002.8125759618</v>
+        <v>23.12090284249399</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>169712.6003683988</v>
+        <v>23.13128807844668</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-554393.4341405992</v>
+        <v>23.02027064772559</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>217044.0567395827</v>
+        <v>23.11633867352941</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>133647.9979787022</v>
+        <v>23.14443656585439</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>287711.1105838805</v>
+        <v>23.16792194293244</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>732315.7350470871</v>
+        <v>23.22739373630221</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>772422.4494507593</v>
+        <v>23.23537177105737</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-201303.016652885</v>
+        <v>23.0185601527491</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1212575.007893975</v>
+        <v>23.19848940740458</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>999985.0465515092</v>
+        <v>23.32430157834931</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1025910.0626255</v>
+        <v>23.33215896360247</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>613537.0590746439</v>
+        <v>23.20149958685593</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>726640.5305952645</v>
+        <v>23.22042591073798</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-250306.3293706853</v>
+        <v>23.00252924191715</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1262213.924020068</v>
+        <v>23.18352929290693</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1001004.785695766</v>
+        <v>23.30420966320166</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1050716.914378412</v>
+        <v>23.31997402111281</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>477016.4039466118</v>
+        <v>23.15081923282178</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>667474.5583178521</v>
+        <v>23.17373506239879</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-327567.5740178528</v>
+        <v>23.02185204315305</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1720372.024572824</v>
+        <v>23.16476108772313</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1335289.369455305</v>
+        <v>23.24767428387983</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1439997.048718943</v>
+        <v>23.27408686135695</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1878588.270500288</v>
+        <v>23.05053463345621</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-1328443.049442606</v>
+        <v>23.06145217792661</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-956728.8513362728</v>
+        <v>23.04988626275868</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-986539.0640022693</v>
+        <v>23.05561370380004</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1384273.681657483</v>
+        <v>23.02715866049228</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1166753.690178325</v>
+        <v>23.03229500316046</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-1844185.887524268</v>
+        <v>23.02215229889408</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-792274.5801392335</v>
+        <v>23.06536965351816</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-103658.1942431506</v>
+        <v>23.09574950177792</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-153478.5765699958</v>
+        <v>23.09807593500949</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-1284456.871633731</v>
+        <v>22.99382634363202</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-611196.3253794835</v>
+        <v>23.0531602910957</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-2053403.610637769</v>
+        <v>23.01332985764201</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-980525.4011968846</v>
+        <v>23.05530688036817</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-190702.4804381301</v>
+        <v>23.08596224012692</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-171504.1648916485</v>
+        <v>23.09345947136876</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1510229.491219301</v>
+        <v>22.97489771103886</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-968108.8478612932</v>
+        <v>23.03097396970518</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-3631164.060047047</v>
+        <v>23.01569147607765</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2090689.847599001</v>
+        <v>23.04864541310228</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-953901.579920104</v>
+        <v>23.06802935245797</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-783063.1007197009</v>
+        <v>23.07852329708449</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2148447.468103488</v>
+        <v>22.98754212228917</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1528898.382200315</v>
+        <v>23.02343864316894</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-860860.4555797029</v>
+        <v>23.0112693776787</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-749741.6351295609</v>
+        <v>23.03267463723958</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-789348.5978434833</v>
+        <v>23.02186541625047</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-382296.9713172501</v>
+        <v>23.05615048471213</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-310895.3589224429</v>
+        <v>23.05774101106257</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-168242.1040059637</v>
+        <v>23.08720874261402</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-250282.6272132796</v>
+        <v>23.08610355783989</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-57132.9658520665</v>
+        <v>23.10948674025252</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-411008.1846407975</v>
+        <v>23.01870968173426</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>528195.2146630414</v>
+        <v>23.12564313291682</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>641558.9443010956</v>
+        <v>23.21606087355908</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>730541.4308691416</v>
+        <v>23.23493561128566</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-516444.437400381</v>
+        <v>23.05544506859243</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-217279.3423901218</v>
+        <v>23.08962215977495</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-614348.8667714722</v>
+        <v>22.99930897726601</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>362724.1219471571</v>
+        <v>23.1080193899284</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>488001.217723906</v>
+        <v>23.1920252450157</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>636142.8240362357</v>
+        <v>23.21896883627935</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1068353.009917967</v>
+        <v>23.02436745588798</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-710144.1738376954</v>
+        <v>23.05844788445853</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-978035.6764913583</v>
+        <v>23.00828825396639</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>350752.4753901567</v>
+        <v>23.09073285617626</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>365086.0321987235</v>
+        <v>23.14013037397526</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>586256.3828865325</v>
+        <v>23.17374949667123</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-2475926.091992253</v>
+        <v>23.04028130861908</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-2413046.706993853</v>
+        <v>23.03598191117238</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1639948.765449959</v>
+        <v>23.00688322625028</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-1639426.594528434</v>
+        <v>23.00609273094027</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1448372.617848354</v>
+        <v>23.02200754547104</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1448703.984587541</v>
+        <v>23.00948389260972</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-2301354.509023291</v>
+        <v>23.0031621989286</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-1933184.291594648</v>
+        <v>23.02900660743886</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-1042177.987784863</v>
+        <v>23.03596568342158</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-1076655.829071052</v>
+        <v>23.03109512721607</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1432188.254246262</v>
+        <v>22.97377093964039</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1128380.991859806</v>
+        <v>23.01288893825655</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2431977.818956553</v>
+        <v>22.99522271642414</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-2119341.154233116</v>
+        <v>23.01991074126803</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1172416.993380012</v>
+        <v>23.02708547649295</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1155272.282976246</v>
+        <v>23.02761906973059</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1610070.953445525</v>
+        <v>22.95441789818591</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1469942.236386969</v>
+        <v>22.99030220379925</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-3836894.157707293</v>
+        <v>23.00521002603402</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-3197304.519299726</v>
+        <v>23.02411985591582</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1825081.554871572</v>
+        <v>23.02714661306334</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1693033.154154796</v>
+        <v>23.03179505910838</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-2236295.071081218</v>
+        <v>22.97727476130811</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-2051295.794720111</v>
+        <v>22.99674308044904</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1054471.403985276</v>
+        <v>22.9758498995921</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1056276.963246481</v>
+        <v>22.98337685943166</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-747165.2252515829</v>
+        <v>23.0218913580076</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-540762.2230916319</v>
+        <v>23.03369108045338</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-446631.0065653168</v>
+        <v>23.02695829605162</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-388041.385904427</v>
+        <v>23.04464839265004</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-659615.2660653446</v>
+        <v>23.02592396234151</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-622123.7052465617</v>
+        <v>23.03406216649844</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-486985.7892747594</v>
+        <v>23.00704366585581</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32527.39836982234</v>
+        <v>23.08829911978029</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>271281.8961594169</v>
+        <v>23.16500056690802</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>300916.3835372773</v>
+        <v>23.17087478870205</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-906503.0853963767</v>
+        <v>22.99437078782784</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-792774.6479889858</v>
+        <v>23.0138002216214</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-587146.5426301704</v>
+        <v>22.98676184771939</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-90255.99039592007</v>
+        <v>23.06991025106908</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>183693.4756228022</v>
+        <v>23.13943364481672</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>261490.7043388031</v>
+        <v>23.15384188075157</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-1411263.517415882</v>
+        <v>22.98480050582005</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-1278182.976418685</v>
+        <v>23.00649824371063</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-941401.0651006644</v>
+        <v>23.00219032934315</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-113182.384827639</v>
+        <v>23.06390750944803</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33997.1544762841</v>
+        <v>23.10434892630133</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>144581.9980597952</v>
+        <v>23.12759680550398</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-1242643.396773802</v>
+        <v>23.06991503303291</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-53437.96143646196</v>
+        <v>23.09787225745045</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-438896.7978050589</v>
+        <v>23.08510574319433</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-281528.6999957029</v>
+        <v>23.0905571686303</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-818776.0239864965</v>
+        <v>23.04304435723965</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-474649.7148467902</v>
+        <v>23.06574905436366</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-685223.5655302142</v>
+        <v>23.06290756946996</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1188830.631429431</v>
+        <v>23.12962926897425</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1407620.628557582</v>
+        <v>23.17939065220785</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1412359.219064989</v>
+        <v>23.18006650460889</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-766457.0781196207</v>
+        <v>23.03179914729703</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>180608.720961841</v>
+        <v>23.11708788849398</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-785388.3325695045</v>
+        <v>23.05648974872674</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1160240.264183361</v>
+        <v>23.1225305400156</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1320286.164551</v>
+        <v>23.17432099449022</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1441835.7180111</v>
+        <v>23.18053822931073</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-905037.3625600173</v>
+        <v>23.01579087349183</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-63800.96499757752</v>
+        <v>23.09863112774488</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2984289.636612784</v>
+        <v>23.04123594797176</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-469921.1174417051</v>
+        <v>23.09328683323205</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-83222.50323735038</v>
+        <v>23.12044780378329</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>343694.393908036</v>
+        <v>23.13093507807511</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1391271.739642625</v>
+        <v>23.01316550784916</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-348457.255602401</v>
+        <v>23.07058507223188</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-682014.2791885481</v>
+        <v>23.03377453834786</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-694373.0881671757</v>
+        <v>23.04772063121537</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-457277.1319377531</v>
+        <v>23.04009177257047</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-11955.89459870501</v>
+        <v>23.08596892233555</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-278579.0991936164</v>
+        <v>23.08310097273121</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-189498.5627684535</v>
+        <v>23.11075333303745</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>400555.0821964279</v>
+        <v>23.16517785348199</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>407138.3134879898</v>
+        <v>23.17881472598193</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38852.97387102999</v>
+        <v>23.06165678118646</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1178962.26510776</v>
+        <v>23.18954056671391</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1095945.958257583</v>
+        <v>23.30444613599562</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1109485.773920225</v>
+        <v>23.31932198326907</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>202907.8979570939</v>
+        <v>23.14050286228511</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>362663.0677785593</v>
+        <v>23.16612787846634</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-93931.40080445255</v>
+        <v>23.04606999388283</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1064626.329341741</v>
+        <v>23.17697815218789</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>1013209.576228645</v>
+        <v>23.28773980856768</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1118929.742711628</v>
+        <v>23.31172409893467</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-441858.6223597716</v>
+        <v>23.07349496845247</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-133812.154108872</v>
+        <v>23.10259908652151</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-436031.0405505846</v>
+        <v>23.03844104958181</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1091293.074331721</v>
+        <v>23.13819368734603</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>736852.2278332487</v>
+        <v>23.19645480886472</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1006058.553425397</v>
+        <v>23.23032135526833</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-981253.1603129437</v>
+        <v>23.06749744122719</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1569446.106038945</v>
+        <v>23.12509453647216</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1020985.334059634</v>
+        <v>23.13487461220664</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1102845.014670322</v>
+        <v>23.14028050695431</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-922576.3230141273</v>
+        <v>23.03748034002596</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>52583.49325307035</v>
+        <v>23.0956205984725</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-970431.4141449356</v>
+        <v>23.04961186111085</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1766619.055846829</v>
+        <v>23.14320244101041</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1741044.069784136</v>
+        <v>23.19977659442326</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1709274.97765434</v>
+        <v>23.20032574884282</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-696455.4212810271</v>
+        <v>23.02088310782657</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>765374.500251529</v>
+        <v>23.1377286259914</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-1239256.196516684</v>
+        <v>23.03990850837845</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1550971.069499606</v>
+        <v>23.13094705941713</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1647762.088177959</v>
+        <v>23.18701620584797</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1688004.629264068</v>
+        <v>23.19295187545717</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-907384.0932716478</v>
+        <v>23.00088083385503</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>409397.9076483753</v>
+        <v>23.11303794070126</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-1963857.4822065</v>
+        <v>23.04373563184888</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2033463.122388997</v>
+        <v>23.11783576505877</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2277906.116123122</v>
+        <v>23.15927212650712</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>2536766.776465746</v>
+        <v>23.169618433069</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1396795.415673108</v>
+        <v>23.00626700624769</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>128174.486426126</v>
+        <v>23.0888156022461</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-41450.96236648961</v>
+        <v>23.10084442976602</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>20946.09616823898</v>
+        <v>23.11741178240927</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-746385.935193888</v>
+        <v>23.00850120307028</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61724.90389398213</v>
+        <v>23.09241210362518</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55528.70186151646</v>
+        <v>23.11268053658315</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>264816.427719822</v>
+        <v>23.14395630504987</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>726934.81134535</v>
+        <v>23.20444438206846</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>813723.2050332342</v>
+        <v>23.22006421763486</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-409820.482157794</v>
+        <v>23.01088904767366</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1050297.552797317</v>
+        <v>23.17181268378474</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>985880.3727723241</v>
+        <v>23.28353510912042</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1073538.262071249</v>
+        <v>23.30171051789354</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>482429.3371584507</v>
+        <v>23.17025316270045</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>706933.9580527525</v>
+        <v>23.19716042373046</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-637446.3106126584</v>
+        <v>22.98947127861554</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>829915.5403617028</v>
+        <v>23.15056183160415</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>818417.3343705821</v>
+        <v>23.25428311086907</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>983726.3942737468</v>
+        <v>23.28100705980642</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>150762.0302692614</v>
+        <v>23.11476626134422</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>505672.8710014957</v>
+        <v>23.14502717511087</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-900778.5840997952</v>
+        <v>23.00212673033838</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>896502.1252443299</v>
+        <v>23.12742781824325</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>864842.7320788946</v>
+        <v>23.19307156173357</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1196294.455114239</v>
+        <v>23.22919236869328</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-2056523.443176514</v>
+        <v>23.05670815077995</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1892678.249478693</v>
+        <v>23.11111186911336</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>563575.5858233196</v>
+        <v>23.11266114151006</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>734405.7478215937</v>
+        <v>23.11368094511943</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-913401.1247903518</v>
+        <v>23.04092807140039</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>452632.2343426454</v>
+        <v>23.09988629239481</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-2048200.917521828</v>
+        <v>23.03993756804145</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2241184.374969034</v>
+        <v>23.12976343629029</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2169215.276832651</v>
+        <v>23.18325285295105</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2079615.353219518</v>
+        <v>23.17944551697516</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1025649.85510584</v>
+        <v>23.02345396766666</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1197466.89653019</v>
+        <v>23.139374801732</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-2282820.638751787</v>
+        <v>23.03313084184249</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2231261.142427885</v>
+        <v>23.12186677301797</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2261235.433355436</v>
+        <v>23.17672961932994</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2286617.964258371</v>
+        <v>23.17757649928043</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-1467310.456559845</v>
+        <v>23.00719769352979</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>721132.5757968479</v>
+        <v>23.12035314310308</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-3906591.928749864</v>
+        <v>23.03680360533375</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2617428.118240219</v>
+        <v>23.10932314829449</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2953452.416515442</v>
+        <v>23.14642550658299</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3171387.068796328</v>
+        <v>23.15146065651479</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1868950.649531452</v>
+        <v>23.01667362127197</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>784494.9402734435</v>
+        <v>23.10198854533023</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>41876.93127107298</v>
+        <v>23.09954001908299</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>78105.44183791042</v>
+        <v>23.10932763535581</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-801897.2575342281</v>
+        <v>23.01982215551685</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>324339.7647039113</v>
+        <v>23.09780896011879</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>163494.8354139818</v>
+        <v>23.11831299157162</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>376702.7778755618</v>
+        <v>23.13918237869981</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1294639.756718016</v>
+        <v>23.20772658374268</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1327053.498320663</v>
+        <v>23.2164007814783</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-550528.5492691612</v>
+        <v>23.01721433853223</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1619772.899642693</v>
+        <v>23.16872179172938</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1562685.416234419</v>
+        <v>23.28550004624252</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1584119.015735506</v>
+        <v>23.29422238113066</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>855756.4253320291</v>
+        <v>23.18188568845032</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1078807.763437105</v>
+        <v>23.20068482108436</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-911689.0569489469</v>
+        <v>23.00055388176477</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1352034.45435895</v>
+        <v>23.1540253232807</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1319351.120195023</v>
+        <v>23.26560475167704</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1448877.797077687</v>
+        <v>23.28188960185621</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>510203.4471431056</v>
+        <v>23.12980177728582</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>965499.9768590905</v>
+        <v>23.15205798509783</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-1080243.810733655</v>
+        <v>23.01941933265111</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1758782.477491145</v>
+        <v>23.14018425208094</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>1624114.271910885</v>
+        <v>23.21154460742664</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1993531.934453611</v>
+        <v>23.23704879267451</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1951216.057793766</v>
+        <v>23.07639719167422</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3120162.744166506</v>
+        <v>23.11075033385297</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1691039.024575484</v>
+        <v>23.12195874998655</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1734337.979919938</v>
+        <v>23.12038451802244</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-269881.4533061005</v>
+        <v>23.07220442773474</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1395035.48717831</v>
+        <v>23.10638339427394</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-2350529.601867078</v>
+        <v>23.0661152102032</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4363351.3219389</v>
+        <v>23.12644744219931</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>4970279.722473911</v>
+        <v>23.17740793804576</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>4732083.960617644</v>
+        <v>23.17237989011252</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-900336.6584664219</v>
+        <v>23.05799999453073</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>2026929.359475489</v>
+        <v>23.13350420839232</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-2230773.040419959</v>
+        <v>23.06458213517132</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>5327633.378171941</v>
+        <v>23.12443626908994</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>5182287.277269429</v>
+        <v>23.17685184409074</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>5158423.470778227</v>
+        <v>23.17527428833322</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1146481.250287484</v>
+        <v>23.04930270461763</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1841083.162972501</v>
+        <v>23.12321332814415</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-5443264.604633199</v>
+        <v>23.06550278866362</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5720017.555978524</v>
+        <v>23.11457932226176</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>6430356.65599211</v>
+        <v>23.15199609659772</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>6395338.988848713</v>
+        <v>23.15345718313944</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1672689.852808768</v>
+        <v>23.05612617233772</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>2662246.961111888</v>
+        <v>23.11167595217987</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>569119.7936967422</v>
+        <v>23.11342497561656</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>641424.2539089503</v>
+        <v>23.12017609024067</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-665725.7312934732</v>
+        <v>23.05199831871057</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>874332.9054217574</v>
+        <v>23.09922566651134</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>695100.0566530399</v>
+        <v>23.12925458884928</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>924283.0856938383</v>
+        <v>23.14118056772735</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2367000.345186756</v>
+        <v>23.19192622313603</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2571742.942700686</v>
+        <v>23.19822648987796</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-422327.0254162812</v>
+        <v>23.05193423308795</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2744649.597293937</v>
+        <v>23.15251576979376</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3031442.89586175</v>
+        <v>23.25610564288514</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>3035437.195333388</v>
+        <v>23.2594085820646</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2049060.856469094</v>
+        <v>23.1774428094289</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2531272.934349699</v>
+        <v>23.19112451419109</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-612555.9227019243</v>
+        <v>23.04359608525976</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2796390.291007821</v>
+        <v>23.14608286942925</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2953687.419131589</v>
+        <v>23.2464228437724</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3087181.022323736</v>
+        <v>23.25537479280097</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1885805.777218138</v>
+        <v>23.14026476390934</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2489361.444168366</v>
+        <v>23.1560216118415</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-802334.7752042764</v>
+        <v>23.05438252607426</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>3872599.081137131</v>
+        <v>23.13520442591011</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>3727716.638860091</v>
+        <v>23.20243829880592</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4149293.932822303</v>
+        <v>23.21812098158108</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-2087356.849845365</v>
+        <v>23.04880935404555</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>326443.4043392705</v>
+        <v>23.09933423756854</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-273207.3392381427</v>
+        <v>23.09485553447367</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>5625.676233212293</v>
+        <v>23.10073256499379</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-1286031.52916472</v>
+        <v>23.02918953590618</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-112916.5827997044</v>
+        <v>23.08181898030821</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1553124.391623817</v>
+        <v>23.04269068879175</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1931887.957710211</v>
+        <v>23.13125784467019</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1790336.782809267</v>
+        <v>23.17708584624262</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>1825866.270928264</v>
+        <v>23.17746568542774</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1042332.782509225</v>
+        <v>23.02158657187642</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>912517.1674918468</v>
+        <v>23.13471685009639</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-1948222.748917013</v>
+        <v>23.03640643422978</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1569575.912105656</v>
+        <v>23.12308915155493</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1683340.140062784</v>
+        <v>23.1708083898626</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1856089.863632472</v>
+        <v>23.17613620841948</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-1281402.156957034</v>
+        <v>23.00603311272323</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>524188.6927975156</v>
+        <v>23.11542521426999</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-3591550.884385224</v>
+        <v>23.03417315731777</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>476679.7154180493</v>
+        <v>23.10214199596109</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1050551.322169947</v>
+        <v>23.13459581435141</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1851476.388044124</v>
+        <v>23.14501232447913</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-1987061.425813078</v>
+        <v>23.00614661124597</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25382.85821171913</v>
+        <v>23.08415956988711</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-276442.5149316683</v>
+        <v>23.07410681943675</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-245594.2633068914</v>
+        <v>23.08490079902727</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-989933.157953094</v>
+        <v>23.00961102406692</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-108982.2069473087</v>
+        <v>23.08037405021222</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-116909.872162189</v>
+        <v>23.0864881876224</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>70155.89190130921</v>
+        <v>23.11249442937543</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>861040.6597265662</v>
+        <v>23.19066962574031</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>882849.9905659001</v>
+        <v>23.19898538409087</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-598727.2902018699</v>
+        <v>23.01964422223194</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1283604.679186199</v>
+        <v>23.16863121121857</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1092249.551214173</v>
+        <v>23.26628422817717</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1138189.183952257</v>
+        <v>23.27849035140211</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>594689.6703086281</v>
+        <v>23.16498453528494</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>782863.2507960548</v>
+        <v>23.18405488785841</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-831086.2535355353</v>
+        <v>23.00047768668643</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1058972.638480467</v>
+        <v>23.15051189259981</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>939475.3834580636</v>
+        <v>23.24260786462447</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1093982.294866041</v>
+        <v>23.26303338906502</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-7994.367183452317</v>
+        <v>23.10327053188418</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>379556.296889155</v>
+        <v>23.12766178916682</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1334834.751095625</v>
+        <v>23.00346281805128</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>836495.0668575964</v>
+        <v>23.11658497014217</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>768567.5754609627</v>
+        <v>23.17097651789123</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1176455.099340371</v>
+        <v>23.20250840886304</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-2523088.168162379</v>
+        <v>23.04448633590449</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-1799054.829669023</v>
+        <v>23.06080911676536</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-1156897.728737072</v>
+        <v>23.05056255113464</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-1089769.517649665</v>
+        <v>23.05396403757976</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1297636.455356817</v>
+        <v>23.04369504634909</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-508123.1853770061</v>
+        <v>23.06969059304801</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-2210289.90390314</v>
+        <v>23.02543260178146</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-780259.5775989108</v>
+        <v>23.07383737268972</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>191221.614969281</v>
+        <v>23.10686410899963</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>168143.8077174113</v>
+        <v>23.10665633619431</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-925948.4517710438</v>
+        <v>23.03404247224735</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>611770.7978377857</v>
+        <v>23.11396699108578</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-2697197.651971754</v>
+        <v>23.01338392765996</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1262822.315287637</v>
+        <v>23.06088890874635</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-204684.9431163928</v>
+        <v>23.09241680119966</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-93704.06026874992</v>
+        <v>23.09728221594116</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-1518763.836654409</v>
+        <v>23.01216255455022</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-242502.3648431192</v>
+        <v>23.08901619475364</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-4331572.542022881</v>
+        <v>23.02344687549276</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-2424837.327434504</v>
+        <v>23.05990287487863</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-719682.3293783537</v>
+        <v>23.0807076622861</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-370376.5984925742</v>
+        <v>23.08957990250003</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1767060.795052972</v>
+        <v>23.02530181353351</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-358605.7159514416</v>
+        <v>23.0782487898482</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-575676.3604407815</v>
+        <v>23.05276557083788</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-503138.8674851626</v>
+        <v>23.07199620357228</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1128143.093612326</v>
+        <v>23.02200321239926</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-513326.3724121085</v>
+        <v>23.06416010645146</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-569433.4592281345</v>
+        <v>23.06106604508122</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-422944.2639947881</v>
+        <v>23.09069235247219</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>666847.0207697796</v>
+        <v>23.15754119217562</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>811738.448642554</v>
+        <v>23.17799068273961</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-169511.5216593849</v>
+        <v>23.04016611173004</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1373722.382068958</v>
+        <v>23.15256824294225</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1182720.200903524</v>
+        <v>23.24042901448943</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1269454.336437526</v>
+        <v>23.26069824375024</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>67271.13746995882</v>
+        <v>23.12329108830082</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>455152.470872273</v>
+        <v>23.15440564989198</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-599742.4770318549</v>
+        <v>23.01776572645354</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>956138.6873166552</v>
+        <v>23.13182108483213</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>809028.5903530361</v>
+        <v>23.2116503685745</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1042074.836338234</v>
+        <v>23.24031100909438</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-277740.3191814802</v>
+        <v>23.08821349902851</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>354642.4712133387</v>
+        <v>23.12149396085492</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-1100631.091783318</v>
+        <v>23.02640976930516</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>599914.4042463748</v>
+        <v>23.1119272790879</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>434265.8205956835</v>
+        <v>23.15713190974593</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1022118.170020315</v>
+        <v>23.1938289540413</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-5702424.254729806</v>
+        <v>23.0503988055464</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-3668057.946369101</v>
+        <v>23.07519924120966</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-2486681.755155173</v>
+        <v>23.07181545603694</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-2526220.901642369</v>
+        <v>23.07441907985663</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-2267022.553253424</v>
+        <v>23.04590417489173</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-1335374.013910055</v>
+        <v>23.06914988454446</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-4949368.692799767</v>
+        <v>23.04164914465812</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-670050.6853855096</v>
+        <v>23.09182677281605</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1386981.167581829</v>
+        <v>23.12723930815433</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1245570.201388733</v>
+        <v>23.12706044582815</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-2528982.936826521</v>
+        <v>23.03407613846611</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-153685.8237027226</v>
+        <v>23.09797316818417</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-3840853.920053618</v>
+        <v>23.04183395173879</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1359760.766722181</v>
+        <v>23.09179828333952</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1857779.745167229</v>
+        <v>23.12902762646955</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1987664.632559775</v>
+        <v>23.13227942979681</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-2643177.498196467</v>
+        <v>23.02719237790632</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-166684.3780370359</v>
+        <v>23.08979031621418</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-7565359.471533957</v>
+        <v>23.04425892566123</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-79931.55080945855</v>
+        <v>23.08472424537257</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1474000.042473722</v>
+        <v>23.10884085593568</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1629773.756448447</v>
+        <v>23.11437639683717</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-3668345.842166227</v>
+        <v>23.03513202968571</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-227793.6791491077</v>
+        <v>23.08079759335242</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-1327597.903144734</v>
+        <v>23.05782246565342</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-920135.1966194019</v>
+        <v>23.07303044579347</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-2450487.792443365</v>
+        <v>23.01669396526488</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-1800454.550809974</v>
+        <v>23.05194664778477</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-1242696.584038574</v>
+        <v>23.05878719783722</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>-891566.1810246634</v>
+        <v>23.0795539048873</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>621588.0095886347</v>
+        <v>23.13661843399224</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>1329668.258027099</v>
+        <v>23.15260570572142</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-1557392.083427095</v>
+        <v>23.0209691484274</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1029735.863888273</v>
+        <v>23.10885821893207</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1627678.948527331</v>
+        <v>23.18824030996518</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1888002.712785397</v>
+        <v>23.20174898935386</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>325440.4559560674</v>
+        <v>23.12470496349692</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1356222.954563028</v>
+        <v>23.14798206891707</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-1736373.593185396</v>
+        <v>23.01493208326627</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1167407.028333667</v>
+        <v>23.10505839980745</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1484054.672353516</v>
+        <v>23.18178769991156</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>1909717.569040348</v>
+        <v>23.20087619102033</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>-340836.9787514362</v>
+        <v>23.09284002428732</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>925178.0228310544</v>
+        <v>23.11665192323175</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-2797648.480110846</v>
+        <v>23.02584253937053</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>739695.6194923808</v>
+        <v>23.09584160939203</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>1087080.635680763</v>
+        <v>23.14213755522563</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1968302.86680754</v>
+        <v>23.16633052924488</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-1361080.245188092</v>
+        <v>23.05989543340304</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1574124.452620324</v>
+        <v>23.12207317796946</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>855622.4121813417</v>
+        <v>23.14702515754995</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>928140.054921471</v>
+        <v>23.14630189089494</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-779977.3615630927</v>
+        <v>23.04637519685217</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>374855.635818126</v>
+        <v>23.11119040658003</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-1229560.949636809</v>
+        <v>23.0386314840284</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>2026477.047362263</v>
+        <v>23.13747776459497</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2151518.906357248</v>
+        <v>23.21415695206746</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2079811.249548625</v>
+        <v>23.20777697134418</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-672522.9678057733</v>
+        <v>23.02351772384291</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>959582.0484321989</v>
+        <v>23.14720769653344</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-1552804.564578048</v>
+        <v>23.03298835690516</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1979887.772613857</v>
+        <v>23.13051115835424</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2118055.94576815</v>
+        <v>23.2087899110326</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>2115197.277776505</v>
+        <v>23.20709040448532</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-819624.8610352469</v>
+        <v>23.01123801190973</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>780003.4774901295</v>
+        <v>23.13192335910119</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-2972075.173593524</v>
+        <v>23.03525691482378</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2313143.91802456</v>
+        <v>23.11582542468398</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>2604794.31183212</v>
+        <v>23.17419869068761</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>2763147.580225437</v>
+        <v>23.17726646677136</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-1202277.573699903</v>
+        <v>23.02276349623235</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>982738.7509030144</v>
+        <v>23.11487776512233</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>198749.7076187484</v>
+        <v>23.12890497837112</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>225137.8866508907</v>
+        <v>23.13662948611661</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-786365.9619924026</v>
+        <v>23.01450837552109</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>186812.0503171679</v>
+        <v>23.10175429545121</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>206307.7605836525</v>
+        <v>23.14054919278405</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>385023.8790159454</v>
+        <v>23.16134131304528</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1048800.228276948</v>
+        <v>23.23177376534987</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1084920.307360241</v>
+        <v>23.23725849250516</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-384061.0822109422</v>
+        <v>23.01235253896649</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1259863.717394333</v>
+        <v>23.17646173698707</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1295904.601435397</v>
+        <v>23.31242360438786</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>1321065.326551232</v>
+        <v>23.31921442227927</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>905971.0444498205</v>
+        <v>23.21087228639479</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1052349.074850414</v>
+        <v>23.22660849481503</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-516814.5256852084</v>
+        <v>22.99949740800213</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1219527.121588872</v>
+        <v>23.16561353655286</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1219077.816767902</v>
+        <v>23.29738454956416</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1297841.204278421</v>
+        <v>23.31163680934199</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>801200.6722715803</v>
+        <v>23.16026160618648</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>1017804.900780235</v>
+        <v>23.18004981137542</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-753415.6048448308</v>
+        <v>23.01515293287826</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>1532002.417219935</v>
+        <v>23.14709906518614</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1375915.696728883</v>
+        <v>23.23645388540299</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1605672.680595044</v>
+        <v>23.26066748335444</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-2665527.875163378</v>
+        <v>23.04336757064913</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>-540901.6144829824</v>
+        <v>23.09501249337134</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-593573.8355795384</v>
+        <v>23.0914099882145</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-428168.2089006071</v>
+        <v>23.09480450392274</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-1177390.325222013</v>
+        <v>23.03242070894913</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-92759.96411423774</v>
+        <v>23.08601012389986</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-1596219.350031885</v>
+        <v>23.03916044265175</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1729160.613926433</v>
+        <v>23.12984015121091</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1650087.974188194</v>
+        <v>23.17681412014398</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>1590991.488375325</v>
+        <v>23.17450891293455</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-989728.099058763</v>
+        <v>23.02473815010674</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>883568.8140887027</v>
+        <v>23.14006297186585</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-1804554.571709181</v>
+        <v>23.03402104038374</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1625216.664352752</v>
+        <v>23.12295368986837</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>1656184.35541645</v>
+        <v>23.17198064653049</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>1706923.164962066</v>
+        <v>23.1748073217417</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-1202226.779706416</v>
+        <v>23.00908762569907</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>545982.8524423486</v>
+        <v>23.1208349761184</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-3467722.083885009</v>
+        <v>23.03101550207258</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>590869.9406312016</v>
+        <v>23.10075708234254</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>1212537.926904614</v>
+        <v>23.1346843786573</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>1692292.047292193</v>
+        <v>23.14307949403526</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-1804453.626750136</v>
+        <v>23.00827286527106</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>116031.9903893087</v>
+        <v>23.08816558981714</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-148295.2815887688</v>
+        <v>23.07793935388574</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>-81984.00864929245</v>
+        <v>23.08951265768324</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-1069616.28655636</v>
+        <v>23.00847955031482</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-341477.500687391</v>
+        <v>23.07870455789296</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-238103.3695640184</v>
+        <v>23.07866703028846</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-39864.89925195136</v>
+        <v>23.10546187606326</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>890096.0371432005</v>
+        <v>23.19552269462617</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>921165.3018834697</v>
+        <v>23.20465778149181</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-532982.4182385826</v>
+        <v>23.02046920222695</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1208247.436418336</v>
+        <v>23.17030317172939</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1072435.187293461</v>
+        <v>23.26237390801436</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>1126077.404927419</v>
+        <v>23.27533502766097</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>640986.9992469779</v>
+        <v>23.16980862156435</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>829317.7744701777</v>
+        <v>23.18983524456068</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-744993.1947506488</v>
+        <v>23.00190240860858</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>998252.7752519028</v>
+        <v>23.15304682246974</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>920471.9889412086</v>
+        <v>23.23992888438481</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1083173.973837368</v>
+        <v>23.26127278424525</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>151059.239315259</v>
+        <v>23.10706048153757</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>553845.7744213359</v>
+        <v>23.1324691579621</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-1424409.32088701</v>
+        <v>23.00362439475641</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>450388.8089069962</v>
+        <v>23.11749954397447</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>534728.2064945777</v>
+        <v>23.16755655193474</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>984731.3133947307</v>
+        <v>23.20023085975435</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.05197601489806</v>
+        <v>11.05197601489808</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.7313555442182</v>
+        <v>16.73135554421808</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.16061459070072</v>
+        <v>15.16061459070073</v>
       </c>
     </row>
     <row r="5">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.0846209067386</v>
+        <v>20.08462090673866</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.04490204325639</v>
+        <v>28.04490204325634</v>
       </c>
     </row>
     <row r="8">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.75036311797304</v>
+        <v>19.75036311797298</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.24815431804077</v>
+        <v>27.24815431804084</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.4501396212979</v>
+        <v>26.45013962129791</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.89818975066935</v>
+        <v>18.89818975066934</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.8480548313444</v>
+        <v>37.84805483134437</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.346402757484054</v>
+        <v>6.346402757484071</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.48320523410199</v>
+        <v>17.48320523410202</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.48043086865604</v>
+        <v>23.48043086865611</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.32571569523794</v>
+        <v>24.32571569523795</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.94752217287641</v>
+        <v>12.94752217287638</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.3266681232621</v>
+        <v>29.32666812326208</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.744533684103899</v>
+        <v>3.744533684103892</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.15234884971013</v>
+        <v>15.15234884971003</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.796752667812</v>
+        <v>20.79675266781216</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.34558497020191</v>
+        <v>22.34558497020201</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.08504704938083</v>
+        <v>15.08504704938084</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.58822823229826</v>
+        <v>28.58822823229825</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.70591340514649</v>
+        <v>25.70591340514643</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.56089078685932</v>
+        <v>28.56089078685938</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18.42372983664196</v>
+        <v>18.423729836642</v>
       </c>
     </row>
     <row r="29">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.44804895976939</v>
+        <v>25.44804895976945</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.856286015119</v>
+        <v>27.85628601511915</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.7352490581512</v>
+        <v>47.73524905815115</v>
       </c>
     </row>
     <row r="33">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.24935457151087</v>
+        <v>25.2493545715109</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.12386653856426</v>
+        <v>50.12386653856425</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>61.1132774016824</v>
+        <v>61.11327740168232</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>62.51318388437556</v>
+        <v>62.51318388437554</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.44558610940457</v>
+        <v>36.44558610940453</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.76093597196011</v>
+        <v>44.76093597196024</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.27150342781659</v>
+        <v>53.27150342781668</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57.70384848206518</v>
+        <v>57.70384848206515</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.66981596323259</v>
+        <v>29.6698159632326</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.95078199524566</v>
+        <v>38.95078199524559</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.75251121121847</v>
+        <v>21.75251121121843</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.17005917003137</v>
+        <v>43.17005917003126</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49.67941267845076</v>
+        <v>49.67941267845088</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>56.06308240198601</v>
+        <v>56.06308240198607</v>
       </c>
     </row>
     <row r="50">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.72629527290569</v>
+        <v>38.72629527290574</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.21764585465596</v>
+        <v>34.21764585465593</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.39882061122462</v>
+        <v>36.39882061122464</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.14934409258343</v>
+        <v>16.14934409258342</v>
       </c>
     </row>
     <row r="55">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.79617590934528</v>
+        <v>42.79617590934525</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.28606794729491</v>
+        <v>47.28606794729488</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.94453215622011</v>
+        <v>46.94453215622018</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.72727495592522</v>
+        <v>18.72727495592518</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.05942720472629</v>
+        <v>44.05942720472635</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.56140513381073</v>
+        <v>14.5614051338107</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.76667604622785</v>
+        <v>40.76667604622786</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.67322971088441</v>
+        <v>46.67322971088444</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>46.7401677203875</v>
+        <v>46.74016772038755</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.82700681408364</v>
+        <v>15.82700681408361</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.89412057084176</v>
+        <v>37.89412057084172</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.39988483323183</v>
+        <v>12.39988483323184</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.780463404739</v>
+        <v>38.78046340473898</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.52893790864606</v>
+        <v>43.52893790864601</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.14096622128608</v>
+        <v>46.1409662212861</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.9422831393856</v>
+        <v>15.94228313938552</v>
       </c>
     </row>
     <row r="73">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.19870820379486</v>
+        <v>28.19870820379484</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.3516191230294</v>
+        <v>30.35161912302941</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.6410774359878</v>
+        <v>17.64107743598783</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.84657425958247</v>
+        <v>34.84657425958254</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.53006056894229</v>
+        <v>33.53006056894235</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.82956078595532</v>
+        <v>38.82956078595542</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48.02249498763119</v>
+        <v>48.02249498763125</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.81455444888941</v>
+        <v>50.81455444888937</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.29809196537536</v>
+        <v>20.29809196537535</v>
       </c>
     </row>
     <row r="83">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>58.55246153648189</v>
+        <v>58.55246153648199</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.96131654408173</v>
+        <v>59.96131654408191</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.80637505155858</v>
+        <v>41.80637505155863</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47.512760846254</v>
+        <v>47.51276084625404</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17.16316180634255</v>
+        <v>17.16316180634253</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>48.41924741083605</v>
+        <v>48.41924741083612</v>
       </c>
     </row>
     <row r="90">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.94901286043864</v>
+        <v>56.94901286043871</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.15222988387645</v>
+        <v>34.15222988387644</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.52439498576864</v>
+        <v>41.52439498576862</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.8137168729019</v>
+        <v>17.81371687290189</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44.74520163844491</v>
+        <v>44.74520163844495</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.17016859226251</v>
+        <v>50.17016859226253</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>56.03919241651182</v>
+        <v>56.03919241651185</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.22633758484684</v>
+        <v>16.22633758484681</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.73076075019616</v>
+        <v>34.73076075019618</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.34160755690411</v>
+        <v>32.34160755690412</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.72046210284195</v>
+        <v>32.72046210284198</v>
       </c>
     </row>
     <row r="102">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.25137424664276</v>
+        <v>34.25137424664271</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.79048534466831</v>
+        <v>18.79048534466836</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.89217709698774</v>
+        <v>43.89217709698769</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>51.54060446610154</v>
+        <v>51.54060446610161</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>50.13072830540615</v>
+        <v>50.13072830540625</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.13960475976651</v>
+        <v>20.13960475976653</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.78905390352698</v>
+        <v>46.78905390352695</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.40427487467317</v>
+        <v>15.40427487467315</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.22781113449672</v>
+        <v>41.22781113449682</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.47939841238053</v>
+        <v>47.47939841238063</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>46.69605044735171</v>
+        <v>46.6960504473518</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.92411604266388</v>
+        <v>17.92411604266384</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.77474660031069</v>
+        <v>42.77474660031071</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>15.21472898265972</v>
+        <v>15.21472898265971</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.20837310331387</v>
+        <v>42.20837310331399</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.25071218089154</v>
+        <v>47.25071218089165</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>47.75995238785414</v>
+        <v>47.75995238785417</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.34383112521055</v>
+        <v>17.3438311252105</v>
       </c>
     </row>
     <row r="121">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.58092301821684</v>
+        <v>34.58092301821679</v>
       </c>
     </row>
     <row r="123">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.86382738470246</v>
+        <v>35.86382738470243</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.32171962365243</v>
+        <v>38.32171962365247</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.46468756266975</v>
+        <v>42.46468756266981</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.9639375701119</v>
+        <v>55.96393757011194</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.10213011783065</v>
+        <v>57.10213011783063</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>23.18385910366901</v>
+        <v>23.18385910366898</v>
       </c>
     </row>
     <row r="131">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.8561797873007</v>
+        <v>66.85617978730079</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.16630926049058</v>
+        <v>67.16630926049064</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>50.83853297030767</v>
+        <v>50.83853297030775</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.00159029680054</v>
+        <v>54.00159029680059</v>
       </c>
     </row>
     <row r="136">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.67639165118841</v>
+        <v>51.67639165118845</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.48952732872738</v>
+        <v>62.48952732872737</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>63.70294115762284</v>
+        <v>63.70294115762285</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.7017065998975</v>
+        <v>42.70170659989749</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.13537721824571</v>
+        <v>46.13537721824566</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.93916700223081</v>
+        <v>20.93916700223079</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.27014823491378</v>
+        <v>51.27014823491385</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>59.22140976951339</v>
+        <v>59.22140976951344</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>61.55938989052454</v>
+        <v>61.55938989052456</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>15.07986392923993</v>
+        <v>15.07986392923987</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.65387891835118</v>
+        <v>17.65387891835114</v>
       </c>
     </row>
     <row r="148">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.8406013825886</v>
+        <v>26.84060138258858</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.70091616387045</v>
+        <v>18.70091616387048</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.55016083036489</v>
+        <v>26.55016083036493</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.46639574882703</v>
+        <v>13.46639574882696</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.28047024211756</v>
+        <v>23.28047024211759</v>
       </c>
     </row>
     <row r="154">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.99180410438964</v>
+        <v>21.99180410438965</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>41.11803852282632</v>
+        <v>41.11803852282637</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10.73870418363257</v>
+        <v>10.73870418363255</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.36060424690706</v>
+        <v>20.36060424690705</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.45291343063042</v>
+        <v>35.4529134306304</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.32725074784154</v>
+        <v>36.3272507478415</v>
       </c>
     </row>
     <row r="162">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.00152568497298</v>
+        <v>31.00152568497294</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.941932402402319</v>
+        <v>8.941932402402255</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18.37350365027941</v>
+        <v>18.37350365027944</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.33547875155378</v>
+        <v>33.33547875155376</v>
       </c>
     </row>
     <row r="167">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.33009927698555</v>
+        <v>14.33009927698553</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.48730546661554</v>
+        <v>27.48730546661555</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.33460674902116</v>
+        <v>19.33460674902118</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.34775519994931</v>
+        <v>21.34775519994929</v>
       </c>
     </row>
     <row r="172">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.61521953448133</v>
+        <v>24.61521953448137</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.94092259144953</v>
+        <v>21.94092259144955</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.62917433549524</v>
+        <v>24.62917433549531</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.30202777061541</v>
+        <v>47.30202777061542</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.23407471157439</v>
+        <v>52.23407471157449</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.43118591609224</v>
+        <v>27.43118591609229</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.3127214442549</v>
+        <v>50.31272144425493</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>62.12433454414922</v>
+        <v>62.12433454414927</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.69475572386466</v>
+        <v>64.69475572386477</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.04915929085965</v>
+        <v>35.0491592908597</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.3211303024318</v>
+        <v>44.32113030243182</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.6421911042443</v>
+        <v>20.64219110424429</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.5810335524947</v>
+        <v>41.58103355249463</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.70997803854262</v>
+        <v>51.70997803854259</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>57.55691411253366</v>
+        <v>57.55691411253367</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.94649870445469</v>
+        <v>23.94649870445464</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.54295454722408</v>
+        <v>33.54295454722407</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.98490586231504</v>
+        <v>18.98490586231499</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.85804215468649</v>
+        <v>37.85804215468645</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.81854129845837</v>
+        <v>43.81854129845838</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>50.9024632324236</v>
+        <v>50.90246323242355</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.03430776906774</v>
+        <v>11.03430776906778</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.43432022907802</v>
+        <v>29.43432022907813</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.26036187728243</v>
+        <v>26.26036187728244</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.82419812802986</v>
+        <v>25.82419812802983</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.50104795563087</v>
+        <v>21.50104795563086</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.66900711051203</v>
+        <v>37.6690071105121</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.9283607061657</v>
+        <v>17.92836070616568</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.82081086255929</v>
+        <v>45.82081086255931</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.55449531546287</v>
+        <v>52.55449531546279</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>51.03774127201249</v>
+        <v>51.03774127201243</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.97041250397202</v>
+        <v>20.970412503972</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.4037416702739</v>
+        <v>47.40374167027392</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.59053990912486</v>
+        <v>16.59053990912489</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.53100565021813</v>
+        <v>44.53100565021816</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.48328398376999</v>
+        <v>52.48328398377005</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.2914282340808</v>
+        <v>52.29142823408093</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.00497730556703</v>
+        <v>18.00497730556705</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.06920339689358</v>
+        <v>43.06920339689363</v>
       </c>
     </row>
     <row r="212">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.00073781430774</v>
+        <v>45.00073781430777</v>
       </c>
     </row>
     <row r="214">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.46090787899258</v>
+        <v>19.4609078789926</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.67186808703509</v>
+        <v>44.67186808703504</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.58976968196277</v>
+        <v>38.58976968196275</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.55977008258813</v>
+        <v>38.55977008258818</v>
       </c>
     </row>
     <row r="220">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.1722359508089</v>
+        <v>33.17223595080899</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.25794416495284</v>
+        <v>36.25794416495286</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.56010803802831</v>
+        <v>39.56010803802828</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>62.87025030299407</v>
+        <v>62.87025030299409</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.80676554228561</v>
+        <v>63.8067655422857</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.03748666464383</v>
+        <v>24.03748666464377</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.63905963253539</v>
+        <v>51.63905963253556</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>68.5181898194936</v>
+        <v>68.51818981949356</v>
       </c>
     </row>
     <row r="229">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>57.0773248550519</v>
+        <v>57.07732485505187</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.15013569212766</v>
+        <v>20.15013569212764</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.42432068653383</v>
+        <v>47.4243206865338</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>63.04268470819335</v>
+        <v>63.04268470819334</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.93941035499429</v>
+        <v>65.93941035499437</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.10725546550097</v>
+        <v>50.10725546550103</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.03935660527179</v>
+        <v>53.03935660527188</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.8822372272938</v>
+        <v>22.88223722729377</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.28041378336101</v>
+        <v>51.28041378336098</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>63.2251409285814</v>
+        <v>63.22514092858138</v>
       </c>
     </row>
     <row r="240">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.45297351887177</v>
+        <v>34.45297351887182</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.0775964065426</v>
+        <v>27.07759640654263</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.48307169984327</v>
+        <v>27.48307169984328</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.73712322370803</v>
+        <v>19.73712322370805</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.03525943696831</v>
+        <v>40.03525943696835</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.63861508065129</v>
+        <v>15.63861508065127</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.90981340608687</v>
+        <v>42.90981340608688</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>48.37124516072539</v>
+        <v>48.37124516072548</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.46567332966357</v>
+        <v>47.4656733296636</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.00039725204384</v>
+        <v>20.0003972520438</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>49.23876272774837</v>
+        <v>49.23876272774843</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.31829548523293</v>
+        <v>13.31829548523295</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.85367368569746</v>
+        <v>40.85367368569749</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.78624273217602</v>
+        <v>51.78624273217605</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>50.82551493982722</v>
+        <v>50.82551493982724</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.049083301335</v>
+        <v>17.04908330133496</v>
       </c>
     </row>
     <row r="258">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>13.52214072863984</v>
+        <v>13.52214072863985</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.50756593345009</v>
+        <v>44.50756593345008</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.17027671926826</v>
+        <v>54.17027671926824</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.45293579567148</v>
+        <v>54.45293579567144</v>
       </c>
     </row>
     <row r="263">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.88003769212227</v>
+        <v>38.88003769212234</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.06027276392443</v>
+        <v>40.06027276392445</v>
       </c>
     </row>
     <row r="267">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.7201713268056</v>
+        <v>36.72017132680557</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.77584083532492</v>
+        <v>37.77584083532496</v>
       </c>
     </row>
     <row r="270">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>57.48975011602822</v>
+        <v>57.48975011602832</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>58.13807557968262</v>
+        <v>58.13807557968266</v>
       </c>
     </row>
     <row r="273">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>60.11721625869419</v>
+        <v>60.11721625869415</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.93590626361557</v>
+        <v>60.93590626361564</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.13111794802186</v>
+        <v>53.13111794802192</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>55.29631431213053</v>
+        <v>55.29631431213062</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.99987732802087</v>
+        <v>19.99987732802089</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>49.00538497733982</v>
+        <v>49.00538497733977</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.89003762614657</v>
+        <v>57.89003762614654</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>59.41676817004673</v>
+        <v>59.41676817004677</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.14240802743329</v>
+        <v>45.14240802743338</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.6353234852701</v>
+        <v>48.63532348527018</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.72073968365322</v>
+        <v>20.72073968365319</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>50.28892496224523</v>
+        <v>50.2889249622452</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>56.39919394735792</v>
+        <v>56.39919394735789</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>59.03263066321095</v>
+        <v>59.03263066321105</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.37802241805457</v>
+        <v>8.378022418054574</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>13.6405836230494</v>
+        <v>13.64058362304941</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.67643096128669</v>
+        <v>16.67643096128675</v>
       </c>
     </row>
     <row r="291">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.00852433107407</v>
+        <v>16.0085243310741</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.35847696999107</v>
+        <v>25.35847696999106</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5.845977155417664</v>
+        <v>5.845977155417643</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.9265296466793</v>
+        <v>15.92652964667926</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.47131107174686</v>
+        <v>27.47131107174682</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.78006622813842</v>
+        <v>26.78006622813841</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.11366110136958</v>
+        <v>17.11366110136957</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.7695508071846</v>
+        <v>34.76955080718457</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>2.259485930176822</v>
+        <v>2.259485930176766</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.53184315223576</v>
+        <v>12.53184315223578</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.18597732674297</v>
+        <v>23.18597732674294</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.31044626859659</v>
+        <v>23.31044626859657</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.7533662094508</v>
+        <v>13.75336620945081</v>
       </c>
     </row>
     <row r="305">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1.421518410662465</v>
+        <v>1.421518410662475</v>
       </c>
     </row>
     <row r="307">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>18.5822968331376</v>
+        <v>18.58229683313763</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.79404382808686</v>
+        <v>19.79404382808688</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.00809238013812</v>
+        <v>14.00809238013811</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.68767341032896</v>
+        <v>27.68767341032903</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.10766662718488</v>
+        <v>24.1076666271849</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.7997384627044</v>
+        <v>25.79973846270447</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>15.10965003632307</v>
+        <v>15.10965003632308</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.64215180032052</v>
+        <v>25.64215180032051</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.46543893755539</v>
+        <v>28.46543893755542</v>
       </c>
     </row>
     <row r="317">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.94980401156866</v>
+        <v>40.94980401156874</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>43.88089211002924</v>
+        <v>43.88089211002925</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.69626311169043</v>
+        <v>22.69626311169045</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.6992313916091</v>
+        <v>45.69923139160912</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.51398895017407</v>
+        <v>57.51398895017405</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>58.87818921705481</v>
+        <v>58.8781892170549</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.09759808363565</v>
+        <v>34.09759808363566</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.57252273154336</v>
+        <v>39.5725227315434</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.12395468029219</v>
+        <v>19.1239546802922</v>
       </c>
     </row>
     <row r="327">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>52.05733721101272</v>
+        <v>52.05733721101274</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.9102480710597</v>
+        <v>54.91024807105973</v>
       </c>
     </row>
     <row r="330">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.14997543100695</v>
+        <v>33.14997543100694</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.17399144348011</v>
+        <v>20.17399144348009</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.90929240157951</v>
+        <v>43.90929240157953</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.72988689170985</v>
+        <v>49.72988689170981</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.8901000507668</v>
+        <v>52.89010005076679</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.06186701245526</v>
+        <v>10.06186701245522</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.33882203772963</v>
+        <v>13.33882203772958</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>11.36074262018177</v>
+        <v>11.3607426201818</v>
       </c>
     </row>
     <row r="339">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.83491756423117</v>
+        <v>14.8349175642312</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.7963235316029</v>
+        <v>15.79632353160295</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>6.222291391027944</v>
+        <v>6.222291391027952</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>15.24220708414396</v>
+        <v>15.242207084144</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.61699363134232</v>
+        <v>20.61699363134235</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.19442565571981</v>
+        <v>19.19442565571986</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>4.965743091689092</v>
+        <v>4.965743091689102</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.7009432318004</v>
+        <v>13.70094323180046</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>4.023774923264163</v>
+        <v>4.02377492326417</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.464308467656</v>
+        <v>12.46430846765602</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.46937081828187</v>
+        <v>16.46937081828188</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.2817400139649</v>
+        <v>16.28174001396489</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>2.6475295913257</v>
+        <v>2.647529591325704</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.023103567225345</v>
+        <v>9.023103567225341</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1.501320203087314</v>
+        <v>1.501320203087271</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.121559505076572</v>
+        <v>9.121559505076533</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.04098483868013</v>
+        <v>11.04098483868015</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.47844891823737</v>
+        <v>11.47844891823735</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.930097973732323</v>
+        <v>3.930097973732309</v>
       </c>
     </row>
     <row r="359">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.63966820392354</v>
+        <v>14.63966820392353</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.60662076366085</v>
+        <v>15.60662076366089</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.660313704390425</v>
+        <v>7.660313704390393</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>8.747600143961755</v>
+        <v>8.747600143961723</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.95992096114368</v>
+        <v>14.95992096114367</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.82227470963134</v>
+        <v>21.82227470963137</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.67135809892355</v>
+        <v>22.67135809892352</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.20817680411289</v>
+        <v>26.20817680411278</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.564539804276254</v>
+        <v>8.564539804276308</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.45110077763939</v>
+        <v>21.45110077763942</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.94557450198003</v>
+        <v>32.94557450198004</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.98067195513828</v>
+        <v>40.98067195513831</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.31296468924785</v>
+        <v>15.3129646892479</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.84188389173394</v>
+        <v>21.84188389173396</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>6.835085709755603</v>
+        <v>6.835085709755599</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.12354724012006</v>
+        <v>18.12354724012005</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.21387870973406</v>
+        <v>27.21387870973413</v>
       </c>
     </row>
     <row r="377">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>8.336236583077081</v>
+        <v>8.336236583077049</v>
       </c>
     </row>
     <row r="379">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.548544979423532</v>
+        <v>7.548544979423518</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.52934751967785</v>
+        <v>17.52934751967788</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.78744454632712</v>
+        <v>23.78744454632708</v>
       </c>
     </row>
     <row r="383">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.23515476758313</v>
+        <v>37.23515476758308</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.40761915848275</v>
+        <v>36.40761915848279</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.35266958714966</v>
+        <v>37.35266958714972</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.26385853369804</v>
+        <v>17.26385853369805</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.77801311523327</v>
+        <v>31.77801311523325</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>18.35160611301313</v>
+        <v>18.35160611301314</v>
       </c>
     </row>
     <row r="391">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.45332878361251</v>
+        <v>55.45332878361253</v>
       </c>
     </row>
     <row r="393">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.21773108080043</v>
+        <v>19.21773108080041</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.21352032770135</v>
+        <v>42.21352032770131</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>14.26870383545395</v>
+        <v>14.26870383545396</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.65846381155283</v>
+        <v>41.65846381155286</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>52.15250784992767</v>
+        <v>52.15250784992772</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>51.83486449064412</v>
+        <v>51.83486449064422</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.41053371691454</v>
+        <v>16.41053371691453</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.19627328947294</v>
+        <v>38.19627328947293</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>11.27595997891159</v>
+        <v>11.2759599789116</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.6355163876389</v>
+        <v>39.63551638763889</v>
       </c>
     </row>
     <row r="404">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.0123093944665</v>
+        <v>49.01230939446658</v>
       </c>
     </row>
     <row r="406">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.65832909796755</v>
+        <v>34.65832909796757</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.1814444983435</v>
+        <v>31.18144449834345</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.70817412523736</v>
+        <v>31.70817412523729</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.26760201094447</v>
+        <v>18.26760201094445</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.73200008674407</v>
+        <v>33.73200008674406</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.24885042582176</v>
+        <v>36.24885042582169</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.27472011385866</v>
+        <v>40.27472011385869</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.73606166211709</v>
+        <v>50.73606166211712</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.16414461940546</v>
+        <v>51.16414461940551</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.46870652991021</v>
+        <v>22.46870652991018</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.22496989618789</v>
+        <v>50.2249698961879</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.002559591375</v>
+        <v>62.00255959137495</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>62.34019748140945</v>
+        <v>62.34019748140951</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>45.31474849838494</v>
+        <v>45.31474849838499</v>
       </c>
     </row>
     <row r="421">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.72701803851817</v>
+        <v>19.72701803851818</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>58.09862491629111</v>
+        <v>58.09862491629121</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>59.26762434983662</v>
+        <v>59.26762434983667</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.70600305439338</v>
+        <v>35.70600305439341</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>39.01952407829643</v>
+        <v>39.01952407829648</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>19.73527549882712</v>
+        <v>19.7352754988271</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>46.70392349410021</v>
+        <v>46.70392349410027</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.76174608049268</v>
+        <v>53.76174608049274</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>56.64923055041149</v>
+        <v>56.64923055041158</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.870448123036731</v>
+        <v>9.870448123036752</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>13.47661333620402</v>
+        <v>13.47661333620403</v>
       </c>
     </row>
     <row r="434">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.94937304854705</v>
+        <v>11.94937304854707</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.75581778141675</v>
+        <v>11.75581778141676</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.02432339306101</v>
+        <v>18.02432339306099</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.905086563040776</v>
+        <v>8.905086563040786</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.62041026444514</v>
+        <v>17.6204102644452</v>
       </c>
     </row>
     <row r="440">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.57242170246739</v>
+        <v>22.57242170246737</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.2893412933305</v>
+        <v>15.28934129333047</v>
       </c>
     </row>
     <row r="443">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6.022418015407723</v>
+        <v>6.022418015407727</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.6824144031558</v>
+        <v>13.68241440315576</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.41302250156373</v>
+        <v>18.41302250156379</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.82461941088448</v>
+        <v>19.8246194108845</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.632214266405313</v>
+        <v>9.632214266405345</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.14710906255357</v>
+        <v>19.14710906255356</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>3.614834696486</v>
+        <v>3.614834696485996</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.1988293420721</v>
+        <v>10.19882934207212</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.15026218498977</v>
+        <v>13.15026218498987</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>15.82354485995773</v>
+        <v>15.82354485995776</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.586604926708571</v>
+        <v>6.586604926708567</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.49725558878805</v>
+        <v>13.49725558878808</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.7997791504892</v>
+        <v>13.79977915048916</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>15.34300780446088</v>
+        <v>15.34300780446084</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.59739646434177</v>
+        <v>13.59739646434179</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.51551571076332</v>
+        <v>17.5155157107633</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.44549075825105</v>
+        <v>15.44549075825109</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.30660299280585</v>
+        <v>18.30660299280586</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.01228833451881</v>
+        <v>32.01228833451882</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.0864191319655</v>
+        <v>36.08641913196561</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.89785333124046</v>
+        <v>24.89785333124049</v>
       </c>
     </row>
     <row r="465">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>48.61242788078712</v>
+        <v>48.61242788078715</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>53.04917175703652</v>
+        <v>53.04917175703653</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.42163746556958</v>
+        <v>20.42163746556959</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.69456726406202</v>
+        <v>28.69456726406204</v>
       </c>
     </row>
     <row r="470">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.10051863369947</v>
+        <v>32.10051863369943</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.13552317469623</v>
+        <v>39.13552317469627</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.72881664271508</v>
+        <v>47.72881664271514</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.93171018554391</v>
+        <v>10.93171018554389</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.29158695005203</v>
+        <v>18.29158695005205</v>
       </c>
     </row>
     <row r="476">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.22644163445248</v>
+        <v>29.22644163445241</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.2270657273299</v>
+        <v>32.22706572732991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.32340777083515</v>
+        <v>41.32340777083517</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>5.137035200000309</v>
+        <v>5.137035200000327</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5.959558669173585</v>
+        <v>5.959558669173603</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4.558092264187266</v>
+        <v>4.558092264187231</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.432659303131835</v>
+        <v>5.432659303131878</v>
       </c>
     </row>
     <row r="484">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.24727156073268</v>
+        <v>30.24727156073271</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>4.166506109960256</v>
+        <v>4.166506109960253</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.370015320322544</v>
+        <v>8.370015320322466</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.09074627155427</v>
+        <v>11.09074627155432</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.53474252623388</v>
+        <v>11.53474252623387</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.71900390281857</v>
+        <v>17.71900390281856</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.8500826757482</v>
+        <v>39.85008267574815</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>4.466716935130044</v>
+        <v>4.466716935130034</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.231429079334223</v>
+        <v>8.231429079334184</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.882435697299499</v>
+        <v>9.882435697299417</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.36804001565998</v>
+        <v>11.36804001565996</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.76644273389528</v>
+        <v>16.7664427338953</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.22619151030977</v>
+        <v>37.22619151030973</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2.102744172559895</v>
+        <v>2.102744172559891</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.438398701521002</v>
+        <v>7.43839870152096</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>9.281186672588952</v>
+        <v>9.281186672588941</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.42252737094318</v>
+        <v>12.42252737094313</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.16773191016357</v>
+        <v>16.16773191016356</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.38804867772037</v>
+        <v>34.38804867772033</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.68029045685649</v>
+        <v>29.68029045685651</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.91590425460807</v>
+        <v>30.91590425460805</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.66188642377946</v>
+        <v>17.66188642377944</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.86723125979275</v>
+        <v>30.8672312597927</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.81156638769961</v>
+        <v>30.81156638769968</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.03057236880296</v>
+        <v>35.03057236880299</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.70807515782635</v>
+        <v>45.70807515782636</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.72435258582144</v>
+        <v>46.72435258582142</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.21504027729341</v>
+        <v>23.21504027729342</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>50.86566188474892</v>
+        <v>50.86566188474895</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.43744058487542</v>
+        <v>58.43744058487547</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>59.24854068825324</v>
+        <v>59.24854068825322</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.99249383099675</v>
+        <v>41.99249383099672</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>44.72834125028314</v>
+        <v>44.72834125028317</v>
       </c>
     </row>
     <row r="518">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.04750663463581</v>
+        <v>57.04750663463587</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>58.532206010056</v>
+        <v>58.53220601005599</v>
       </c>
     </row>
     <row r="522">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.7982622073085</v>
+        <v>38.79826220730848</v>
       </c>
     </row>
     <row r="524">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>50.31932683364767</v>
+        <v>50.31932683364766</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>55.91857024766379</v>
+        <v>55.91857024766382</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.17433844404911</v>
+        <v>58.17433844404913</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.35453039924399</v>
+        <v>13.35453039924398</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.39517414230722</v>
+        <v>17.39517414230718</v>
       </c>
     </row>
     <row r="530">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.56027545888399</v>
+        <v>15.56027545888398</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.582605585661188</v>
+        <v>9.58260558566117</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.343403647636</v>
+        <v>12.34340364763597</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>11.67745589608721</v>
+        <v>11.67745589608722</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>20.50411368241153</v>
+        <v>20.50411368241156</v>
       </c>
     </row>
     <row r="536">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.09172030422986</v>
+        <v>25.09172030422991</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>8.526862532741401</v>
+        <v>8.526862532741394</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.28939695489359</v>
+        <v>18.2893969548936</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.70418559466893</v>
+        <v>10.70418559466896</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.29804676494521</v>
+        <v>19.29804676494523</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.70827262149247</v>
+        <v>24.70827262149256</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.95428870604518</v>
+        <v>24.95428870604525</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.247334659954603</v>
+        <v>6.247334659954618</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.75139126572702</v>
+        <v>13.75139126572707</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.171340612653729</v>
+        <v>6.171340612653715</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.07220350146624</v>
+        <v>15.07220350146629</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.33465487363459</v>
+        <v>18.33465487363464</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.91381381254681</v>
+        <v>19.91381381254686</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.700253404996303</v>
+        <v>5.700253404996307</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.88633503448913</v>
+        <v>11.88633503448914</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.672251119180707</v>
+        <v>9.6722511191807</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.92849246944782</v>
+        <v>11.92849246944783</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.78209188305968</v>
+        <v>14.78209188305971</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.16098295985437</v>
+        <v>21.16098295985438</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.35747422398805</v>
+        <v>19.35747422398808</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.93382282938067</v>
+        <v>22.93382282938069</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.34579981110048</v>
+        <v>21.34579981110043</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.82639627656647</v>
+        <v>25.82639627656653</v>
       </c>
     </row>
     <row r="560">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.60846417846881</v>
+        <v>36.60846417846884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>45.5270717315376</v>
+        <v>45.52707173153757</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.07570088517015</v>
+        <v>48.07570088517018</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.71545083782502</v>
+        <v>15.71545083782506</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.34026263757853</v>
+        <v>22.34026263757852</v>
       </c>
     </row>
     <row r="566">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.49432898589733</v>
+        <v>40.49432898589731</v>
       </c>
     </row>
     <row r="569">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.08650904409879</v>
+        <v>10.08650904409885</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.80838829135095</v>
+        <v>15.80838829135088</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.09460267953148</v>
+        <v>15.09460267953146</v>
       </c>
     </row>
     <row r="573">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.35225490011024</v>
+        <v>34.35225490011022</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.71429374171824</v>
+        <v>38.71429374171823</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.288266763178232</v>
+        <v>7.288266763178264</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.792736148273402</v>
+        <v>7.792736148273434</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.103612570713924</v>
+        <v>6.10361257071396</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>6.110314528391662</v>
+        <v>6.11031452839164</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>7.071745310465051</v>
+        <v>7.071745310465047</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.067151239585293</v>
+        <v>7.067151239585346</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>6.058361240807876</v>
+        <v>6.058361240807855</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.432936615732341</v>
+        <v>9.432936615732316</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.87016044516075</v>
+        <v>11.8701604451607</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.36460008683546</v>
+        <v>11.36460008683545</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.467250938767414</v>
+        <v>4.467250938767393</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>9.279309210583357</v>
+        <v>9.279309210583342</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.87315142160822</v>
+        <v>5.873151421608206</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>8.608616225515441</v>
+        <v>8.608616225515394</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.74096186591349</v>
+        <v>10.74096186591342</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.98094672579703</v>
+        <v>10.98094672579696</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2.807592789777861</v>
+        <v>2.807592789777853</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.926347181239489</v>
+        <v>4.926347181239446</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2.935730316918633</v>
+        <v>2.93573031691864</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6.972485497868234</v>
+        <v>6.972485497868195</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.72420080706739</v>
+        <v>8.724200807067366</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.057496896904</v>
+        <v>10.05749689690401</v>
       </c>
     </row>
     <row r="598">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>4.779212863788509</v>
+        <v>4.779212863788519</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.76414678602821</v>
+        <v>3.764146786028217</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>3.724100431083922</v>
+        <v>3.724100431083951</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.3620494228943</v>
+        <v>14.36204942289427</v>
       </c>
     </row>
     <row r="603">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.52514445539974</v>
+        <v>16.52514445539978</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.43747075180241</v>
+        <v>10.43747075180238</v>
       </c>
     </row>
     <row r="607">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.62806169187546</v>
+        <v>17.62806169187548</v>
       </c>
     </row>
     <row r="609">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.63895132153873</v>
+        <v>35.63895132153869</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.56610738219955</v>
+        <v>36.5661073821995</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.224410141324284</v>
+        <v>5.224410141324338</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.975374791633531</v>
+        <v>7.975374791633556</v>
       </c>
     </row>
     <row r="614">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.46690281168481</v>
+        <v>25.4669028116848</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.63773735407392</v>
+        <v>32.6377373540739</v>
       </c>
     </row>
     <row r="617">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2.527600542104523</v>
+        <v>2.527600542104459</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4.849643580175997</v>
+        <v>4.849643580175954</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.47466417088951</v>
+        <v>14.4746641708895</v>
       </c>
     </row>
     <row r="621">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.88420244009833</v>
+        <v>27.88420244009832</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.26658523104741</v>
+        <v>30.26658523104745</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.846367320563</v>
+        <v>17.84636732056298</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.75198536302213</v>
+        <v>26.75198536302215</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.89390599608526</v>
+        <v>21.89390599608531</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.77923149834294</v>
+        <v>23.77923149834292</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.55619956706122</v>
+        <v>16.55619956706121</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.00955443053134</v>
+        <v>21.00955443053139</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.28963034514889</v>
+        <v>21.28963034514892</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>37.32331266716596</v>
+        <v>37.32331266716601</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>46.41833854936605</v>
+        <v>46.41833854936606</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>46.48319643344298</v>
+        <v>46.48319643344301</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.82010842826135</v>
+        <v>15.82010842826134</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.82221984733468</v>
+        <v>29.82221984733467</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.73774438603142</v>
+        <v>20.73774438603144</v>
       </c>
     </row>
     <row r="637">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.40254424683327</v>
+        <v>44.40254424683326</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.9906803074466</v>
+        <v>45.99068030744657</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.37876011675094</v>
+        <v>14.37876011675095</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.25153337647133</v>
+        <v>26.25153337647143</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>9.570844409138747</v>
+        <v>9.570844409138733</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.38376080358251</v>
+        <v>24.38376080358252</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.36775534263383</v>
+        <v>26.36775534263386</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.39137992901121</v>
+        <v>30.3913799290112</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.98809597046841</v>
+        <v>12.98809597046839</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.6045856823139</v>
+        <v>23.60458568231385</v>
       </c>
     </row>
     <row r="648">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.77624800832355</v>
+        <v>12.77624800832353</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.8454406211964</v>
+        <v>19.84544062119638</v>
       </c>
     </row>
     <row r="651">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.03068165483498</v>
+        <v>20.030681654835</v>
       </c>
     </row>
     <row r="653">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.62583076643136</v>
+        <v>36.62583076643131</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.78154021158149</v>
+        <v>36.78154021158143</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.86112218320619</v>
+        <v>27.8611221832062</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.67342272415573</v>
+        <v>48.67342272415581</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.15712112848443</v>
+        <v>59.1571211284844</v>
       </c>
     </row>
     <row r="659">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.34017355547724</v>
+        <v>35.34017355547729</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.51506117823423</v>
+        <v>25.51506117823422</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.70393186663928</v>
+        <v>45.70393186663927</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.39755775690369</v>
+        <v>55.39755775690375</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>58.34479199173079</v>
+        <v>58.34479199173084</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.95545518397824</v>
+        <v>19.95545518397821</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.9725532548853</v>
+        <v>24.97255325488529</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.67113341669624</v>
+        <v>21.67113341669628</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.86954621723582</v>
+        <v>40.86954621723595</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.96939416062627</v>
+        <v>41.96939416062624</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.3829403283654</v>
+        <v>47.38294032836531</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>20.29540486464093</v>
+        <v>20.29540486464092</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.11911573319658</v>
+        <v>38.11911573319664</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.56561926593351</v>
+        <v>38.5656192659335</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.48072522820023</v>
+        <v>39.48072522820028</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.0115746820568</v>
+        <v>16.01157468205681</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.7870084925754</v>
+        <v>27.78700849257539</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.40490175946212</v>
+        <v>19.40490175946211</v>
       </c>
     </row>
     <row r="679">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.38794089386727</v>
+        <v>49.38794089386731</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.98219877538326</v>
+        <v>48.98219877538327</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.54387626339183</v>
+        <v>17.54387626339182</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.71090490103775</v>
+        <v>37.71090490103774</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>17.70797447184589</v>
+        <v>17.7079744718459</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.97188528854777</v>
+        <v>38.9718852885478</v>
       </c>
     </row>
     <row r="686">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>47.7317688492008</v>
+        <v>47.73176884920089</v>
       </c>
     </row>
     <row r="688">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.33062067913255</v>
+        <v>38.33062067913259</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.18492992339108</v>
+        <v>47.18492992339114</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>49.46145194597699</v>
+        <v>49.46145194597708</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>13.8831065741467</v>
+        <v>13.88310657414672</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.3697193977847</v>
+        <v>28.36971939778472</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.35109339923294</v>
+        <v>26.35109339923297</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.55648373073587</v>
+        <v>27.55648373073593</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.0237687142177</v>
+        <v>16.02376871421772</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.07224920532855</v>
+        <v>28.07224920532854</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.47619020151207</v>
+        <v>28.47619020151209</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.46810970519897</v>
+        <v>33.46810970519903</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.19541446945637</v>
+        <v>43.1954144694564</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.11085726415028</v>
+        <v>45.11085726415031</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.17120804190086</v>
+        <v>20.17120804190083</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.04220883391503</v>
+        <v>45.04220883391505</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.0169482766579</v>
+        <v>54.01694827665793</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.40563267521896</v>
+        <v>56.40563267521912</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.31573577175176</v>
+        <v>37.31573577175185</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.04565324670392</v>
+        <v>42.04565324670399</v>
       </c>
     </row>
     <row r="710">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.64652627024689</v>
+        <v>40.64652627024692</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.44105926191187</v>
+        <v>48.44105926191196</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.74122469004466</v>
+        <v>52.74122469004476</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.44314191147466</v>
+        <v>29.44314191147467</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.83684845190917</v>
+        <v>34.8368484519092</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.58670243855272</v>
+        <v>16.58670243855273</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.66724196836755</v>
+        <v>37.66724196836761</v>
       </c>
     </row>
     <row r="718">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.59927735123509</v>
+        <v>49.5992773512351</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.09684886892932</v>
+        <v>16.09684886892926</v>
       </c>
     </row>
     <row r="721">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.99892970500035</v>
+        <v>31.99892970500048</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.46808211129431</v>
+        <v>33.46808211129428</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.66688799115847</v>
+        <v>18.66688799115848</v>
       </c>
     </row>
     <row r="725">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.91673281576326</v>
+        <v>40.91673281576332</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>48.46531530844057</v>
+        <v>48.46531530844062</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.58496831234699</v>
+        <v>47.58496831234702</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.26666308953243</v>
+        <v>16.26666308953244</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.86102833545223</v>
+        <v>39.86102833545232</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.76850736674001</v>
+        <v>13.76850736673998</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.23363212528881</v>
+        <v>40.23363212528898</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>48.36075325626501</v>
+        <v>48.36075325626499</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>48.59882174452406</v>
+        <v>48.59882174452405</v>
       </c>
     </row>
     <row r="736">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.45813245114564</v>
+        <v>34.4581324511457</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.63102680693635</v>
+        <v>10.63102680693639</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.22152733398899</v>
+        <v>38.221527333989</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>47.13408457873686</v>
+        <v>47.1340845787369</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>48.60854476480625</v>
+        <v>48.6085447648063</v>
       </c>
     </row>
     <row r="742">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.88536646238769</v>
+        <v>32.88536646238775</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.77432345830927</v>
+        <v>27.77432345830929</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.31273582324278</v>
+        <v>28.31273582324281</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>17.95432082103238</v>
+        <v>17.95432082103233</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.87222638639578</v>
+        <v>30.8722263863958</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.15192422004441</v>
+        <v>30.15192422004444</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.06418821403818</v>
+        <v>34.06418821403823</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.13341476204692</v>
+        <v>49.13341476204702</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>49.68376310148278</v>
+        <v>49.68376310148287</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.93784895429281</v>
+        <v>19.93784895429284</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.37763437767722</v>
+        <v>48.37763437767732</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>59.91152863558037</v>
+        <v>59.91152863558033</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.36085699936662</v>
+        <v>60.36085699936663</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.0220242380515</v>
+        <v>41.02202423805149</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.63723874473036</v>
+        <v>44.63723874473027</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.74759648909787</v>
+        <v>15.7475964890979</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.06480115941567</v>
+        <v>44.06480115941577</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.5546189915385</v>
+        <v>53.55461899153862</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.14670071316496</v>
+        <v>56.14670071316492</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.11707955593783</v>
+        <v>33.11707955593785</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.4401639019158</v>
+        <v>38.44016390191586</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.40473049139775</v>
+        <v>17.40473049139771</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.02219727892989</v>
+        <v>43.02219727892992</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.59673975867997</v>
+        <v>50.59673975868003</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.92943655800588</v>
+        <v>55.92943655800592</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.12696795756124</v>
+        <v>21.12696795756118</v>
       </c>
     </row>
     <row r="769">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.50616437040777</v>
+        <v>35.50616437040767</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.72006621496734</v>
+        <v>35.72006621496735</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.71206805351882</v>
+        <v>25.71206805351879</v>
       </c>
     </row>
     <row r="773">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>18.85979665666751</v>
+        <v>18.85979665666758</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.54582404051362</v>
+        <v>42.54582404051366</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>55.20409177935548</v>
+        <v>55.20409177935547</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.85973330115896</v>
+        <v>53.85973330115893</v>
       </c>
     </row>
     <row r="778">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.63960170227333</v>
+        <v>19.63960170227337</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.09439509232843</v>
+        <v>45.09439509232838</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>55.07273017009435</v>
+        <v>55.07273017009437</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>54.94415961395241</v>
+        <v>54.94415961395246</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.48002015441752</v>
+        <v>20.48002015441746</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.86678823042105</v>
+        <v>37.86678823042104</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.92904383836252</v>
+        <v>13.92904383836249</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.04787751643102</v>
+        <v>41.04787751643105</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.14286193980332</v>
+        <v>52.14286193980335</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>52.00677113461213</v>
+        <v>52.00677113461217</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.13032174325265</v>
+        <v>20.13032174325262</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.32834118152586</v>
+        <v>38.32834118152592</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.01064787227899</v>
+        <v>32.01064787227897</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.62790263122668</v>
+        <v>32.62790263122676</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.76595063099613</v>
+        <v>22.76595063099615</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.91287388452582</v>
+        <v>32.91287388452585</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.47875876944835</v>
+        <v>34.47875876944842</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.89445344376423</v>
+        <v>36.89445344376436</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.23773002683365</v>
+        <v>50.23773002683367</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.2346079551025</v>
+        <v>52.23460795510259</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.97317015453029</v>
+        <v>23.97317015453028</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.8120544520925</v>
+        <v>47.81205445209245</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>63.65709160406367</v>
+        <v>63.65709160406369</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>63.70519150244786</v>
+        <v>63.7051915024479</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.22950526171969</v>
+        <v>46.22950526171976</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.71904825766069</v>
+        <v>50.71904825766075</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.75060573280887</v>
+        <v>22.75060573280883</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>47.24586048334046</v>
+        <v>47.24586048334042</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.1058914508575</v>
+        <v>61.10589145085754</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>62.64045449365443</v>
+        <v>62.64045449365447</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.81705925007739</v>
+        <v>39.81705925007729</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.87047502024435</v>
+        <v>43.8704750202444</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.99353329644238</v>
+        <v>22.99353329644235</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.22485210967369</v>
+        <v>47.22485210967372</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>58.06270993399211</v>
+        <v>58.06270993399205</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.55846713352465</v>
+        <v>61.55846713352469</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>14.88508984070866</v>
+        <v>14.8850898407086</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.0706754997434</v>
+        <v>29.07067549974343</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.58348957696385</v>
+        <v>24.58348957696389</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.20500613529691</v>
+        <v>27.20500613529699</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>14.09159443806815</v>
+        <v>14.09159443806813</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.00535197841094</v>
+        <v>26.00535197841091</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.72430538540921</v>
+        <v>16.7243053854092</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.12313917494933</v>
+        <v>40.1231391749494</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.38242437998079</v>
+        <v>46.38242437998076</v>
       </c>
     </row>
     <row r="825">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>15.05837346820395</v>
+        <v>15.05837346820393</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.7395493368918</v>
+        <v>37.73954933689178</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.66545116938131</v>
+        <v>14.6654511693813</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.21207990944161</v>
+        <v>37.21207990944164</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>44.41225837762072</v>
+        <v>44.41225837762078</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.18355161003322</v>
+        <v>46.18355161003323</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.95958815369843</v>
+        <v>12.95958815369841</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.95784892125666</v>
+        <v>32.95784892125672</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>10.54749140711616</v>
+        <v>10.54749140711612</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.35606956347053</v>
+        <v>29.35606956347058</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.92233271052072</v>
+        <v>34.92233271052067</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.84619231847081</v>
+        <v>40.84619231847077</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>11.27678009753175</v>
+        <v>11.27678009753176</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.35494641875915</v>
+        <v>27.35494641875913</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.66059366157809</v>
+        <v>22.66059366157808</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.16178229377448</v>
+        <v>23.16178229377441</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.73910028389192</v>
+        <v>14.73910028389188</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.78548453431871</v>
+        <v>25.78548453431872</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.80661377104688</v>
+        <v>24.80661377104698</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.55915262292366</v>
+        <v>28.55915262292377</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.1341290151556</v>
+        <v>43.13412901515565</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.53894434192583</v>
+        <v>43.53894434192587</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>18.57486257192723</v>
+        <v>18.57486257192724</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.54036924628095</v>
+        <v>45.54036924628097</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.18381479187059</v>
+        <v>52.18381479187067</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.23665473585875</v>
+        <v>53.23665473585877</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.68910179125567</v>
+        <v>37.68910179125564</v>
       </c>
     </row>
     <row r="853">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>15.78674329166911</v>
+        <v>15.78674329166913</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.63364233173115</v>
+        <v>41.6336423317312</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.70504884553034</v>
+        <v>47.70504884553042</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>51.08525734035619</v>
+        <v>51.08525734035632</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.04984477932693</v>
+        <v>27.0498447793269</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.00324711614402</v>
+        <v>32.00324711614407</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.98469163259523</v>
+        <v>13.98469163259527</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.40366623807778</v>
+        <v>35.40366623807781</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>39.28072977573726</v>
+        <v>39.28072977573746</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.71761505543112</v>
+        <v>45.71761505543122</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>12.71520541405954</v>
+        <v>12.71520541405953</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.85809518547372</v>
+        <v>16.85809518547378</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.56196830662645</v>
+        <v>16.56196830662644</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>17.17645482054857</v>
+        <v>17.17645482054856</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.32111373811206</v>
+        <v>14.32111373811207</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.12779585913668</v>
+        <v>22.12779585913667</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>12.70318568222282</v>
+        <v>12.70318568222284</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.05151517262085</v>
+        <v>22.05151517262086</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.15189388087384</v>
+        <v>29.15189388087388</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.91054473114506</v>
+        <v>28.91054473114514</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.69191572110906</v>
+        <v>16.69191572110904</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.06304538656194</v>
+        <v>34.06304538656197</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.32072179959596</v>
+        <v>10.3207217995959</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.27173744060851</v>
+        <v>19.27173744060848</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.10867809025184</v>
+        <v>25.10867809025172</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.21662806000512</v>
+        <v>26.21662806000508</v>
       </c>
     </row>
     <row r="880">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.53698086455713</v>
+        <v>24.53698086455714</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>7.654032413701735</v>
+        <v>7.654032413701724</v>
       </c>
     </row>
     <row r="883">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.96951632546967</v>
+        <v>21.96951632546971</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.48497655436047</v>
+        <v>24.48497655436048</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.40658075653087</v>
+        <v>13.40658075653088</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.36264384020486</v>
+        <v>24.36264384020487</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.04551551465331</v>
+        <v>18.04551551465336</v>
       </c>
     </row>
     <row r="889">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.37894578865825</v>
+        <v>13.37894578865823</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.88502184084706</v>
+        <v>20.8850218408471</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.03009988260973</v>
+        <v>16.03009988260972</v>
       </c>
     </row>
     <row r="893">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.78764863252799</v>
+        <v>24.78764863252798</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>46.31264044747945</v>
+        <v>46.31264044747947</v>
       </c>
     </row>
     <row r="898">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.47812568720383</v>
+        <v>55.47812568720377</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.31244951637095</v>
+        <v>28.31244951637099</v>
       </c>
     </row>
     <row r="901">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>19.16660658964196</v>
+        <v>19.16660658964197</v>
       </c>
     </row>
     <row r="903">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>44.38468997186756</v>
+        <v>44.38468997186754</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>49.34874470968991</v>
+        <v>49.34874470968993</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.6957204901504</v>
+        <v>23.69572049015034</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.56534542303414</v>
+        <v>31.56534542303406</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.58117138214628</v>
+        <v>16.58117138214624</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.9139474418132</v>
+        <v>32.91394744181318</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.82447281540958</v>
+        <v>33.82447281540959</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.85685858963868</v>
+        <v>42.85685858963875</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.602299680935115</v>
+        <v>9.602299680935133</v>
       </c>
     </row>
     <row r="913">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.90889544663997</v>
+        <v>14.90889544663998</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>14.71422185929649</v>
+        <v>14.7142218592965</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>15.09533408197348</v>
+        <v>15.09533408197346</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.05019682961666</v>
+        <v>20.05019682961674</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>9.749799318986838</v>
+        <v>9.749799318986785</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.79630953640723</v>
+        <v>24.79630953640717</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.95400749716684</v>
+        <v>34.95400749716687</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.15856868008453</v>
+        <v>34.1585686800845</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.78590307551225</v>
+        <v>11.78590307551223</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.21839793627638</v>
+        <v>26.2183979362764</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>14.26059200399615</v>
+        <v>14.26059200399613</v>
       </c>
     </row>
     <row r="925">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.12781598117247</v>
+        <v>37.12781598117254</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>37.82524988635917</v>
+        <v>37.82524988635907</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>11.82121068666782</v>
+        <v>11.82121068666783</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.18540725807495</v>
+        <v>26.18540725807497</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>8.835432760045304</v>
+        <v>8.835432760045308</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.95877821681107</v>
+        <v>26.95877821681108</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.86154977530087</v>
+        <v>32.86154977530093</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.46491236398423</v>
+        <v>33.46491236398433</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>11.80416949377105</v>
+        <v>11.80416949377101</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.19918477277986</v>
+        <v>26.19918477277992</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>15.85655893615144</v>
+        <v>15.85655893615138</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.32336745309783</v>
+        <v>19.32336745309788</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>11.06084893083293</v>
+        <v>11.06084893083297</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>15.32934922589957</v>
+        <v>15.32934922589963</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.09737221146896</v>
+        <v>14.09737221146904</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>17.78604941930208</v>
+        <v>17.78604941930218</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.19421546968668</v>
+        <v>33.19421546968667</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.07706727010039</v>
+        <v>40.07706727010043</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>15.468432535974</v>
+        <v>15.46843253597401</v>
       </c>
     </row>
     <row r="945">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>46.6871117325598</v>
+        <v>46.68711173255983</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>49.81146391213443</v>
+        <v>49.81146391213456</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.17191858131069</v>
+        <v>30.17191858131075</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>39.73667066967293</v>
+        <v>39.73667066967302</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.71712354690324</v>
+        <v>14.71712354690323</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.51256981046053</v>
+        <v>35.51256981046056</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>44.15471681823089</v>
+        <v>44.15471681823087</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>49.03149167169384</v>
+        <v>49.03149167169394</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.87083199670333</v>
+        <v>24.87083199670337</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.34477040754036</v>
+        <v>33.34477040754056</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>12.69991704673874</v>
+        <v>12.6999170467387</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.97340789208974</v>
+        <v>30.97340789208973</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.13611887399739</v>
+        <v>36.13611887399742</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.41881391071509</v>
+        <v>43.41881391071514</v>
       </c>
     </row>
     <row r="960">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.08486733185384</v>
+        <v>36.0848673318539</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.84195852051194</v>
+        <v>36.84195852051192</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.35604237417274</v>
+        <v>18.35604237417272</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.37941532101691</v>
+        <v>31.37941532101689</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.98498153206899</v>
+        <v>17.984981532069</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.26088819184439</v>
+        <v>42.26088819184441</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.81423125550424</v>
+        <v>52.8142312555043</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.95894007498096</v>
+        <v>51.95894007498103</v>
       </c>
     </row>
     <row r="970">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.51520510234528</v>
+        <v>39.51520510234532</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.10061824508092</v>
+        <v>16.10061824508093</v>
       </c>
     </row>
     <row r="973">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>51.26813649257561</v>
+        <v>51.26813649257564</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.23558784674481</v>
+        <v>51.23558784674482</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.07148907886474</v>
+        <v>17.07148907886473</v>
       </c>
     </row>
     <row r="977">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>11.89392565123113</v>
+        <v>11.8939256512311</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.02765586971324</v>
+        <v>39.02765586971326</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.54567525946491</v>
+        <v>48.54567525946489</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.84625207221356</v>
+        <v>49.84625207221364</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.48583656194577</v>
+        <v>16.4858365619458</v>
       </c>
     </row>
     <row r="983">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.73757467199378</v>
+        <v>30.73757467199382</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.21365055614791</v>
+        <v>31.21365055614796</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>16.2026197575192</v>
+        <v>16.20261975751921</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.75316619997458</v>
+        <v>29.75316619997456</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.7473689400052</v>
+        <v>31.74736894000525</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.72835550699952</v>
+        <v>35.72835550699951</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.76921181579036</v>
+        <v>48.76921181579038</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.51370273081788</v>
+        <v>49.51370273081785</v>
       </c>
     </row>
     <row r="992">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>47.19352212288169</v>
+        <v>47.19352212288173</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>60.13117187429758</v>
+        <v>60.13117187429764</v>
       </c>
     </row>
     <row r="995">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>44.97750224628759</v>
+        <v>44.97750224628761</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>47.85760082221847</v>
+        <v>47.85760082221851</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>19.30386882562995</v>
+        <v>19.30386882562996</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.67109203539383</v>
+        <v>45.67109203539378</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>56.7674861629713</v>
+        <v>56.76748616297135</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>58.68093153407479</v>
+        <v>58.68093153407483</v>
       </c>
     </row>
     <row r="1002">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.59759071508574</v>
+        <v>41.59759071508579</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>18.89922961635337</v>
+        <v>18.89922961635333</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>43.93348226388765</v>
+        <v>43.93348226388769</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>51.26334152376165</v>
+        <v>51.26334152376171</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>55.28958628099724</v>
+        <v>55.28958628099733</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>10.9866463141979</v>
+        <v>10.98664631419792</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.87181328286686</v>
+        <v>23.87181328286677</v>
       </c>
     </row>
     <row r="1010">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>22.99793560181722</v>
+        <v>22.99793560181721</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>14.81279441924293</v>
+        <v>14.81279441924294</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.17994230215373</v>
+        <v>26.17994230215379</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>16.09246482078774</v>
+        <v>16.09246482078777</v>
       </c>
     </row>
     <row r="1015">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>15.30173811800699</v>
+        <v>15.30173811800702</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>37.73127567998395</v>
+        <v>37.73127567998397</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>15.21664665930481</v>
+        <v>15.21664665930483</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.9015718704599</v>
+        <v>37.90157187045991</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>44.67649045800283</v>
+        <v>44.67649045800285</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>45.21336763133125</v>
+        <v>45.21336763133132</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>13.41098069301622</v>
+        <v>13.41098069301621</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.39247456818238</v>
+        <v>33.39247456818241</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>10.60764145914808</v>
+        <v>10.60764145914806</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.97129774969801</v>
+        <v>29.97129774969803</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>36.40702116544056</v>
+        <v>36.40702116544067</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>40.06880875805545</v>
+        <v>40.0688087580555</v>
       </c>
     </row>
     <row r="1030">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>28.10879392165733</v>
+        <v>28.10879392165735</v>
       </c>
     </row>
     <row r="1032">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>25.77736238787701</v>
+        <v>25.77736238787712</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>13.31132104147369</v>
+        <v>13.31132104147371</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.73334374367903</v>
+        <v>22.73334374367904</v>
       </c>
     </row>
     <row r="1036">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.32656275164285</v>
+        <v>26.32656275164289</v>
       </c>
     </row>
     <row r="1038">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>44.79652829396814</v>
+        <v>44.79652829396807</v>
       </c>
     </row>
     <row r="1040">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>45.01395764017217</v>
+        <v>45.01395764017215</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>52.51512704765389</v>
+        <v>52.51512704765388</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>53.78378083959342</v>
+        <v>53.78378083959358</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.87237363515816</v>
+        <v>38.87237363515818</v>
       </c>
     </row>
     <row r="1045">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.63849529596601</v>
+        <v>16.63849529596605</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.23952828939131</v>
+        <v>41.23952828939128</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.9328182975539</v>
+        <v>47.93281829755399</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>51.60606411333942</v>
+        <v>51.60606411333956</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.14444626299749</v>
+        <v>29.14444626299753</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.45710141950241</v>
+        <v>34.45710141950238</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>12.65205218449879</v>
+        <v>12.65205218449884</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.73691114337917</v>
+        <v>31.73691114337922</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>35.86016033592983</v>
+        <v>35.86016033592989</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.18861529839268</v>
+        <v>43.1886152983927</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.749</v>
+        <v>17.311</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.656</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.623</v>
+        <v>18.964</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.418</v>
+        <v>1.283</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.05197601489808</v>
+        <v>18.56500679694203</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.73135554421808</v>
+        <v>20.50359632315521</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.16061459070073</v>
+        <v>19.08101528246564</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.50508266497324</v>
+        <v>19.20139476957453</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.08462090673866</v>
+        <v>25.80528751545027</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.04490204325634</v>
+        <v>29.45135245922073</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.477716980390344</v>
+        <v>18.34666451935254</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.75036311797298</v>
+        <v>22.96602826184901</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.24815431804084</v>
+        <v>26.62060778301729</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.45013962129791</v>
+        <v>26.51276524926518</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.89818975066934</v>
+        <v>28.5594727886736</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.84805483134437</v>
+        <v>40.15165274556005</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.346402757484071</v>
+        <v>15.0154249988917</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.48320523410202</v>
+        <v>19.01800619181223</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.48043086865611</v>
+        <v>23.80399540440318</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.32571569523795</v>
+        <v>24.02714693609479</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.94752217287638</v>
+        <v>25.50126591134693</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.32666812326208</v>
+        <v>32.68236177678902</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.744533684103892</v>
+        <v>14.7161246241865</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.15234884971003</v>
+        <v>18.75811892764188</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.79675266781216</v>
+        <v>21.91397423924101</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.34558497020201</v>
+        <v>22.40206543226543</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.08504704938084</v>
+        <v>24.45762868899656</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.58822823229825</v>
+        <v>30.82446319516815</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.70591340514643</v>
+        <v>26.24432955271291</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.56089078685938</v>
+        <v>27.60029551291602</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18.423729836642</v>
+        <v>26.71975381307164</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.68941353734445</v>
+        <v>29.69190888140849</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.44804895976945</v>
+        <v>25.71171501973986</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.85628601511915</v>
+        <v>27.08106901318212</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.73524905815115</v>
+        <v>43.59575563723288</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.06774250166539</v>
+        <v>45.16273835282247</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.2493545715109</v>
+        <v>34.21390227986595</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.12386653856425</v>
+        <v>47.2001707399519</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>61.11327740168232</v>
+        <v>52.43924271109683</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>62.51318388437554</v>
+        <v>53.34055343614108</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.44558610940453</v>
+        <v>32.40651998582786</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.76093597196024</v>
+        <v>37.82701042938498</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.03857672680683</v>
+        <v>29.28317191192691</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44.29283814019608</v>
+        <v>41.22631323702982</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53.27150342781668</v>
+        <v>45.88005733928169</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57.70384848206515</v>
+        <v>48.73327715900879</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.6698159632326</v>
+        <v>29.2410274961041</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.95078199524559</v>
+        <v>34.6462719727954</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.75251121121843</v>
+        <v>31.04699782211486</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43.17005917003126</v>
+        <v>42.82284495415735</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49.67941267845088</v>
+        <v>45.28643530036443</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>56.06308240198607</v>
+        <v>48.41583461287699</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.9745865261533</v>
+        <v>26.83974105721665</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.72629527290574</v>
+        <v>38.59777800926105</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.21764585465593</v>
+        <v>32.35647140194566</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.39882061122464</v>
+        <v>34.15979185274248</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.14934409258342</v>
+        <v>26.47178091026966</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.35070459621283</v>
+        <v>33.4126597797208</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>16.12540615511367</v>
+        <v>27.76595803127572</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.79617590934525</v>
+        <v>42.02772202255071</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.28606794729488</v>
+        <v>41.07510881694662</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>46.94453215622018</v>
+        <v>41.24434032151279</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>18.72727495592518</v>
+        <v>28.67366106591305</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.05942720472635</v>
+        <v>42.7401744897462</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.5614051338107</v>
+        <v>26.64911425121677</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.76667604622786</v>
+        <v>40.01056288808283</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.67322971088444</v>
+        <v>43.00385661893573</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>46.74016772038755</v>
+        <v>42.68113104473509</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.82700681408361</v>
+        <v>26.85742124293514</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.89412057084172</v>
+        <v>37.64627040030629</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.39988483323184</v>
+        <v>26.76840454174329</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.78046340473898</v>
+        <v>40.74256242549056</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>43.52893790864601</v>
+        <v>39.86180376236127</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.1409662212861</v>
+        <v>40.9246805463191</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.94228313938552</v>
+        <v>26.10499607310065</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.79005503502724</v>
+        <v>34.6705051682137</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.19870820379484</v>
+        <v>29.3980340124608</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.35161912302941</v>
+        <v>30.28647253543841</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.64107743598783</v>
+        <v>27.37789686937202</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.84657425958254</v>
+        <v>34.78811351710737</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.53006056894235</v>
+        <v>32.68439563478318</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.82956078595542</v>
+        <v>36.2656773110001</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48.02249498763125</v>
+        <v>43.63399772341999</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.81455444888937</v>
+        <v>44.95687368361482</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.29809196537535</v>
+        <v>30.56820573763592</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>52.72567038026098</v>
+        <v>48.15087455047664</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>58.55246153648199</v>
+        <v>50.62116111058088</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.96131654408191</v>
+        <v>50.85127880580514</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.80637505155863</v>
+        <v>38.70712838418277</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>47.51276084625404</v>
+        <v>41.84582386795867</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17.16316180634253</v>
+        <v>28.85127039878796</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>48.41924741083612</v>
+        <v>44.41481543644513</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>53.87054096900705</v>
+        <v>47.78510436168477</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>56.94901286043871</v>
+        <v>48.72272735499304</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.15222988387644</v>
+        <v>33.06196216867689</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.52439498576862</v>
+        <v>37.65767186767236</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.81371687290189</v>
+        <v>29.65396137968108</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>44.74520163844495</v>
+        <v>42.27990651104269</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.17016859226253</v>
+        <v>44.94031508632278</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>56.03919241651185</v>
+        <v>48.48308272986435</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.22633758484681</v>
+        <v>24.57316619483785</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.73076075019618</v>
+        <v>33.8023021373329</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.34160755690412</v>
+        <v>29.21780144064192</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.72046210284198</v>
+        <v>29.64646496871552</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>17.53294264284938</v>
+        <v>27.54898887737826</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.25137424664271</v>
+        <v>34.9866167771163</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>18.79048534466836</v>
+        <v>29.11360519218488</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>43.89217709698769</v>
+        <v>42.79345294747018</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>51.54060446610161</v>
+        <v>46.04345980711916</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>50.13072830540625</v>
+        <v>45.59839652601107</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.13960475976653</v>
+        <v>30.12654655041923</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.78905390352695</v>
+        <v>43.82647614041382</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>15.40427487467315</v>
+        <v>26.31648196355336</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.22781113449682</v>
+        <v>40.49813688826384</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.47939841238063</v>
+        <v>41.98770972484414</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>46.6960504473518</v>
+        <v>41.79936667834309</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>17.92411604266384</v>
+        <v>29.25998492868263</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.77474660031071</v>
+        <v>42.56410747527637</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>15.21472898265971</v>
+        <v>25.60757054632553</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>42.20837310331399</v>
+        <v>40.73053977530916</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>47.25071218089165</v>
+        <v>43.01582032570856</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>47.75995238785417</v>
+        <v>43.23159905931435</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>17.3438311252105</v>
+        <v>27.33396151418257</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.03424578019361</v>
+        <v>40.28518220061316</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.58092301821679</v>
+        <v>32.21100828612462</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.39180650548361</v>
+        <v>32.71388677170115</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>19.40973453737365</v>
+        <v>28.04702507399405</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.86382738470243</v>
+        <v>35.17755825946607</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.32171962365247</v>
+        <v>34.23344626911141</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.46468756266981</v>
+        <v>37.28591374900453</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>55.96393757011194</v>
+        <v>49.01617492462006</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.10213011783063</v>
+        <v>49.99517065936771</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>23.18385910366898</v>
+        <v>31.50064714501265</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.42806437305482</v>
+        <v>46.87512237231146</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.85617978730079</v>
+        <v>54.04649145702767</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.16630926049064</v>
+        <v>54.35197698230833</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>50.83853297030775</v>
+        <v>45.90980832724915</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.00159029680059</v>
+        <v>47.04067222227905</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>19.95454509892938</v>
+        <v>29.77908746645886</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.67639165118845</v>
+        <v>45.79336679421728</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.48952732872737</v>
+        <v>51.13827925656707</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>63.70294115762285</v>
+        <v>51.46806204807977</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.70170659989749</v>
+        <v>39.01844168652829</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.13537721824566</v>
+        <v>40.77068422355777</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.93916700223079</v>
+        <v>30.47556191629013</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.27014823491385</v>
+        <v>46.98659607792023</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>59.22140976951344</v>
+        <v>50.05281771190295</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>61.55938989052456</v>
+        <v>50.62972971429028</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>15.07986392923987</v>
+        <v>19.90856509499092</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>17.65387891835114</v>
+        <v>20.16443053369047</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.41343563763741</v>
+        <v>26.36778814228733</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.84060138258858</v>
+        <v>26.52274130248767</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>18.70091616387048</v>
+        <v>26.07981987042007</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.55016083036493</v>
+        <v>28.26773609344255</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.46639574882696</v>
+        <v>20.96480279190803</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.28047024211759</v>
+        <v>24.43039161260983</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.42551921853308</v>
+        <v>34.85667619763018</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.76908865519903</v>
+        <v>34.75266167118276</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.99180410438965</v>
+        <v>31.76104575028772</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>41.11803852282637</v>
+        <v>44.33002038895657</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>10.73870418363255</v>
+        <v>18.23904456280859</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.36060424690705</v>
+        <v>21.46841840354933</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.4529134306304</v>
+        <v>32.22851802233441</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.3272507478415</v>
+        <v>32.35145549415574</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>15.06505753914407</v>
+        <v>25.65247435405304</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.00152568497294</v>
+        <v>33.1813828415059</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.941932402402255</v>
+        <v>18.60470515773495</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>18.37350365027944</v>
+        <v>21.57953205076638</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.33547875155376</v>
+        <v>31.0730905147206</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.8230794018891</v>
+        <v>31.44509732474201</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.33009927698553</v>
+        <v>22.66628800360089</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.48730546661555</v>
+        <v>28.37392575206947</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.33460674902118</v>
+        <v>22.02622841746609</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.34775519994929</v>
+        <v>22.92300820094534</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16.11497025757292</v>
+        <v>21.55699116937953</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.61521953448137</v>
+        <v>24.76350183927141</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.94092259144955</v>
+        <v>22.52695622000865</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.62917433549531</v>
+        <v>23.64493111519444</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.30202777061542</v>
+        <v>46.19645261509061</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.23407471157449</v>
+        <v>47.49579512280958</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.43118591609229</v>
+        <v>35.36284779888511</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.31272144425493</v>
+        <v>48.2863151951214</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>62.12433454414927</v>
+        <v>53.59483103703825</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.69475572386477</v>
+        <v>54.62506264058396</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.0491592908597</v>
+        <v>33.18927410065949</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.32113030243182</v>
+        <v>38.44960026940308</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.64219110424429</v>
+        <v>32.46296162044044</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.58103355249463</v>
+        <v>41.48528381438513</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.70997803854259</v>
+        <v>43.47754891064578</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>57.55691411253367</v>
+        <v>47.60258904409404</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.94649870445464</v>
+        <v>25.3491939816387</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>33.54295454722407</v>
+        <v>31.12844823739109</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.98490586231499</v>
+        <v>29.60440749500296</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.85804215468645</v>
+        <v>38.39813241687755</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43.81854129845838</v>
+        <v>40.01845953715676</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>50.90246323242355</v>
+        <v>43.96532507117472</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.03430776906778</v>
+        <v>19.53070536537807</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.43432022907813</v>
+        <v>27.51584729827259</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.26036187728244</v>
+        <v>24.8170733691332</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.82419812802983</v>
+        <v>24.79123035914253</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.50104795563086</v>
+        <v>25.88909315583593</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.6690071105121</v>
+        <v>32.9773484048967</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.92836070616568</v>
+        <v>28.65396418420268</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.82081086255931</v>
+        <v>44.54001753876233</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.55449531546279</v>
+        <v>44.76753442080368</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>51.03774127201243</v>
+        <v>44.09137030416351</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.970412503972</v>
+        <v>31.98095385856363</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.40374167027392</v>
+        <v>45.98225705727433</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>16.59053990912489</v>
+        <v>24.85259876167865</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>44.53100565021816</v>
+        <v>38.89291166115131</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>52.48328398377005</v>
+        <v>45.0804664775277</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.29142823408093</v>
+        <v>45.71602037130113</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>18.00497730556705</v>
+        <v>30.20426957443943</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.06920339689363</v>
+        <v>43.87268193961334</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>15.80829625391803</v>
+        <v>28.39841536377143</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.00073781430777</v>
+        <v>44.57313527193228</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>53.21848959767873</v>
+        <v>47.61577875239756</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.95027985041929</v>
+        <v>47.71256335585111</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>19.4609078789926</v>
+        <v>29.57026210080795</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.67186808703504</v>
+        <v>43.54140839895931</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.58976968196275</v>
+        <v>33.78918941234809</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>38.55977008258818</v>
+        <v>34.31264980610986</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>19.14876643971126</v>
+        <v>27.78091084706718</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.17223595080899</v>
+        <v>33.90605936254902</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.25794416495286</v>
+        <v>32.91097945542847</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.56010803802828</v>
+        <v>35.43810359230156</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>62.87025030299409</v>
+        <v>53.00695755169315</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.8067655422857</v>
+        <v>53.68286853724943</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.03748666464377</v>
+        <v>33.37386168557777</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.63905963253556</v>
+        <v>48.02566023946777</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>68.51818981949356</v>
+        <v>57.04082330906353</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>69.61314127505773</v>
+        <v>57.15257549570205</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>57.07732485505187</v>
+        <v>50.21383654179575</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.15013569212764</v>
+        <v>31.22753221335827</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>47.4243206865338</v>
+        <v>44.25446626745851</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>63.04268470819334</v>
+        <v>51.94230599468692</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.93941035499437</v>
+        <v>53.06423192819794</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.10725546550103</v>
+        <v>45.44231434095602</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.03935660527188</v>
+        <v>46.36771662361489</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.88223722729377</v>
+        <v>33.40644281160147</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.28041378336098</v>
+        <v>48.86276095601175</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>63.22514092858138</v>
+        <v>54.2469347210814</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>66.49894730439988</v>
+        <v>54.70372079965176</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>10.99973180318332</v>
+        <v>22.83586626976911</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.45297351887182</v>
+        <v>34.71004460944943</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.07759640654263</v>
+        <v>27.52966345630955</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.48307169984328</v>
+        <v>27.90337528332506</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.73712322370805</v>
+        <v>27.59079827014758</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.03525943696835</v>
+        <v>37.43955811776677</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.63861508065127</v>
+        <v>27.54859496422708</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.90981340608688</v>
+        <v>41.93065554779306</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>48.37124516072548</v>
+        <v>42.16995064358876</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.4656733296636</v>
+        <v>41.99833292496507</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.0003972520438</v>
+        <v>31.7319479843511</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>49.23876272774843</v>
+        <v>46.97633302604018</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.31829548523295</v>
+        <v>22.85344313354106</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.85367368569749</v>
+        <v>36.68117015128522</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.78624273217605</v>
+        <v>44.70363896529476</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>50.82551493982724</v>
+        <v>44.37314474078164</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>17.04908330133496</v>
+        <v>29.79448418999322</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.48199318045059</v>
+        <v>45.52228511420532</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>13.52214072863985</v>
+        <v>24.97484697205729</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.50756593345008</v>
+        <v>41.9762506651691</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.17027671926824</v>
+        <v>48.0054741175874</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.45293579567144</v>
+        <v>48.25830753657052</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.7030576590533</v>
+        <v>29.64119158884433</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43.75703344764867</v>
+        <v>44.05279545738652</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.88003769212234</v>
+        <v>35.89796138795866</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.06027276392445</v>
+        <v>36.87204667377513</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>18.77046486595233</v>
+        <v>28.54928212839879</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.72017132680557</v>
+        <v>36.74284994753696</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.77584083532496</v>
+        <v>35.2525617478672</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>41.47259339722594</v>
+        <v>37.96283702529261</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>57.48975011602832</v>
+        <v>50.21666912473201</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>58.13807557968266</v>
+        <v>50.99235960262783</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.08807561028545</v>
+        <v>31.88478641187017</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>60.11721625869415</v>
+        <v>51.36538403844555</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>60.93590626361564</v>
+        <v>51.75313385185061</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.13111794802192</v>
+        <v>46.33697449429557</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>55.29631431213062</v>
+        <v>47.51880214359299</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>19.99987732802089</v>
+        <v>30.89772731384041</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>49.00538497733977</v>
+        <v>46.27104297034084</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.89003762614654</v>
+        <v>50.19740385604895</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>59.41676817004677</v>
+        <v>50.33276197007096</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.14240802743338</v>
+        <v>40.6732422743631</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.63532348527018</v>
+        <v>42.85878583310552</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.72073968365319</v>
+        <v>32.17745435302259</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>50.2889249622452</v>
+        <v>48.47641016144142</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>56.39919394735789</v>
+        <v>48.92097581604278</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>59.03263066321105</v>
+        <v>49.69904220084399</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.378022418054574</v>
+        <v>17.85877963104229</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>13.64058362304941</v>
+        <v>19.57879062154488</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.67643096128675</v>
+        <v>19.99464971978429</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.81530141379361</v>
+        <v>19.9915024929559</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.0085243310741</v>
+        <v>24.27812082009321</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.35847696999106</v>
+        <v>29.08826548045015</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5.845977155417643</v>
+        <v>15.91207581387361</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.92652964667926</v>
+        <v>19.70288976904834</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.47131107174682</v>
+        <v>26.42709626927507</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.78006622813841</v>
+        <v>26.27972669960348</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.11366110136957</v>
+        <v>25.38496415799849</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.76955080718457</v>
+        <v>35.83935881133134</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>2.259485930176766</v>
+        <v>11.89377089139332</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.53184315223578</v>
+        <v>15.36931446762898</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.18597732674294</v>
+        <v>23.21373663668069</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.31044626859657</v>
+        <v>23.13922207111081</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.75336620945081</v>
+        <v>24.45239239749146</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.26716832100242</v>
+        <v>32.12003802257379</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>1.421518410662475</v>
+        <v>11.67057826414961</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>11.49048572026742</v>
+        <v>14.9566008025319</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>18.58229683313763</v>
+        <v>20.23688548380809</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.79404382808688</v>
+        <v>20.57868367273045</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.00809238013811</v>
+        <v>23.4058040139038</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.68767341032903</v>
+        <v>30.67971638433061</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.1076666271849</v>
+        <v>26.19820725417935</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.79973846270447</v>
+        <v>26.9803654669645</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>15.10965003632308</v>
+        <v>24.40581283464512</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.64215180032051</v>
+        <v>28.05837371131214</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.46543893755542</v>
+        <v>27.22578346936864</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>30.9232175083462</v>
+        <v>28.75696418333574</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.94980401156874</v>
+        <v>37.72165082146138</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>43.88089211002925</v>
+        <v>38.56924031420136</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.69626311169045</v>
+        <v>30.31239315764608</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.69923139160912</v>
+        <v>42.82408674796337</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>57.51398895017405</v>
+        <v>48.68496462140921</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>58.8781892170549</v>
+        <v>49.26912081690061</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.09759808363566</v>
+        <v>33.49080353067595</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.5725227315434</v>
+        <v>36.55512816146239</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>19.1239546802922</v>
+        <v>28.74062046467056</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.84229163866382</v>
+        <v>41.08440468443741</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>52.05733721101274</v>
+        <v>45.13716150530382</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.91024807105973</v>
+        <v>46.69709215885959</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.87338115102517</v>
+        <v>28.62216912255248</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.14997543100694</v>
+        <v>31.65894147608702</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.17399144348009</v>
+        <v>28.99883456100143</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.90929240157953</v>
+        <v>42.47442568977404</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>49.72988689170981</v>
+        <v>45.11696714337016</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.89010005076679</v>
+        <v>46.59914144101535</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>10.06186701245522</v>
+        <v>14.76172843446721</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.33882203772958</v>
+        <v>16.49661270602637</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>11.3607426201818</v>
+        <v>16.44051822049041</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>10.81180582415281</v>
+        <v>16.40948979494358</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>14.8349175642312</v>
+        <v>20.12846314082057</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.79632353160295</v>
+        <v>20.59519706151587</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>6.222291391027952</v>
+        <v>15.88784205228114</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>15.242207084144</v>
+        <v>18.87914302877085</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.61699363134235</v>
+        <v>21.93681886560853</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.19442565571986</v>
+        <v>21.65324389280196</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>4.965743091689102</v>
+        <v>13.39646415124414</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.70094323180046</v>
+        <v>17.02994386108904</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>4.02377492326417</v>
+        <v>15.230166590208</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.46430846765602</v>
+        <v>18.23272977800911</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.46937081828188</v>
+        <v>19.0694349398489</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>16.28174001396489</v>
+        <v>18.93649654725162</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>2.647529591325704</v>
+        <v>14.21936611633742</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.023103567225341</v>
+        <v>15.94157986826075</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1.501320203087271</v>
+        <v>11.55854434605418</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.121559505076533</v>
+        <v>13.59454812334089</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.04098483868015</v>
+        <v>14.95422041480767</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.47844891823735</v>
+        <v>15.16987897344017</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.930097973732309</v>
+        <v>12.9723105553833</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.184826117822194</v>
+        <v>14.73200328844901</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.63966820392353</v>
+        <v>19.05545058302292</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.60662076366089</v>
+        <v>19.75173500459039</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.660313704390393</v>
+        <v>16.38901850544757</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>8.747600143961723</v>
+        <v>17.26675236117712</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.95992096114367</v>
+        <v>20.91486772796903</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.82227470963137</v>
+        <v>21.91599468456408</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.67135809892352</v>
+        <v>23.14597695199035</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.20817680411278</v>
+        <v>25.17713305523737</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.564539804276308</v>
+        <v>21.34950387055146</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.45110077763942</v>
+        <v>27.4127159300152</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.94557450198004</v>
+        <v>30.67703522892707</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.98067195513831</v>
+        <v>35.3494662229223</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>15.3129646892479</v>
+        <v>19.42311235640114</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.84188389173396</v>
+        <v>23.18648160940566</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>6.835085709755599</v>
+        <v>21.23889451253669</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.12354724012005</v>
+        <v>25.16934389840145</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.21387870973413</v>
+        <v>28.56457524331507</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.31971217556881</v>
+        <v>35.11142852392246</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>8.336236583077049</v>
+        <v>15.30566481743189</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.8864176553074</v>
+        <v>16.43577697429885</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.548544979423518</v>
+        <v>22.71416482426188</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.52934751967788</v>
+        <v>25.94206544072719</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.78744454632708</v>
+        <v>26.28912366032819</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.33280248940375</v>
+        <v>33.90787673997438</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>16.18251456739623</v>
+        <v>26.26079405213214</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>37.23515476758308</v>
+        <v>36.37748915158994</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.40761915848279</v>
+        <v>34.37762868354758</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.35266958714972</v>
+        <v>34.50353117190366</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.26385853369805</v>
+        <v>24.39866914072325</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.77801311523325</v>
+        <v>30.66046846350522</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>18.35160611301314</v>
+        <v>29.80691335613021</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.68838559877481</v>
+        <v>41.63827010389262</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>55.45332878361253</v>
+        <v>49.76367920133967</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>54.74796488242218</v>
+        <v>49.63845318300558</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.21773108080041</v>
+        <v>26.94852226245953</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>42.21352032770131</v>
+        <v>38.0588835499134</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>14.26870383545396</v>
+        <v>25.51921058315863</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.65846381155286</v>
+        <v>39.40991518986273</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>52.15250784992772</v>
+        <v>44.83287316694424</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>51.83486449064422</v>
+        <v>45.38650540211938</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.41053371691453</v>
+        <v>26.16319585304192</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>38.19627328947293</v>
+        <v>37.13468823075106</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>11.2759599789116</v>
+        <v>23.11218650561495</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.63551638763889</v>
+        <v>36.60162498966031</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>47.95877217263423</v>
+        <v>42.31541894452302</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>49.01230939446658</v>
+        <v>42.67754230895184</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>15.07609182463392</v>
+        <v>24.02858175886679</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>34.65832909796757</v>
+        <v>33.8840077055803</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>31.18144449834345</v>
+        <v>29.20313545225691</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.70817412523729</v>
+        <v>29.59955090000616</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.26760201094445</v>
+        <v>26.5372021312211</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.73200008674406</v>
+        <v>33.41895925966461</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.24885042582169</v>
+        <v>32.43492476789316</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.27472011385869</v>
+        <v>35.3507422761888</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>50.73606166211712</v>
+        <v>43.08749777431221</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>51.16414461940551</v>
+        <v>43.14971222111014</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.46870652991018</v>
+        <v>30.76458366137262</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.2249698961879</v>
+        <v>44.36909505615471</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.00255959137495</v>
+        <v>50.74151325968148</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>62.34019748140951</v>
+        <v>51.25058368695854</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>45.31474849838499</v>
+        <v>40.31213174494419</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>47.62890742101085</v>
+        <v>41.00327266975231</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>19.72701803851818</v>
+        <v>29.91851957800721</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>47.95824059256651</v>
+        <v>44.29729047782723</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>58.09862491629121</v>
+        <v>49.00593049825807</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>59.26762434983667</v>
+        <v>49.38768256366698</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.70600305439341</v>
+        <v>32.49707119712883</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>39.01952407829648</v>
+        <v>33.67677654945717</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>19.7352754988271</v>
+        <v>29.38133465929336</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>46.70392349410027</v>
+        <v>44.40320545615316</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.76174608049274</v>
+        <v>47.03532327405279</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>56.64923055041158</v>
+        <v>47.6321133862314</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.870448123036752</v>
+        <v>15.25180917740383</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>13.47661333620403</v>
+        <v>16.1795348195647</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.6587805760895</v>
+        <v>16.10384738898525</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.94937304854707</v>
+        <v>16.10714516690149</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.75581778141676</v>
+        <v>20.55509044537615</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.02432339306099</v>
+        <v>22.34973522266784</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>8.905086563040786</v>
+        <v>16.17815014799299</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>17.6204102644452</v>
+        <v>19.36523393279339</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.59519810166192</v>
+        <v>22.18211018402578</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.57242170246737</v>
+        <v>22.32286277803675</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.28934129333047</v>
+        <v>22.35290835471787</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.6373159320574</v>
+        <v>31.89537769256512</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6.022418015407727</v>
+        <v>15.04593251300877</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.68241440315576</v>
+        <v>17.76670220811812</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.41302250156379</v>
+        <v>20.72866932332157</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.8246194108845</v>
+        <v>21.05296967443747</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.632214266405345</v>
+        <v>19.93527486943252</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.14710906255356</v>
+        <v>22.32394658835286</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>3.614834696485996</v>
+        <v>12.34909194805121</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.19882934207212</v>
+        <v>14.83536462873911</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.15026218498987</v>
+        <v>17.09517084527742</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>15.82354485995776</v>
+        <v>17.56498865279276</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.586604926708567</v>
+        <v>15.95312776779122</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.49725558878808</v>
+        <v>17.92415422768403</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.79977915048916</v>
+        <v>18.7315763916921</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>15.34300780446084</v>
+        <v>19.33052781445282</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.59739646434179</v>
+        <v>18.84518011002607</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.5155157107633</v>
+        <v>20.88706255096738</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.44549075825109</v>
+        <v>19.31316468553533</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.30660299280586</v>
+        <v>19.72807907863439</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.01228833451882</v>
+        <v>32.76112120511386</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.08641913196561</v>
+        <v>33.72064993888886</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.89785333124049</v>
+        <v>31.33331458398402</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.32523895184723</v>
+        <v>40.00060418330063</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>48.61242788078715</v>
+        <v>44.64976730622207</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>53.04917175703653</v>
+        <v>45.91887263201508</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.42163746556959</v>
+        <v>22.29248729172298</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.69456726406204</v>
+        <v>27.9319420274507</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>19.22238511070381</v>
+        <v>29.51859724333822</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.10051863369943</v>
+        <v>34.32560045332734</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.13552317469627</v>
+        <v>35.85682881732508</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.72881664271514</v>
+        <v>41.62952561831663</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.93171018554389</v>
+        <v>16.30931864947565</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>18.29158695005205</v>
+        <v>19.97992425041647</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.98949485526811</v>
+        <v>26.4137208613522</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.22644163445241</v>
+        <v>32.33838688077836</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.22706572732991</v>
+        <v>30.99897959529069</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.32340777083517</v>
+        <v>36.33781282358319</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>5.137035200000327</v>
+        <v>10.84918056187507</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5.959558669173603</v>
+        <v>10.99599213130514</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4.558092264187231</v>
+        <v>11.88849874436159</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.432659303131878</v>
+        <v>11.54449849406957</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.44569593650678</v>
+        <v>24.36134668371206</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.24727156073271</v>
+        <v>30.35961104471218</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>4.166506109960253</v>
+        <v>10.39469801319739</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>8.370015320322466</v>
+        <v>11.49818185389615</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>11.09074627155432</v>
+        <v>14.29833093402384</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>11.53474252623387</v>
+        <v>14.2204573405163</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.71900390281856</v>
+        <v>25.39740405904444</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.85008267574815</v>
+        <v>36.5408695472189</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>4.466716935130034</v>
+        <v>15.2181009029146</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.231429079334184</v>
+        <v>15.80256065246533</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.882435697299417</v>
+        <v>15.52188546702386</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>11.36804001565996</v>
+        <v>16.39325888842293</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>16.7664427338953</v>
+        <v>26.05994465054178</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.22619151030973</v>
+        <v>37.08641207766006</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2.102744172559891</v>
+        <v>13.86901357346624</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.43839870152096</v>
+        <v>14.84603609424396</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>9.281186672588941</v>
+        <v>14.06147094183967</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.42252737094313</v>
+        <v>15.73220674358801</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.16773191016356</v>
+        <v>24.30254531405067</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.38804867772033</v>
+        <v>34.35271535780378</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.68029045685651</v>
+        <v>29.06800874922481</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.91590425460805</v>
+        <v>30.13626294265014</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.66188642377944</v>
+        <v>27.87004688598594</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.8672312597927</v>
+        <v>32.66477892290985</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.81156638769968</v>
+        <v>29.29635700923039</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.03057236880299</v>
+        <v>32.25669678302036</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.70807515782636</v>
+        <v>40.35984193488028</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.72435258582142</v>
+        <v>40.76445110310635</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.21504027729342</v>
+        <v>31.28044007709289</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>50.86566188474895</v>
+        <v>45.74598008519121</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.43744058487547</v>
+        <v>50.25481396593931</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>59.24854068825322</v>
+        <v>50.8504150054224</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.99249383099672</v>
+        <v>39.512579828304</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>44.72834125028317</v>
+        <v>40.05995949889724</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.4789736552056</v>
+        <v>31.58468755798409</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.7157358752724</v>
+        <v>46.6717752101634</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.04750663463587</v>
+        <v>49.03729989803266</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>58.53220601005599</v>
+        <v>49.38088689613137</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.47507139302572</v>
+        <v>34.3780910606289</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.79826220730848</v>
+        <v>35.40431357344075</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.74082874529562</v>
+        <v>31.73065155394352</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>50.31932683364766</v>
+        <v>46.92978027136757</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>55.91857024766382</v>
+        <v>48.94432424285953</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>58.17433844404913</v>
+        <v>49.68957657720613</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.35453039924398</v>
+        <v>19.26062540332203</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.39517414230718</v>
+        <v>20.41443980591071</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>15.91054369753954</v>
+        <v>20.95641705114108</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.56027545888398</v>
+        <v>20.33743536151543</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.58260558566117</v>
+        <v>17.93492008594959</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.34340364763597</v>
+        <v>18.8376076263535</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>11.67745589608722</v>
+        <v>17.49961474388543</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>20.50411368241156</v>
+        <v>21.57771414594805</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.76050555921147</v>
+        <v>25.22704952602514</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.09172030422991</v>
+        <v>25.07736910342168</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>8.526862532741394</v>
+        <v>18.59093265898135</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.2893969548936</v>
+        <v>22.39355387790972</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>10.70418559466896</v>
+        <v>17.02860110495464</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.29804676494523</v>
+        <v>20.77818345753245</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.70827262149256</v>
+        <v>25.56638858564096</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.95428870604525</v>
+        <v>25.95568947775763</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.247334659954618</v>
+        <v>17.33210067226477</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.75139126572707</v>
+        <v>19.65794001841835</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.171340612653715</v>
+        <v>14.89206657436516</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.07220350146629</v>
+        <v>18.09656633121827</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.33465487363464</v>
+        <v>20.54809072326563</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.91381381254686</v>
+        <v>21.2600636445826</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.700253404996307</v>
+        <v>14.63519492684802</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.88633503448914</v>
+        <v>16.19213107349653</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.6722511191807</v>
+        <v>16.66884423215924</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.92849246944783</v>
+        <v>17.19470899187725</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.78209188305971</v>
+        <v>20.00299272675597</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.16098295985438</v>
+        <v>23.28058321365311</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.35747422398808</v>
+        <v>21.95992131443074</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.93382282938069</v>
+        <v>23.24656527385001</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.34579981110043</v>
+        <v>22.93067978585789</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.82639627656653</v>
+        <v>26.08491809531884</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>19.79337027727137</v>
+        <v>29.15001597173008</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.60846417846884</v>
+        <v>35.67328624711935</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>45.52707173153757</v>
+        <v>40.05351813943539</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.07570088517018</v>
+        <v>42.33598426874044</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>15.71545083782506</v>
+        <v>19.29060872669513</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.34026263757852</v>
+        <v>23.21568284575415</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.65224111854747</v>
+        <v>26.85519607706499</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.35112296189602</v>
+        <v>34.52333274017451</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.49432898589731</v>
+        <v>36.53378175244205</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>44.54474752046256</v>
+        <v>38.88578583055409</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>10.08650904409885</v>
+        <v>15.50397154896535</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>15.80838829135088</v>
+        <v>18.20279152936271</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.09460267953146</v>
+        <v>23.78273372076452</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.47618698181135</v>
+        <v>32.43429440910273</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.35225490011022</v>
+        <v>32.93598097416323</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.71429374171823</v>
+        <v>34.23168225789747</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.288266763178264</v>
+        <v>10.83856196987948</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.792736148273434</v>
+        <v>11.03484945649193</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.10361257071396</v>
+        <v>12.05659077659502</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>6.11031452839164</v>
+        <v>11.78771493393128</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>7.071745310465047</v>
+        <v>11.22605658176727</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.067151239585346</v>
+        <v>11.30254036604048</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>6.058361240807855</v>
+        <v>12.29675749866817</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.432936615732316</v>
+        <v>13.71884121021859</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.8701604451607</v>
+        <v>15.17312479399138</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>11.36460008683545</v>
+        <v>15.12834061186367</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.467250938767393</v>
+        <v>11.58922324054995</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>9.279309210583342</v>
+        <v>12.74483127291463</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.873151421608206</v>
+        <v>13.62168293895648</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>8.608616225515394</v>
+        <v>14.825750758593</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>10.74096186591342</v>
+        <v>15.63119133690688</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.98094672579696</v>
+        <v>15.55935547281043</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>2.807592789777853</v>
+        <v>11.66730411392107</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.926347181239446</v>
+        <v>12.30289185905409</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2.93573031691864</v>
+        <v>11.27213170751672</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>6.972485497868195</v>
+        <v>12.28393408164422</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.724200807067366</v>
+        <v>13.18714808829748</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.05749689690401</v>
+        <v>13.74079567518611</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>2.761481851724184</v>
+        <v>11.00383700394739</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>4.779212863788519</v>
+        <v>11.85716651075926</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>3.764146786028217</v>
+        <v>12.4236096796206</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>3.724100431083951</v>
+        <v>12.15836771596923</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.36204942289427</v>
+        <v>18.40962427351429</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.89522333644198</v>
+        <v>20.8888195010391</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>14.92067239314598</v>
+        <v>18.17616876491474</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.52514445539978</v>
+        <v>18.67738834221608</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.43747075180238</v>
+        <v>14.37467153961832</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>11.38748192990442</v>
+        <v>14.50883098120365</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.62806169187548</v>
+        <v>23.28277477107916</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.78796397640764</v>
+        <v>26.74786764521204</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.63895132153869</v>
+        <v>32.58386381603481</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.5661073821995</v>
+        <v>33.06852446419408</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>5.224410141324338</v>
+        <v>12.74413003996796</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.975374791633556</v>
+        <v>13.07484544064819</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.19061025204298</v>
+        <v>22.66910404538503</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.4669028116848</v>
+        <v>26.33761083111045</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.6377373540739</v>
+        <v>31.31325034335187</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.96122459843274</v>
+        <v>31.75495949845044</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2.527600542104459</v>
+        <v>12.26931326374172</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4.849643580175954</v>
+        <v>12.19902114771241</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>14.4746641708895</v>
+        <v>21.79705772135705</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.62783846683335</v>
+        <v>27.1520826607326</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.88420244009832</v>
+        <v>28.59493369871953</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.26658523104745</v>
+        <v>28.86580657460934</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>17.84636732056298</v>
+        <v>25.48046644053539</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.75198536302215</v>
+        <v>29.2339686255494</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.89390599608531</v>
+        <v>23.7259075674877</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.77923149834292</v>
+        <v>24.73683836069907</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.55619956706121</v>
+        <v>21.85932147412579</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.00955443053139</v>
+        <v>23.20930906467182</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.28963034514892</v>
+        <v>28.97205905066869</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>37.32331266716601</v>
+        <v>37.63580121327662</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>46.41833854936606</v>
+        <v>40.88301192655783</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>46.48319643344301</v>
+        <v>41.02693412150966</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>15.82010842826134</v>
+        <v>24.02366787383918</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.82221984733467</v>
+        <v>30.02528076833496</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.73774438603144</v>
+        <v>29.42631452400713</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.62803399070628</v>
+        <v>37.96949100045499</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>44.40254424683326</v>
+        <v>40.77293159514821</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>45.99068030744657</v>
+        <v>41.68591808245483</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.37876011675095</v>
+        <v>25.16510644347438</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.25153337647143</v>
+        <v>30.66514464400691</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>9.570844409138733</v>
+        <v>21.11192497292141</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.38376080358252</v>
+        <v>26.70619627517841</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.36775534263386</v>
+        <v>26.28523810136224</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.3913799290112</v>
+        <v>29.0703906744249</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.98809597046839</v>
+        <v>21.4051202182105</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.60458568231385</v>
+        <v>26.75015006077382</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>13.03211161298398</v>
+        <v>16.68583686992889</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.77624800832353</v>
+        <v>17.04861273021829</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>19.84544062119638</v>
+        <v>26.56987789457624</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.96090193324093</v>
+        <v>28.60595751916435</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.030681654835</v>
+        <v>21.42729284414762</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.30774412785831</v>
+        <v>22.95398872039087</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.62583076643131</v>
+        <v>32.11962608271065</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.78154021158143</v>
+        <v>32.13742000535255</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.8611221832062</v>
+        <v>33.35758401164662</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.67342272415581</v>
+        <v>43.59549465765846</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.1571211284844</v>
+        <v>49.17980549405388</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>59.55253219809524</v>
+        <v>49.38786761612343</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.73312899045749</v>
+        <v>31.42069593704241</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.34017355547729</v>
+        <v>32.65966567682804</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.51506117823422</v>
+        <v>32.99898191779602</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>45.70393186663927</v>
+        <v>43.23295657918275</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>55.39755775690375</v>
+        <v>48.72473533798362</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>58.34479199173084</v>
+        <v>49.82470587234729</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>19.95545518397821</v>
+        <v>23.07120367852315</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.97255325488529</v>
+        <v>25.06864884700113</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.67113341669628</v>
+        <v>29.42882728394391</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.86954621723595</v>
+        <v>40.2031303663222</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.96939416062624</v>
+        <v>39.53811265855467</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>47.38294032836531</v>
+        <v>41.81196343400092</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>20.29540486464092</v>
+        <v>28.34737295862881</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.11911573319664</v>
+        <v>38.36425926705789</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>38.5656192659335</v>
+        <v>35.28930574422785</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>39.48072522820028</v>
+        <v>36.05700007696869</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>16.01157468205681</v>
+        <v>24.85971601984651</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.78700849257539</v>
+        <v>31.01341324675746</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.40490175946211</v>
+        <v>28.20332352560652</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.25561543350785</v>
+        <v>39.10072282187757</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.38794089386731</v>
+        <v>43.84202081398683</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.98219877538327</v>
+        <v>44.24234810383024</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.54387626339182</v>
+        <v>26.57392859440107</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.71090490103774</v>
+        <v>38.19113906751697</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>17.7079744718459</v>
+        <v>25.61004219507417</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.9718852885478</v>
+        <v>36.2532869277063</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>47.24114186806608</v>
+        <v>41.47827336492461</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>47.73176884920089</v>
+        <v>42.59703654484044</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.20231347693883</v>
+        <v>25.59768662743143</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.54353526857307</v>
+        <v>35.22037903551956</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>16.35645900003414</v>
+        <v>25.97298473855372</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.33062067913259</v>
+        <v>38.57454940026049</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>47.18492992339114</v>
+        <v>43.20612297488474</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>49.46145194597708</v>
+        <v>44.1244514307025</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>13.88310657414672</v>
+        <v>24.37106838743408</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.36971939778472</v>
+        <v>32.38186390004126</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.35109339923297</v>
+        <v>27.81862881506801</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.55648373073593</v>
+        <v>27.94559576826721</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>16.02376871421772</v>
+        <v>23.85833734192354</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.07224920532854</v>
+        <v>28.85377089472153</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.47619020151209</v>
+        <v>28.37030354474072</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.46810970519903</v>
+        <v>31.74917558475832</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.1954144694564</v>
+        <v>40.60894457997541</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.11085726415031</v>
+        <v>40.61074737004343</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.17120804190083</v>
+        <v>28.33951991953966</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>45.04220883391505</v>
+        <v>41.95931415831686</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.01694827665793</v>
+        <v>47.54551979088112</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>56.40563267521912</v>
+        <v>47.6579080344529</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.31573577175185</v>
+        <v>35.93289291858598</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.04565324670399</v>
+        <v>38.17571201905351</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.78692051629724</v>
+        <v>26.64348212818762</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.64652627024692</v>
+        <v>38.13906209352066</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.44105926191196</v>
+        <v>42.31520632844112</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.74122469004476</v>
+        <v>44.74335919357418</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.44314191147467</v>
+        <v>29.02820806361875</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.8368484519092</v>
+        <v>31.94930759645887</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.58670243855273</v>
+        <v>27.19992737639441</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.66724196836761</v>
+        <v>37.69546348510586</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.3798763704377</v>
+        <v>39.75945952349707</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>49.5992773512351</v>
+        <v>43.30763282905866</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.09684886892926</v>
+        <v>26.23331481155133</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>37.32680734421943</v>
+        <v>39.1337891645269</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.99892970500048</v>
+        <v>31.2610040852871</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>33.46808211129428</v>
+        <v>31.82055846905249</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>18.66688799115848</v>
+        <v>25.5151396158547</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.35693944000557</v>
+        <v>30.51071287989351</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.57290750946507</v>
+        <v>26.79561141458955</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.91673281576332</v>
+        <v>38.72785097522818</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>48.46531530844062</v>
+        <v>41.3946928789643</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.58496831234702</v>
+        <v>41.29073644198913</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.26666308953244</v>
+        <v>26.18122873388881</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.86102833545232</v>
+        <v>37.15579778047197</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.76850736673998</v>
+        <v>24.94352948698947</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.23363212528898</v>
+        <v>37.50548757118089</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>48.36075325626499</v>
+        <v>43.16465633279594</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>48.59882174452405</v>
+        <v>43.65268361004048</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.28627814413417</v>
+        <v>25.30393749064064</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.4581324511457</v>
+        <v>36.69712077392871</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.63102680693639</v>
+        <v>22.0211029122143</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.221527333989</v>
+        <v>35.66276499478013</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>47.1340845787369</v>
+        <v>42.25712538758619</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>48.6085447648063</v>
+        <v>43.14388145768662</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13.49362883540683</v>
+        <v>24.43580340519841</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.88536646238775</v>
+        <v>34.55707256110906</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.77432345830929</v>
+        <v>26.5971249171802</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.31273582324281</v>
+        <v>27.39012695535275</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>17.95432082103233</v>
+        <v>25.91816721619293</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.8722263863958</v>
+        <v>31.04375696526731</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.15192422004444</v>
+        <v>29.27116120686354</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.06418821403823</v>
+        <v>32.31711333906832</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.13341476204702</v>
+        <v>42.5867122041917</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>49.68376310148287</v>
+        <v>42.79731940268302</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.93784895429284</v>
+        <v>29.21622443312418</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>48.37763437767732</v>
+        <v>42.7444607240745</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>59.91152863558033</v>
+        <v>49.51652458760967</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.36085699936663</v>
+        <v>49.48992844975213</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.02202423805149</v>
+        <v>37.9014408409182</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.63723874473027</v>
+        <v>38.62060110776741</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.7475964890979</v>
+        <v>27.94223681927508</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.06480115941577</v>
+        <v>42.06490930611407</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.55461899153862</v>
+        <v>46.49950485289131</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.14670071316492</v>
+        <v>47.03715908467704</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.11707955593785</v>
+        <v>31.99434673227902</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.44016390191586</v>
+        <v>34.02617884699279</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>17.40473049139771</v>
+        <v>28.10732194681002</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.02219727892992</v>
+        <v>41.5588884166926</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.59673975868003</v>
+        <v>44.25296424974114</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.92943655800592</v>
+        <v>46.13293572951486</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.12696795756118</v>
+        <v>28.11599671736808</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.78729020385965</v>
+        <v>38.31637064236195</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.50616437040767</v>
+        <v>33.26594863605611</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.72006621496735</v>
+        <v>33.74123142278068</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.71206805351879</v>
+        <v>30.40088829988085</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.59649586938201</v>
+        <v>34.73819804288269</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>18.85979665666758</v>
+        <v>28.52702051704657</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.54582404051366</v>
+        <v>40.46070211675303</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>55.20409177935547</v>
+        <v>46.44597567389273</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.85973330115893</v>
+        <v>46.09710193490669</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.66329896474162</v>
+        <v>29.81670878866221</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.50938700816921</v>
+        <v>39.12229915609129</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.63960170227337</v>
+        <v>26.89570203677246</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.09439509232838</v>
+        <v>39.67420229095563</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>55.07273017009437</v>
+        <v>46.22659780901384</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>54.94415961395246</v>
+        <v>46.86584209992744</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.48002015441746</v>
+        <v>28.99947587498468</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.86678823042104</v>
+        <v>38.37977530698824</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.92904383836249</v>
+        <v>23.60698028257628</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.04787751643105</v>
+        <v>38.79931735918801</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.14286193980335</v>
+        <v>46.26384840913017</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>52.00677113461217</v>
+        <v>46.10599703688258</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.13032174325262</v>
+        <v>27.86238296240074</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.32834118152592</v>
+        <v>38.13403486424912</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>32.01064787227897</v>
+        <v>30.696332649302</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.62790263122676</v>
+        <v>31.40086317011567</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.76595063099615</v>
+        <v>28.11731813324377</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.91287388452585</v>
+        <v>32.96032304656202</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.47875876944842</v>
+        <v>33.72104228367411</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.89445344376436</v>
+        <v>36.01117515699006</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.23773002683367</v>
+        <v>44.49944284394901</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.23460795510259</v>
+        <v>44.45247701829314</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>23.97317015453028</v>
+        <v>31.7979150601712</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.81205445209245</v>
+        <v>43.34637230741833</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>63.65709160406369</v>
+        <v>52.92354475255389</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>63.7051915024479</v>
+        <v>52.53891202795835</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.22950526171976</v>
+        <v>42.98158484722473</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.71904825766075</v>
+        <v>43.7961234544793</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.75060573280883</v>
+        <v>32.42330921110007</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>47.24586048334042</v>
+        <v>44.67549449894113</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.10589145085754</v>
+        <v>53.33044761258758</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>62.64045449365447</v>
+        <v>53.21893524965157</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.81705925007729</v>
+        <v>37.01045628435612</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.8704750202444</v>
+        <v>37.7675791394378</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.99353329644235</v>
+        <v>31.9148252744272</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>47.22485210967372</v>
+        <v>45.12977647353982</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>58.06270993399205</v>
+        <v>51.34946124285717</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>61.55846713352469</v>
+        <v>51.97328846829755</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>14.8850898407086</v>
+        <v>24.69243671972782</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.07067549974343</v>
+        <v>31.17052569714134</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.58348957696389</v>
+        <v>24.73292009265395</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.20500613529699</v>
+        <v>25.98295957670827</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>14.09159443806813</v>
+        <v>21.61429153158759</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.00535197841091</v>
+        <v>26.21916061817613</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.7243053854092</v>
+        <v>26.0059120397643</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.1231391749494</v>
+        <v>39.30558633514056</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.38242437998076</v>
+        <v>41.97594297141578</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>46.764053327383</v>
+        <v>42.36206742828169</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>15.05837346820393</v>
+        <v>25.12735882018447</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.73954933689178</v>
+        <v>37.04274930364355</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>14.6654511693813</v>
+        <v>23.75204231975829</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.21207990944164</v>
+        <v>36.10487105931568</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>44.41225837762078</v>
+        <v>41.19157836323862</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>46.18355161003323</v>
+        <v>41.59296348360571</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.95958815369841</v>
+        <v>25.16975087986614</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.95784892125672</v>
+        <v>35.36589153924829</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>10.54749140711612</v>
+        <v>21.82137584250506</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.35606956347058</v>
+        <v>30.1874220583151</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.92233271052067</v>
+        <v>34.28863379986605</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.84619231847077</v>
+        <v>38.18843249931718</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>11.27678009753176</v>
+        <v>22.61976390064287</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.35494641875913</v>
+        <v>30.33050302036466</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.66059366157808</v>
+        <v>23.36489572690776</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.16178229377441</v>
+        <v>23.72139381623039</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.73910028389188</v>
+        <v>23.25046207478215</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.78548453431872</v>
+        <v>27.35657717551834</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.80661377104698</v>
+        <v>26.48505208035903</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.55915262292377</v>
+        <v>28.30712591673152</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.13412901515565</v>
+        <v>38.91542965961965</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.53894434192587</v>
+        <v>38.43785382029181</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>18.57486257192724</v>
+        <v>27.67785598233606</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.54036924628097</v>
+        <v>42.33350444581919</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.18381479187067</v>
+        <v>45.10229940399624</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>53.23665473585877</v>
+        <v>44.8667944726553</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.68910179125564</v>
+        <v>36.40930975267123</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>41.0233198413352</v>
+        <v>37.73775900247811</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>15.78674329166913</v>
+        <v>27.46027493835985</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.6336423317312</v>
+        <v>39.64543365573664</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.70504884553042</v>
+        <v>43.83441721899378</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>51.08525734035632</v>
+        <v>45.54911343281561</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.0498447793269</v>
+        <v>28.22220411116042</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.00324711614407</v>
+        <v>30.71682283601855</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.98469163259527</v>
+        <v>25.18889141172643</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>35.40366623807781</v>
+        <v>34.34446340745113</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>39.28072977573746</v>
+        <v>36.57654129495665</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>45.71761505543122</v>
+        <v>40.51093675638242</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>12.71520541405953</v>
+        <v>18.41587942662993</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>16.85809518547378</v>
+        <v>20.10791523695965</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.56196830662644</v>
+        <v>20.00474808565022</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>17.17645482054856</v>
+        <v>19.98830096847591</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>14.32111373811207</v>
+        <v>20.9882071816338</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.12779585913667</v>
+        <v>23.30712463788357</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>12.70318568222284</v>
+        <v>19.08666202226711</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.05151517262086</v>
+        <v>23.01065076035923</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.15189388087388</v>
+        <v>27.00359835494704</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.91054473114514</v>
+        <v>27.00987809257679</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.69191572110904</v>
+        <v>24.93992954856987</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.06304538656197</v>
+        <v>36.10128243420677</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>10.3207217995959</v>
+        <v>17.84499879310147</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.27173744060848</v>
+        <v>21.00181799908745</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.10867809025172</v>
+        <v>24.67722912217912</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.21662806000508</v>
+        <v>24.88406314641921</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>10.77403463436733</v>
+        <v>22.52489402831776</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.53698086455714</v>
+        <v>28.14364100311536</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>7.654032413701724</v>
+        <v>15.97198913185396</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.23704331008491</v>
+        <v>19.51833569921777</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.96951632546971</v>
+        <v>24.0720750039441</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.48497655436048</v>
+        <v>24.53183179190037</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.40658075653088</v>
+        <v>22.26090215184658</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.36264384020487</v>
+        <v>27.52380716182812</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.04551551465336</v>
+        <v>19.83868638869558</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>19.19296102507975</v>
+        <v>20.34359504168533</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.37894578865823</v>
+        <v>20.33051018293624</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.8850218408471</v>
+        <v>22.57131633630194</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.03009988260972</v>
+        <v>20.17664713693041</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>18.89121512376542</v>
+        <v>21.07362234083593</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.20334038826971</v>
+        <v>37.39643942976576</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>41.82186205136797</v>
+        <v>37.71183208908103</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.78764863252798</v>
+        <v>31.26314254104792</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>46.31264044747947</v>
+        <v>43.42717561172886</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.54275677266479</v>
+        <v>48.28265775095893</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.47812568720377</v>
+        <v>48.60495778746324</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.31244951637099</v>
+        <v>28.73686154935047</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>35.00409773690954</v>
+        <v>32.84300307254231</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>19.16660658964197</v>
+        <v>28.30533249034891</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.88272599752487</v>
+        <v>38.63697514102613</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>44.38468997186754</v>
+        <v>39.99613719627682</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>49.34874470968993</v>
+        <v>42.66893872895866</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>23.69572049015034</v>
+        <v>26.15821754316218</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.56534542303406</v>
+        <v>30.91735379451584</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.58117138214624</v>
+        <v>26.91396171995682</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.91394744181318</v>
+        <v>34.7266807674446</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.82447281540959</v>
+        <v>32.47297693774573</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.85685858963875</v>
+        <v>38.06887630305499</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.602299680935133</v>
+        <v>15.71575535216755</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>15.86333896445483</v>
+        <v>17.2063217526859</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.90889544663998</v>
+        <v>18.11975650733471</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>14.7142218592965</v>
+        <v>17.75368228799484</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>15.09533408197346</v>
+        <v>23.54077080888228</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.05019682961674</v>
+        <v>24.94168716743225</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>9.749799318986785</v>
+        <v>17.25542791000687</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.79630953640717</v>
+        <v>21.62158414786792</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>34.95400749716687</v>
+        <v>30.95178015166233</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.1585686800845</v>
+        <v>30.62697430073105</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.78590307551223</v>
+        <v>22.99324918768861</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.2183979362764</v>
+        <v>28.28755498572082</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>14.26059200399613</v>
+        <v>25.81352798868997</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.71626689039579</v>
+        <v>34.60246965699712</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.12781598117254</v>
+        <v>35.53505790633299</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>37.82524988635907</v>
+        <v>36.32711872887501</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>11.82121068666783</v>
+        <v>24.08890436793818</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.18540725807497</v>
+        <v>31.47294831433848</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>8.835432760045308</v>
+        <v>21.83976646592749</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.95877821681108</v>
+        <v>30.54377508649845</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.86154977530093</v>
+        <v>31.53965274517131</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.46491236398433</v>
+        <v>32.03395165955136</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>11.80416949377101</v>
+        <v>22.63312575297715</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.19918477277992</v>
+        <v>29.30621126592512</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>15.85655893615138</v>
+        <v>20.94263541405588</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>19.32336745309788</v>
+        <v>22.85238299883535</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>11.06084893083297</v>
+        <v>19.62222580498343</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>15.32934922589963</v>
+        <v>20.73730098065552</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.09737221146904</v>
+        <v>18.17565206772874</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>17.78604941930218</v>
+        <v>19.62020102676924</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.19421546968667</v>
+        <v>29.73777167993834</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.07706727010043</v>
+        <v>34.92172475380183</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>15.46843253597401</v>
+        <v>26.25241605107432</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.87736308996046</v>
+        <v>34.41033647063727</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>46.68711173255983</v>
+        <v>41.12465289329418</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>49.81146391213456</v>
+        <v>44.16645004400294</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.17191858131075</v>
+        <v>30.57200767054824</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>39.73667066967302</v>
+        <v>35.39065794670318</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>14.71712354690323</v>
+        <v>27.42657959658667</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.51256981046056</v>
+        <v>38.76045614432213</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>44.15471681823087</v>
+        <v>41.83580580420045</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>49.03149167169394</v>
+        <v>44.0586563791796</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.87083199670337</v>
+        <v>27.04078513456077</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.34477040754056</v>
+        <v>31.79553366260711</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>12.6999170467387</v>
+        <v>24.73945198940962</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>30.97340789208973</v>
+        <v>32.43955016202491</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.13611887399742</v>
+        <v>32.06746956806668</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.41881391071514</v>
+        <v>37.60430452195954</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.2698861276218</v>
+        <v>27.60228123945319</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>37.42481039508311</v>
+        <v>38.3578362607045</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.0848673318539</v>
+        <v>33.70800060634205</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.84195852051192</v>
+        <v>34.19348899268835</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>18.35604237417272</v>
+        <v>25.3359559731888</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.37941532101689</v>
+        <v>31.49447484613514</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>17.984981532069</v>
+        <v>27.53921491490282</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.26088819184441</v>
+        <v>38.93732469419973</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>52.8142312555043</v>
+        <v>45.70498214727885</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>51.95894007498103</v>
+        <v>45.30811575284902</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.48728386248275</v>
+        <v>27.34487936903981</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.51520510234532</v>
+        <v>38.38154050680578</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>16.10061824508093</v>
+        <v>24.87855173190657</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.24335534225617</v>
+        <v>37.62175277999476</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>51.26813649257564</v>
+        <v>43.76605137264575</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.23558784674482</v>
+        <v>43.69645936772906</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>17.07148907886473</v>
+        <v>26.77013489531554</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.7452810450681</v>
+        <v>37.27142763298231</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>11.8939256512311</v>
+        <v>22.59218479432288</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>39.02765586971326</v>
+        <v>36.52101862317277</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.54567525946489</v>
+        <v>43.15697388432237</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.84625207221364</v>
+        <v>43.45776929846923</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.4858365619458</v>
+        <v>24.89181754164967</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.87073102913432</v>
+        <v>36.22708456089131</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.73757467199382</v>
+        <v>29.23719919488573</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.21365055614796</v>
+        <v>29.90294981255759</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>16.20261975751921</v>
+        <v>25.43020138484499</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.75316619997456</v>
+        <v>30.81964666481296</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.74736894000525</v>
+        <v>30.16103178172519</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.72835550699951</v>
+        <v>32.77554795774867</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.76921181579038</v>
+        <v>42.48511571863206</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.51370273081785</v>
+        <v>42.43624311614424</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>21.04239467235134</v>
+        <v>29.08017367885137</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>47.19352212288173</v>
+        <v>42.59479280124168</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>60.13117187429764</v>
+        <v>50.58887206265138</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>60.77148748666698</v>
+        <v>50.25898861510659</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>44.97750224628761</v>
+        <v>41.60369595609035</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>47.85760082221851</v>
+        <v>42.25740768299534</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>19.30386882562996</v>
+        <v>29.00478205519851</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.67109203539378</v>
+        <v>42.8195663390191</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>56.76748616297135</v>
+        <v>48.48257285386458</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>58.68093153407483</v>
+        <v>48.79225215234796</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.52334799395334</v>
+        <v>36.8117589427058</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.59759071508579</v>
+        <v>37.4120857176637</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>18.89922961635333</v>
+        <v>28.00823548973848</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>43.93348226388769</v>
+        <v>41.96963293474304</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>51.26334152376171</v>
+        <v>45.34786831700013</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>55.28958628099733</v>
+        <v>46.34820099306795</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>10.98664631419792</v>
+        <v>22.34484451257015</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.87181328286677</v>
+        <v>27.13663729737755</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>21.39313805284621</v>
+        <v>23.33961841927727</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>22.99793560181721</v>
+        <v>24.11157072572243</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>14.81279441924294</v>
+        <v>20.03552350266455</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.17994230215379</v>
+        <v>24.6845625683558</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>16.09246482078777</v>
+        <v>25.37365188266611</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>39.13300890817199</v>
+        <v>38.55447488741782</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.44237739984494</v>
+        <v>41.43163059609886</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>44.7873256988174</v>
+        <v>41.06089258268983</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>15.30173811800702</v>
+        <v>24.81164040632268</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>37.73127567998397</v>
+        <v>36.64465421914369</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>15.21664665930483</v>
+        <v>24.10611095800389</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>37.90157187045991</v>
+        <v>36.70002711677968</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>44.67649045800285</v>
+        <v>41.2924840347362</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>45.21336763133132</v>
+        <v>41.11127689033602</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>13.41098069301621</v>
+        <v>25.49493626993655</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.39247456818241</v>
+        <v>36.46777992765077</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>10.60764145914806</v>
+        <v>20.81860962469174</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.97129774969803</v>
+        <v>30.95587072824144</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>36.40702116544067</v>
+        <v>36.07797401636953</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>40.0688087580555</v>
+        <v>37.81250611636922</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>12.2749895790171</v>
+        <v>22.05515734095847</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>28.10879392165735</v>
+        <v>29.68130803779721</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.66558052290928</v>
+        <v>24.9002324107798</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>25.77736238787712</v>
+        <v>26.11710216393562</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>13.31132104147371</v>
+        <v>24.20712121740287</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>22.73334374367904</v>
+        <v>27.88430894590005</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>22.22281756150046</v>
+        <v>25.37594069703936</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.32656275164289</v>
+        <v>27.07705893604361</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>44.20140473110155</v>
+        <v>38.65342791299908</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>44.79652829396807</v>
+        <v>38.53799143268268</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>19.27268377779193</v>
+        <v>28.54543226475071</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>45.01395764017215</v>
+        <v>42.94828164697832</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>52.51512704765388</v>
+        <v>45.55020009640576</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>53.78378083959358</v>
+        <v>45.54837979219097</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.87237363515818</v>
+        <v>37.48757414427421</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>42.31601731137908</v>
+        <v>38.58014122483358</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.63849529596605</v>
+        <v>28.00659235537148</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.23952828939128</v>
+        <v>40.02388094903814</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.93281829755399</v>
+        <v>43.18498293164074</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>51.60606411333956</v>
+        <v>45.10397258330946</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.14444626299753</v>
+        <v>29.34641165806989</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.45710141950238</v>
+        <v>32.22164337040965</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>12.65205218449884</v>
+        <v>24.84272813030905</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.73691114337922</v>
+        <v>32.65481294590798</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>35.86016033592989</v>
+        <v>34.07030318232637</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.1886152983927</v>
+        <v>39.01634834237501</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.538</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.311</v>
+        <v>19.332</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.493</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.964</v>
+        <v>22.841</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.283</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.56500679694203</v>
+        <v>24.86616895465413</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.50359632315521</v>
+        <v>25.74146630431139</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.08101528246564</v>
+        <v>25.28273583845607</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.20139476957453</v>
+        <v>25.30828185385626</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.80528751545027</v>
+        <v>29.16981454766015</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.45135245922073</v>
+        <v>30.79289778602423</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.34666451935254</v>
+        <v>24.75874829667973</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.96602826184901</v>
+        <v>26.71847902500102</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.62060778301729</v>
+        <v>28.94942218608193</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.51276524926518</v>
+        <v>28.89799924458149</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.5594727886736</v>
+        <v>31.70507142915272</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.15165274556005</v>
+        <v>36.98997575768774</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.0154249988917</v>
+        <v>22.71188888886302</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.01800619181223</v>
+        <v>24.37726360347528</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.80399540440318</v>
+        <v>27.59288941880131</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.02714693609479</v>
+        <v>27.67881131698767</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.50126591134693</v>
+        <v>30.45522816292631</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.68236177678902</v>
+        <v>33.16528174560577</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.7161246241865</v>
+        <v>22.57005201583898</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.75811892764188</v>
+        <v>24.32576672195374</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.91397423924101</v>
+        <v>26.66880316701494</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.40206543226543</v>
+        <v>26.85480419115289</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.45762868899656</v>
+        <v>29.46727813826601</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>30.82446319516815</v>
+        <v>32.12565138116221</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.24432955271291</v>
+        <v>28.96580834465843</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.60029551291602</v>
+        <v>29.44849345452486</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.71975381307164</v>
+        <v>29.56500957139153</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.69190888140849</v>
+        <v>30.83762008008625</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.71171501973986</v>
+        <v>28.66596169945181</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.08106901318212</v>
+        <v>29.17461238137692</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>43.59575563723288</v>
+        <v>37.5336499869031</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.16273835282247</v>
+        <v>37.97206867472693</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.21390227986595</v>
+        <v>34.61811772188588</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>47.2001707399519</v>
+        <v>40.12104066807045</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.43924271109683</v>
+        <v>41.57010008732954</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.34055343614108</v>
+        <v>41.94272497604116</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.40651998582786</v>
+        <v>31.96258759469759</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.82701042938498</v>
+        <v>34.32890366603167</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.28317191192691</v>
+        <v>32.51692563691178</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.22631323702982</v>
+        <v>37.52259389508606</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.88005733928169</v>
+        <v>38.44015465342094</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>48.73327715900879</v>
+        <v>39.63650608201095</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.2410274961041</v>
+        <v>30.44471428559402</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.6462719727954</v>
+        <v>32.68600671716229</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.04699782211486</v>
+        <v>33.58608213369504</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.82284495415735</v>
+        <v>38.51996314971065</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45.28643530036443</v>
+        <v>38.06924058692793</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>48.41583461287699</v>
+        <v>39.39170859913852</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.83974105721665</v>
+        <v>30.51666750856364</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.59777800926105</v>
+        <v>35.38825014034521</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.35647140194566</v>
+        <v>31.82452907979431</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.15979185274248</v>
+        <v>32.59175953047343</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.47178091026966</v>
+        <v>30.05804643316657</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.4126597797208</v>
+        <v>32.94241038491096</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.76595803127572</v>
+        <v>31.56416892460538</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.02772202255071</v>
+        <v>37.55732139058154</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.07510881694662</v>
+        <v>35.99480130849907</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.24434032151279</v>
+        <v>36.06156834359817</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.67366106591305</v>
+        <v>31.86547216352973</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.7401744897462</v>
+        <v>37.80067205454058</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.64911425121677</v>
+        <v>30.67756489670478</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40.01056288808283</v>
+        <v>36.23750105833095</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.00385661893573</v>
+        <v>36.97382111980644</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.68113104473509</v>
+        <v>36.79008578750639</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.85742124293514</v>
+        <v>31.37911807920391</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.64627040030629</v>
+        <v>35.80718866640091</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.76840454174329</v>
+        <v>31.29948930355745</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.74256242549056</v>
+        <v>37.06204802846526</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.86180376236127</v>
+        <v>35.44804531231877</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40.9246805463191</v>
+        <v>35.8761239918627</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.10499607310065</v>
+        <v>30.57128353840288</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.6705051682137</v>
+        <v>34.17863993775467</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.3980340124608</v>
+        <v>30.54678770693289</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.28647253543841</v>
+        <v>30.80416383237734</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.37789686937202</v>
+        <v>31.2105477912502</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.78811351710737</v>
+        <v>34.32126620846707</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.68439563478318</v>
+        <v>32.05482035105727</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.2656773110001</v>
+        <v>33.54263256697334</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43.63399772341999</v>
+        <v>37.38658541488029</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.95687368361482</v>
+        <v>37.95172858958562</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.56820573763592</v>
+        <v>33.6702782730889</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>48.15087455047664</v>
+        <v>41.02257909548602</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.62116111058088</v>
+        <v>40.69368703684555</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.85127880580514</v>
+        <v>40.87233700585941</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.70712838418277</v>
+        <v>35.06504425050116</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>41.84582386795867</v>
+        <v>36.32791230774703</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.85127039878796</v>
+        <v>32.63043885258458</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44.41481543644513</v>
+        <v>39.12437663651242</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.78510436168477</v>
+        <v>39.31991207720119</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>48.72272735499304</v>
+        <v>39.70331387058764</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33.06196216867689</v>
+        <v>32.24042209916621</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.65767186767236</v>
+        <v>34.17593484404922</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.65396137968108</v>
+        <v>33.34264964245767</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.27990651104269</v>
+        <v>38.52343795072726</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.94031508632278</v>
+        <v>38.08312713391927</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.48308272986435</v>
+        <v>39.55459247987054</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.57316619483785</v>
+        <v>28.95552681597918</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.8023021373329</v>
+        <v>32.79106328844075</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.21780144064192</v>
+        <v>30.23809619548637</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.64646496871552</v>
+        <v>30.40434732652032</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.54898887737826</v>
+        <v>30.49904680690866</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.9866167771163</v>
+        <v>33.61649581095138</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.11360519218488</v>
+        <v>32.05569761442836</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.79345294747018</v>
+        <v>37.86704646543245</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>46.04345980711916</v>
+        <v>38.23231480034885</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>45.59839652601107</v>
+        <v>37.99061899502598</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.12654655041923</v>
+        <v>32.59759925293881</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.82647614041382</v>
+        <v>38.39989104305051</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.31648196355336</v>
+        <v>30.39770564732486</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.49813688826384</v>
+        <v>36.30189406026733</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.98770972484414</v>
+        <v>36.42352723403394</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.79936667834309</v>
+        <v>36.33247554287775</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.25998492868263</v>
+        <v>32.48869347246676</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.56410747527637</v>
+        <v>38.1067166459825</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.60757054632553</v>
+        <v>30.3538129592598</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.73053977530916</v>
+        <v>36.72806553591865</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.01582032570856</v>
+        <v>37.02267405246043</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>43.23159905931435</v>
+        <v>37.14677796712112</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.33396151418257</v>
+        <v>30.99700658711715</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.28518220061316</v>
+        <v>36.48770934588185</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.21100828612462</v>
+        <v>31.76199717587939</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.71388677170115</v>
+        <v>31.95742270822945</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.04702507399405</v>
+        <v>30.98254567168067</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>35.17755825946607</v>
+        <v>34.00608428688646</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.23344626911141</v>
+        <v>32.81113997703977</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.28591374900453</v>
+        <v>34.06513890133709</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.01617492462006</v>
+        <v>39.85965002723756</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.99517065936771</v>
+        <v>40.24476479208909</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.50064714501265</v>
+        <v>33.69588535467143</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.87512237231146</v>
+        <v>39.93603530353303</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54.04649145702767</v>
+        <v>41.93613323117674</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.35197698230833</v>
+        <v>42.08410098722671</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>45.90980832724915</v>
+        <v>38.39827371357958</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.04067222227905</v>
+        <v>38.87315902932005</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.77908746645886</v>
+        <v>32.80383988543196</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.79336679421728</v>
+        <v>39.49250681785657</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>51.13827925656707</v>
+        <v>40.80798009706105</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>51.46806204807977</v>
+        <v>41.04344616244187</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39.01844168652829</v>
+        <v>34.96166492711495</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>40.77068422355777</v>
+        <v>35.73513595525892</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.47556191629013</v>
+        <v>33.00370985335631</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>46.98659607792023</v>
+        <v>39.94000754713863</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.05281771190295</v>
+        <v>40.22388088200449</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>50.62972971429028</v>
+        <v>40.47061601531286</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.90856509499092</v>
+        <v>24.76484473766332</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.16443053369047</v>
+        <v>25.04104035803439</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.36778814228733</v>
+        <v>28.58541810930282</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.52274130248767</v>
+        <v>28.62293456193608</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.07981987042007</v>
+        <v>28.96082716662394</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.26773609344255</v>
+        <v>29.87598540356004</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.96480279190803</v>
+        <v>25.79191653554914</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.43039161260983</v>
+        <v>27.3358645709261</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.85667619763018</v>
+        <v>32.54859464841594</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.75266167118276</v>
+        <v>32.52022954481851</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.76104575028772</v>
+        <v>33.47795168004791</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>44.33002038895657</v>
+        <v>38.99835744011157</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.23904456280859</v>
+        <v>24.26348737656718</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.46841840354933</v>
+        <v>25.85605409726569</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.22851802233441</v>
+        <v>31.47996521705327</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.35145549415574</v>
+        <v>31.49001981817081</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.65247435405304</v>
+        <v>30.50701908390862</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.1813828415059</v>
+        <v>33.69998929100046</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.60470515773495</v>
+        <v>24.51106306565668</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.57953205076638</v>
+        <v>25.84470317792288</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.0730905147206</v>
+        <v>30.84187285709909</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.44509732474201</v>
+        <v>31.00314883787645</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.66628800360089</v>
+        <v>28.56933904603575</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37392575206947</v>
+        <v>30.99076512416766</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.02622841746609</v>
+        <v>26.87368095337349</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.92300820094534</v>
+        <v>27.17428021313729</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.55699116937953</v>
+        <v>26.76243505024339</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.76350183927141</v>
+        <v>27.95027293322429</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.52695622000865</v>
+        <v>27.0775501368621</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23.64493111519444</v>
+        <v>27.51776466586523</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>46.19645261509061</v>
+        <v>38.63712073666117</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>47.49579512280958</v>
+        <v>39.04623999947982</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>35.36284779888511</v>
+        <v>35.43468215172548</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.2863151951214</v>
+        <v>40.85050289087589</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>53.59483103703825</v>
+        <v>42.26638630799152</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.62506264058396</v>
+        <v>42.67575782993993</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.18927410065949</v>
+        <v>32.50345044332204</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.44960026940308</v>
+        <v>34.68213476290141</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>32.46296162044044</v>
+        <v>34.32000485259372</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.48528381438513</v>
+        <v>38.13620856381227</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>43.47754891064578</v>
+        <v>37.29783715044218</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>47.60258904409404</v>
+        <v>39.06436993228075</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.3491939816387</v>
+        <v>28.53359859037489</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.12844823739109</v>
+        <v>30.94299813189367</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.60440749500296</v>
+        <v>32.71465498426355</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.39813241687755</v>
+        <v>36.2561913529437</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.01845953715676</v>
+        <v>35.52038179217673</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.96532507117472</v>
+        <v>37.1755305536827</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.53070536537807</v>
+        <v>25.79947327539995</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.51584729827259</v>
+        <v>29.31748460011823</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.8170733691332</v>
+        <v>28.10613465676247</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.79123035914253</v>
+        <v>28.1004775318114</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.88909315583593</v>
+        <v>29.52452261638647</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.9773484048967</v>
+        <v>32.44170612326226</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.65396418420268</v>
+        <v>32.04593059089314</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>44.54001753876233</v>
+        <v>38.76782076918479</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.76753442080368</v>
+        <v>37.76809098529244</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>44.09137030416351</v>
+        <v>37.52049377458917</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.98095385856363</v>
+        <v>34.12796794950081</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.98225705727433</v>
+        <v>39.88773238212535</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.85259876167865</v>
+        <v>30.06629406847466</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>38.89291166115131</v>
+        <v>35.834887336668</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.0804664775277</v>
+        <v>38.10521596612575</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.71602037130113</v>
+        <v>38.40493910747623</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.20426957443943</v>
+        <v>32.82063414437651</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.87268193961334</v>
+        <v>38.62759470966968</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.39841536377143</v>
+        <v>32.14030010399505</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.57313527193228</v>
+        <v>38.94219126022696</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>47.61577875239756</v>
+        <v>39.28231654020226</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.71256335585111</v>
+        <v>39.39473385029676</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.57026210080795</v>
+        <v>32.67769740028854</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.54140839895931</v>
+        <v>38.61808505469515</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>33.78918941234809</v>
+        <v>32.37969938672916</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.31264980610986</v>
+        <v>32.55426384178131</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.78091084706718</v>
+        <v>31.09312434669891</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.90605936254902</v>
+        <v>33.58422454443198</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.91097945542847</v>
+        <v>32.12211459955169</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>35.43810359230156</v>
+        <v>33.18837258828808</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.00695755169315</v>
+        <v>41.68295862167621</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>53.68286853724943</v>
+        <v>42.05148297401665</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.37386168557777</v>
+        <v>34.3720297150677</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>48.02566023946777</v>
+        <v>40.59587875856261</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>57.04082330906353</v>
+        <v>43.40718426872176</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>57.15257549570205</v>
+        <v>43.47064536130176</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>50.21383654179575</v>
+        <v>40.4109096403067</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.22753221335827</v>
+        <v>33.52010386064613</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.25446626745851</v>
+        <v>38.94815641174352</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.94230599468692</v>
+        <v>41.11015122539323</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.06423192819794</v>
+        <v>41.59995133779909</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.44231434095602</v>
+        <v>38.07473147551178</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.36771662361489</v>
+        <v>38.46455055024904</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.40644281160147</v>
+        <v>35.03315675960324</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.86276095601175</v>
+        <v>41.55596120253684</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.2469347210814</v>
+        <v>42.2717796621233</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>54.70372079965176</v>
+        <v>42.42149472692964</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.83586626976911</v>
+        <v>28.76206578871796</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.71004460944943</v>
+        <v>33.68630309337251</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.52966345630955</v>
+        <v>29.58160542401774</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.90337528332506</v>
+        <v>29.74360051744642</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.59079827014758</v>
+        <v>30.9336478147726</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>37.43955811776677</v>
+        <v>35.08723466515193</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.54859496422708</v>
+        <v>31.33904812742806</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>41.93065554779306</v>
+        <v>37.43627119807624</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.16995064358876</v>
+        <v>36.52450683395753</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.99833292496507</v>
+        <v>36.43838140075911</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.7319479843511</v>
+        <v>34.05787393591947</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.97633302604018</v>
+        <v>40.51390125917327</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.85344313354106</v>
+        <v>28.73345503377546</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.68117015128522</v>
+        <v>34.36869859245477</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.70363896529476</v>
+        <v>37.90306931010286</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>44.37314474078164</v>
+        <v>37.84400038548952</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.79448418999322</v>
+        <v>33.0886436273777</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.52228511420532</v>
+        <v>39.72807993715033</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.97484697205729</v>
+        <v>29.85750836294759</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.9762506651691</v>
+        <v>37.00189885599447</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.0054741175874</v>
+        <v>39.5056254131826</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>48.25830753657052</v>
+        <v>39.6640958499921</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.64119158884433</v>
+        <v>33.07586935983452</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>44.05279545738652</v>
+        <v>39.17343010677052</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.89796138795866</v>
+        <v>33.48781834530376</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.87204667377513</v>
+        <v>33.88617301656954</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.54928212839879</v>
+        <v>31.77893406471404</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.74284994753696</v>
+        <v>35.22729668893586</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>35.2525617478672</v>
+        <v>33.32874465230748</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>37.96283702529261</v>
+        <v>34.44232805702302</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>50.21666912473201</v>
+        <v>40.46074666022485</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>50.99235960262783</v>
+        <v>40.78264866078997</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.88478641187017</v>
+        <v>33.15066821673685</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>51.36538403844555</v>
+        <v>40.897735992093</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>51.75313385185061</v>
+        <v>41.07960817587271</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>46.33697449429557</v>
+        <v>38.45479869182088</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.51880214359299</v>
+        <v>39.03522868896579</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>30.89772731384041</v>
+        <v>33.02178679447478</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.27104297034084</v>
+        <v>39.48332742417638</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>50.19740385604895</v>
+        <v>40.49865873540622</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>50.33276197007096</v>
+        <v>40.58726473774947</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>40.6732422743631</v>
+        <v>35.79258657574065</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>42.85878583310552</v>
+        <v>36.78511600153996</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>32.17745435302259</v>
+        <v>34.52373542213072</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>48.47641016144142</v>
+        <v>41.38391065060603</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>48.92097581604278</v>
+        <v>39.91120272459843</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>49.69904220084399</v>
+        <v>40.28850920817889</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.85877963104229</v>
+        <v>24.20498999545951</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19.57879062154488</v>
+        <v>24.88261089921654</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19.99464971978429</v>
+        <v>26.00285026581977</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>19.9915024929559</v>
+        <v>26.02860260496422</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.27812082009321</v>
+        <v>28.44836255873032</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.08826548045015</v>
+        <v>30.50759985605428</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>15.91207581387361</v>
+        <v>23.13107045571631</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>19.70288976904834</v>
+        <v>24.67007865197814</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.42709626927507</v>
+        <v>28.79839380777069</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.27972669960348</v>
+        <v>28.75104550143764</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.38496415799849</v>
+        <v>29.52196913250417</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.83935881133134</v>
+        <v>33.93340107213334</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>11.89377089139332</v>
+        <v>20.935921918114</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>15.36931446762898</v>
+        <v>22.19691695152912</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.21373663668069</v>
+        <v>27.44182064056773</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.13922207111081</v>
+        <v>27.41987843693752</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.45239239749146</v>
+        <v>29.47605518596214</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.12003802257379</v>
+        <v>32.5564242672446</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.67057826414961</v>
+        <v>20.87992175025057</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>14.9566008025319</v>
+        <v>22.08359000996234</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.23688548380809</v>
+        <v>25.98071114083193</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.57868367273045</v>
+        <v>26.11670278672261</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.4058040139038</v>
+        <v>28.7006362887592</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>30.67971638433061</v>
+        <v>31.75483082361056</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.19820725417935</v>
+        <v>28.95159178157743</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.9803654669645</v>
+        <v>29.18916419517456</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.40581283464512</v>
+        <v>28.64794609616736</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.05837371131214</v>
+        <v>30.16420725031773</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.22578346936864</v>
+        <v>29.34998180171292</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.75696418333574</v>
+        <v>29.9379327099094</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.72165082146138</v>
+        <v>34.35326346067746</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>38.56924031420136</v>
+        <v>34.69711229124562</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.31239315764608</v>
+        <v>32.77574551583032</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.82408674796337</v>
+        <v>38.05832212236884</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>48.68496462140921</v>
+        <v>39.41539808412701</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.26912081690061</v>
+        <v>39.6293504877121</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>33.49080353067595</v>
+        <v>32.50506137084443</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.55512816146239</v>
+        <v>33.77135600419609</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.74062046467056</v>
+        <v>32.20603590144975</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.08440468443741</v>
+        <v>37.33880947420117</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.13716150530382</v>
+        <v>38.10594634003153</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>46.69709215885959</v>
+        <v>38.71529071853153</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.62216912255248</v>
+        <v>30.01750544205164</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.65894147608702</v>
+        <v>31.24472101104528</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.99883456100143</v>
+        <v>32.26760301325831</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.47442568977404</v>
+        <v>37.92663424859235</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45.11696714337016</v>
+        <v>38.0778572159181</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>46.59914144101535</v>
+        <v>38.73033337002398</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>14.76172843446721</v>
+        <v>22.10692432759611</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.49661270602637</v>
+        <v>22.93051474790296</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>16.44051822049041</v>
+        <v>24.00245161760788</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.40948979494358</v>
+        <v>23.93876416185548</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.12846314082057</v>
+        <v>25.21990424942639</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.59519706151587</v>
+        <v>25.58034018304308</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.88784205228114</v>
+        <v>22.92301786652155</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>18.87914302877085</v>
+        <v>24.17476436198855</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.93681886560853</v>
+        <v>26.60088606008421</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.65324389280196</v>
+        <v>26.46121635546484</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.39646415124414</v>
+        <v>22.24075329261139</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.02994386108904</v>
+        <v>23.6146780740882</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>15.230166590208</v>
+        <v>22.62082095809326</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18.23272977800911</v>
+        <v>24.06455230357587</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.0694349398489</v>
+        <v>25.38890694226995</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>18.93649654725162</v>
+        <v>25.2391226962537</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>14.21936611633742</v>
+        <v>22.74485927251362</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>15.94157986826075</v>
+        <v>23.47547552633077</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>11.55854434605418</v>
+        <v>20.37941431482354</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.59454812334089</v>
+        <v>21.26876782208931</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>14.95422041480767</v>
+        <v>23.35740068357251</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.16987897344017</v>
+        <v>23.40805569840547</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>12.9723105553833</v>
+        <v>21.44405829485801</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.73200328844901</v>
+        <v>22.18302934411251</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.05545058302292</v>
+        <v>25.50901920750876</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.75173500459039</v>
+        <v>25.75940141882305</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.38901850544757</v>
+        <v>23.30027867732</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.26675236117712</v>
+        <v>23.64687156317787</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.91486772796903</v>
+        <v>26.03726892698885</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.91599468456408</v>
+        <v>26.16450099916237</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.14597695199035</v>
+        <v>27.31583265501776</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.17713305523737</v>
+        <v>28.17822460678564</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.34950387055146</v>
+        <v>27.82869747291619</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.4127159300152</v>
+        <v>30.2603283267239</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.67703522892707</v>
+        <v>31.12123410907987</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.3494662229223</v>
+        <v>33.07390637655685</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.42311235640114</v>
+        <v>25.8552274044763</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.18648160940566</v>
+        <v>27.42314339504377</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.23889451253669</v>
+        <v>27.87527694122601</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.16934389840145</v>
+        <v>29.39710996828895</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.56457524331507</v>
+        <v>30.22382424737895</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.11142852392246</v>
+        <v>32.93471475325506</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>15.30566481743189</v>
+        <v>23.62899557511307</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.43577697429885</v>
+        <v>24.07755736543604</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.71416482426188</v>
+        <v>28.90051233414822</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.94206544072719</v>
+        <v>30.04933010427177</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.28912366032819</v>
+        <v>29.0960210763854</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>33.90787673997438</v>
+        <v>32.28162530157115</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.26079405213214</v>
+        <v>30.15491564833759</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.37748915158994</v>
+        <v>34.38044783192736</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>34.37762868354758</v>
+        <v>32.64755711725471</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>34.50353117190366</v>
+        <v>32.71097889260124</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.39866914072325</v>
+        <v>28.45032835016362</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.66046846350522</v>
+        <v>31.09626987105731</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.80691335613021</v>
+        <v>32.03542110614478</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.63827010389262</v>
+        <v>37.06101918852739</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>49.76367920133967</v>
+        <v>40.00156213882592</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.63845318300558</v>
+        <v>39.87659048473347</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.94852226245953</v>
+        <v>30.31210129768313</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.0588835499134</v>
+        <v>35.03210674289958</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.51921058315863</v>
+        <v>30.32066261069028</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.40991518986273</v>
+        <v>36.13243457038143</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>44.83287316694424</v>
+        <v>37.80636610159797</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.38650540211938</v>
+        <v>38.12297268513461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.16319585304192</v>
+        <v>30.20429165335199</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.13468823075106</v>
+        <v>34.83903048558329</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.11218650561495</v>
+        <v>28.80773259756059</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.60162498966031</v>
+        <v>34.28854179436945</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.31541894452302</v>
+        <v>36.57193377232279</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>42.67754230895184</v>
+        <v>36.80477520433775</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.02858175886679</v>
+        <v>28.95683650244769</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.8840077055803</v>
+        <v>33.12887172446469</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.20313545225691</v>
+        <v>30.19539968505729</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.59955090000616</v>
+        <v>30.40384386777566</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.5372021312211</v>
+        <v>30.4956624388863</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.41895925966461</v>
+        <v>33.38318075688745</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.43492476789316</v>
+        <v>31.9009049884797</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.3507422761888</v>
+        <v>33.10290614990656</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>43.08749777431221</v>
+        <v>36.71377877906886</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.14971222111014</v>
+        <v>36.7174897512249</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.76458366137262</v>
+        <v>32.78822224892529</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.36909505615471</v>
+        <v>38.47572989024634</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>50.74151325968148</v>
+        <v>40.43904767831763</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.25058368695854</v>
+        <v>40.67264032203958</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.31213174494419</v>
+        <v>35.64691204651812</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.00327266975231</v>
+        <v>35.9418631684993</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.91851957800721</v>
+        <v>32.63456167533275</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>44.29729047782723</v>
+        <v>38.59244105963166</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>49.00593049825807</v>
+        <v>39.91784596923914</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>49.38768256366698</v>
+        <v>40.10596937565605</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.49707119712883</v>
+        <v>31.93714971350832</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.67677654945717</v>
+        <v>32.348324383131</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.38133465929336</v>
+        <v>32.42423461752357</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>44.40320545615316</v>
+        <v>38.73951992513484</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>47.03532327405279</v>
+        <v>38.94013036145855</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>47.6321133862314</v>
+        <v>39.12093831483551</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>15.25180917740383</v>
+        <v>22.39611667997769</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.1795348195647</v>
+        <v>22.82122322656016</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.10384738898525</v>
+        <v>24.07724824177104</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.10714516690149</v>
+        <v>24.04036154713686</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.55509044537615</v>
+        <v>25.84698963297709</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.34973522266784</v>
+        <v>26.45838754795876</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.17815014799299</v>
+        <v>23.37048044594412</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.36523393279339</v>
+        <v>24.55395812412539</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.18211018402578</v>
+        <v>26.68180349686605</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.32286277803675</v>
+        <v>26.74847196189731</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.35290835471787</v>
+        <v>27.82886940649324</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.89537769256512</v>
+        <v>31.87278399299158</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>15.04593251300877</v>
+        <v>22.95168434443453</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>17.76670220811812</v>
+        <v>24.19604721906325</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.72866932332157</v>
+        <v>26.3141251370005</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.05296967443747</v>
+        <v>26.37322840819234</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>19.93527486943252</v>
+        <v>26.76330545632113</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.32394658835286</v>
+        <v>27.70092540841289</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.34909194805121</v>
+        <v>21.178717092741</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>14.83536462873911</v>
+        <v>22.12098123685801</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.09517084527742</v>
+        <v>24.45686192844707</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>17.56498865279276</v>
+        <v>24.58485706594909</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.95312776779122</v>
+        <v>24.0106721942558</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.92415422768403</v>
+        <v>24.67358574067287</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.7315763916921</v>
+        <v>25.29989265180478</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.33052781445282</v>
+        <v>25.49643164489073</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.84518011002607</v>
+        <v>24.78251133472524</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.88706255096738</v>
+        <v>25.76473099673533</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.31316468553533</v>
+        <v>25.70572313023009</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.72807907863439</v>
+        <v>25.73598534537778</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.76112120511386</v>
+        <v>31.99213509229594</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.72064993888886</v>
+        <v>32.3464335504306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.33331458398402</v>
+        <v>32.90665744903702</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.00060418330063</v>
+        <v>36.49458271416577</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>44.64976730622207</v>
+        <v>37.83701242162951</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>45.91887263201508</v>
+        <v>38.36397559354928</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.29248729172298</v>
+        <v>27.21600910744535</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.9319420274507</v>
+        <v>29.54721431155513</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.51859724333822</v>
+        <v>32.50219244091145</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.32560045332734</v>
+        <v>34.36705258539197</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.85682881732508</v>
+        <v>33.66836045580711</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>41.62952561831663</v>
+        <v>36.11690898053941</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>16.30931864947565</v>
+        <v>24.2034277579031</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>19.97992425041647</v>
+        <v>25.69262918236916</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.4137208613522</v>
+        <v>30.63053944698765</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.33838688077836</v>
+        <v>33.12730630048955</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.99897959529069</v>
+        <v>31.2680489490224</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.33781282358319</v>
+        <v>33.53628264309815</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.84918056187507</v>
+        <v>19.59612581077146</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.99599213130514</v>
+        <v>19.74417095448082</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>11.88849874436159</v>
+        <v>21.90345542857821</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>11.54449849406957</v>
+        <v>21.75444924786603</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.36134668371206</v>
+        <v>28.62684184628666</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.35961104471218</v>
+        <v>31.29649420572629</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>10.39469801319739</v>
+        <v>19.69419842097263</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.49818185389615</v>
+        <v>20.03534948492118</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>14.29833093402384</v>
+        <v>23.05784453887093</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>14.2204573405163</v>
+        <v>22.96409952371017</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.39740405904444</v>
+        <v>29.84283548434632</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.5408695472189</v>
+        <v>34.57267580236019</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>15.2181009029146</v>
+        <v>22.36938770590545</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>15.80256065246533</v>
+        <v>22.62351273767592</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.52188546702386</v>
+        <v>23.58564150086627</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.39325888842293</v>
+        <v>23.95819757450662</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.05994465054178</v>
+        <v>30.18983923497887</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.08641207766006</v>
+        <v>34.83256580586801</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.86901357346624</v>
+        <v>22.43256298367506</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.84603609424396</v>
+        <v>22.77587623841264</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.06147094183967</v>
+        <v>22.9944381518401</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.73220674358801</v>
+        <v>23.75024641921374</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.30254531405067</v>
+        <v>29.15916703530144</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.35271535780378</v>
+        <v>33.33504678466213</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.06800874922481</v>
+        <v>30.24688002152946</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.13626294265014</v>
+        <v>30.6122085660468</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.87004688598594</v>
+        <v>31.00075688252018</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.66477892290985</v>
+        <v>32.99285036639006</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.29635700923039</v>
+        <v>30.4707052345645</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.25669678302036</v>
+        <v>31.67386344794848</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>40.35984193488028</v>
+        <v>35.64143683481194</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.76445110310635</v>
+        <v>35.83582315289739</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.28044007709289</v>
+        <v>33.52192021065425</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>45.74598008519121</v>
+        <v>39.56761267464903</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.25481396593931</v>
+        <v>40.31620387651486</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>50.8504150054224</v>
+        <v>40.61554164383739</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>39.512579828304</v>
+        <v>35.25626207626119</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.05995949889724</v>
+        <v>35.48939308088097</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.58468755798409</v>
+        <v>34.00536698664813</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>46.6717752101634</v>
+        <v>40.26449914889832</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.03729989803266</v>
+        <v>39.91774043696331</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.38088689613137</v>
+        <v>40.08253419542117</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.3780910606289</v>
+        <v>32.71278565703579</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>35.40431357344075</v>
+        <v>33.14536017259357</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.73065155394352</v>
+        <v>33.8299805457836</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>46.92978027136757</v>
+        <v>40.21563672247282</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.94432424285953</v>
+        <v>39.90983127406015</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>49.68957657720613</v>
+        <v>40.25289305852525</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>19.26062540332203</v>
+        <v>24.67020682411807</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>20.41443980591071</v>
+        <v>25.26841035610987</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.95641705114108</v>
+        <v>26.37057764437662</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.33743536151543</v>
+        <v>26.05855346562757</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.93492008594959</v>
+        <v>24.39175474543084</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.8376076263535</v>
+        <v>24.85123529066251</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.49961474388543</v>
+        <v>24.46407980768892</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.57771414594805</v>
+        <v>26.15726982153174</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.22704952602514</v>
+        <v>28.2620325592074</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.07736910342168</v>
+        <v>28.19932778096353</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>18.59093265898135</v>
+        <v>25.50641660271023</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.39355387790972</v>
+        <v>26.95227587886458</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.02860110495464</v>
+        <v>23.82034431819908</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.77818345753245</v>
+        <v>25.44255251955759</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.56638858564096</v>
+        <v>28.47639033030542</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.95568947775763</v>
+        <v>28.65933644919856</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>17.33210067226477</v>
+        <v>24.89813648538845</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>19.65794001841835</v>
+        <v>25.72272640826819</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>14.89206657436516</v>
+        <v>22.73454581809215</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.09656633121827</v>
+        <v>23.97728087715121</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.54809072326563</v>
+        <v>26.13692135605599</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.2600636445826</v>
+        <v>26.47664841330914</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.63519492684802</v>
+        <v>22.91675086834177</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.19213107349653</v>
+        <v>23.43628285913688</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.66884423215924</v>
+        <v>24.45895577080381</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.19470899187725</v>
+        <v>24.50682399790276</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.00299272675597</v>
+        <v>25.8254757567864</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>23.28058321365311</v>
+        <v>27.41673685420285</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.95992131443074</v>
+        <v>27.03678230153246</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.24656527385001</v>
+        <v>27.45350405887324</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.93067978585789</v>
+        <v>27.275303193996</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.08491809531884</v>
+        <v>28.55900208908725</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.15001597173008</v>
+        <v>31.63948083162387</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.67328624711935</v>
+        <v>34.39029832276248</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>40.05351813943539</v>
+        <v>35.47231036951281</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>42.33598426874044</v>
+        <v>36.40693706534218</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>19.29060872669513</v>
+        <v>25.69908062732527</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>23.21568284575415</v>
+        <v>27.31991257807655</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.85519607706499</v>
+        <v>30.4978896969641</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.52333274017451</v>
+        <v>33.72464874682831</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.53378175244205</v>
+        <v>33.86219077200348</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.88578583055409</v>
+        <v>34.85080920650352</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>15.50397154896535</v>
+        <v>23.75740440578226</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.20279152936271</v>
+        <v>24.83816907454647</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.78273372076452</v>
+        <v>28.84940231872077</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.43429440910273</v>
+        <v>32.49404028141872</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.93598097416323</v>
+        <v>32.06044784191554</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>34.23168225789747</v>
+        <v>32.57247692838516</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>10.83856196987948</v>
+        <v>19.61913309049751</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.03484945649193</v>
+        <v>19.78853000269353</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.05659077659502</v>
+        <v>22.04763617555354</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>11.78771493393128</v>
+        <v>21.86050236677801</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.22605658176727</v>
+        <v>19.82111974876288</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.30254036604048</v>
+        <v>20.08255223174493</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>12.29675749866817</v>
+        <v>20.93425794903739</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.71884121021859</v>
+        <v>21.55983271022422</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>15.17312479399138</v>
+        <v>23.38978252590735</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>15.12834061186367</v>
+        <v>23.35777617275589</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.58922324054995</v>
+        <v>20.31005057091742</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.74483127291463</v>
+        <v>20.79794734387954</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.62168293895648</v>
+        <v>21.35340684976222</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.825750758593</v>
+        <v>21.88625710627429</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>15.63119133690688</v>
+        <v>23.63173286608842</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.55935547281043</v>
+        <v>23.64467920384773</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.66730411392107</v>
+        <v>20.47245588155545</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.30289185905409</v>
+        <v>20.84181170288729</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>11.27213170751672</v>
+        <v>20.35577853770066</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>12.28393408164422</v>
+        <v>20.63287954124843</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>13.18714808829748</v>
+        <v>22.47828492862457</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.74079567518611</v>
+        <v>22.68012474298747</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.00383700394739</v>
+        <v>20.02351465944702</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>11.85716651075926</v>
+        <v>20.30180711076771</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.4236096796206</v>
+        <v>22.23022701021205</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.15836771596923</v>
+        <v>22.01174745302722</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>18.40962427351429</v>
+        <v>24.78622934845891</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.8888195010391</v>
+        <v>25.93563891529244</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.17616876491474</v>
+        <v>24.95083462496897</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.67738834221608</v>
+        <v>25.19189294809205</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>14.37467153961832</v>
+        <v>22.9618166995533</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.50883098120365</v>
+        <v>22.98785978516632</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.28277477107916</v>
+        <v>27.39950961857443</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.74786764521204</v>
+        <v>28.8374285484864</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.58386381603481</v>
+        <v>31.71878276226559</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.06852446419408</v>
+        <v>31.92185963675327</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>12.74413003996796</v>
+        <v>22.45050715565613</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.07484544064819</v>
+        <v>22.44469199734869</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.66910404538503</v>
+        <v>27.10585829635468</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.33761083111045</v>
+        <v>28.72296377856718</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.31325034335187</v>
+        <v>31.29428132437069</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.75495949845044</v>
+        <v>31.43702342978385</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.26931326374172</v>
+        <v>22.12979427250248</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.19902114771241</v>
+        <v>22.02714191048964</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.79705772135705</v>
+        <v>27.00727885471122</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.1520826607326</v>
+        <v>29.15677316622523</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.59493369871953</v>
+        <v>29.95977458100804</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.86580657460934</v>
+        <v>30.02901617806359</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.48046644053539</v>
+        <v>28.95212581908723</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.2339686255494</v>
+        <v>30.61856519229762</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.7259075674877</v>
+        <v>27.7409813418207</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.73683836069907</v>
+        <v>28.10232186730395</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.85932147412579</v>
+        <v>26.42614537437521</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.20930906467182</v>
+        <v>27.14096881239254</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.97205905066869</v>
+        <v>30.98309534574827</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>37.63580121327662</v>
+        <v>34.68640102159558</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>40.88301192655783</v>
+        <v>35.7673026738027</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.02693412150966</v>
+        <v>35.81776894852116</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.02366787383918</v>
+        <v>28.55762179606993</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.02528076833496</v>
+        <v>30.99209840050608</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.42631452400713</v>
+        <v>31.77059326754251</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.96949100045499</v>
+        <v>35.41649635529947</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>40.77293159514821</v>
+        <v>35.84554239728989</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>41.68591808245483</v>
+        <v>36.24476537045833</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.16510644347438</v>
+        <v>28.99025222378769</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.66514464400691</v>
+        <v>31.40473340315918</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.11192497292141</v>
+        <v>27.22481169809262</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.70619627517841</v>
+        <v>29.44055714018831</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.28523810136224</v>
+        <v>28.9076650784161</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.0703906744249</v>
+        <v>30.06609491887545</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.4051202182105</v>
+        <v>27.31984235875825</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.75015006077382</v>
+        <v>29.62451910786811</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>16.68583686992889</v>
+        <v>24.30099327905801</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.04861273021829</v>
+        <v>24.36645528143481</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.56987789457624</v>
+        <v>29.52407266368288</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.60595751916435</v>
+        <v>30.37901325214141</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.42729284414762</v>
+        <v>26.46307191700834</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.95398872039087</v>
+        <v>27.03136538407731</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.11962608271065</v>
+        <v>31.55968563908075</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.13742000535255</v>
+        <v>31.55185139653086</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.35758401164662</v>
+        <v>34.16791738718138</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.59549465765846</v>
+        <v>38.34871743755532</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.17980549405388</v>
+        <v>39.77163786244095</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.38786761612343</v>
+        <v>39.91635765966198</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.42069593704241</v>
+        <v>31.34639548897567</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.65966567682804</v>
+        <v>31.76834359461283</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.99898191779602</v>
+        <v>34.0531890515928</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.23295657918275</v>
+        <v>38.3651343159919</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>48.72473533798362</v>
+        <v>39.72582508679435</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>49.82470587234729</v>
+        <v>40.15360865007961</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.07120367852315</v>
+        <v>27.44960718285202</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.06864884700113</v>
+        <v>28.21129852095242</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.42882728394391</v>
+        <v>32.16398255047213</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.2031303663222</v>
+        <v>36.69835979073338</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.53811265855467</v>
+        <v>35.35267305423925</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.81196343400092</v>
+        <v>36.28403456845196</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.34737295862881</v>
+        <v>31.40467043946289</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>38.36425926705789</v>
+        <v>35.69412778258722</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.28930574422785</v>
+        <v>33.23790192070886</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.05700007696869</v>
+        <v>33.56405273179325</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.85971601984651</v>
+        <v>28.72403651288606</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.01341324675746</v>
+        <v>31.28209734388962</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.20332352560652</v>
+        <v>31.37730623439147</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.10072282187757</v>
+        <v>35.8416487447965</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.84202081398683</v>
+        <v>37.32264428870599</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.24234810383024</v>
+        <v>37.53894691380124</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.57392859440107</v>
+        <v>30.46368804437764</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.19113906751697</v>
+        <v>35.23597553967342</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.61004219507417</v>
+        <v>30.02654012313013</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.2532869277063</v>
+        <v>34.46079047886997</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.47827336492461</v>
+        <v>36.16635759751301</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.59703654484044</v>
+        <v>36.70428630373614</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.59768662743143</v>
+        <v>30.10719272896801</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.22037903551956</v>
+        <v>34.13603054668859</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.97298473855372</v>
+        <v>30.05573081686921</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.57454940026049</v>
+        <v>35.3425223947637</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.20612297488474</v>
+        <v>37.13452423495366</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>44.1244514307025</v>
+        <v>37.54122317062752</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.37106838743408</v>
+        <v>29.32442492091095</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.38186390004126</v>
+        <v>32.6389375089981</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.81862881506801</v>
+        <v>29.49945913368656</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.94559576826721</v>
+        <v>29.52274263426232</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.85833734192354</v>
+        <v>28.89024665280566</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.85377089472153</v>
+        <v>30.84048493599521</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.37030354474072</v>
+        <v>29.93519899845359</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.74917558475832</v>
+        <v>31.35641632273351</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.60894457997541</v>
+        <v>35.68533201331023</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.61074737004343</v>
+        <v>35.74973240368582</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.33951991953966</v>
+        <v>31.57292258374803</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.95931415831686</v>
+        <v>37.29539390473721</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>47.54551979088112</v>
+        <v>39.02540463001253</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.6579080344529</v>
+        <v>39.13187847842929</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.93289291858598</v>
+        <v>33.63600385457754</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.17571201905351</v>
+        <v>34.54147715160548</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.64348212818762</v>
+        <v>31.15286655585951</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.13906209352066</v>
+        <v>35.81659603508793</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.31520632844112</v>
+        <v>36.76125037140811</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.74335919357418</v>
+        <v>37.78423513244131</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.02820806361875</v>
+        <v>30.21490591952746</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.94930759645887</v>
+        <v>31.45564725092635</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.19992737639441</v>
+        <v>31.42206322188896</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.69546348510586</v>
+        <v>35.81088465608629</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>39.75945952349707</v>
+        <v>35.48985680228344</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>43.30763282905866</v>
+        <v>36.99623698245459</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.23331481155133</v>
+        <v>30.59689759714741</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>39.1337891645269</v>
+        <v>36.12233108086559</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.2610040852871</v>
+        <v>31.37924097863339</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.82055846905249</v>
+        <v>31.61348442006802</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.5151396158547</v>
+        <v>29.09285909890411</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>30.51071287989351</v>
+        <v>31.13487756063843</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.79561141458955</v>
+        <v>30.86207146075786</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.72785097522818</v>
+        <v>35.69608107486667</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>41.3946928789643</v>
+        <v>37.47386191250958</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.29073644198913</v>
+        <v>37.47150251811097</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.18122873388881</v>
+        <v>30.38665797694237</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.15579778047197</v>
+        <v>34.8580139019716</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.94352948698947</v>
+        <v>29.43044420706268</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>37.50548757118089</v>
+        <v>34.60179265454813</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>43.16465633279594</v>
+        <v>37.14791410616036</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.65268361004048</v>
+        <v>37.40872381657466</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.30393749064064</v>
+        <v>29.93431822460376</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.69712077392871</v>
+        <v>34.64952563495158</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.0211029122143</v>
+        <v>28.26081198506254</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.66276499478013</v>
+        <v>33.79697682602187</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>42.25712538758619</v>
+        <v>36.51893763202141</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.14388145768662</v>
+        <v>36.9427815560131</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.43580340519841</v>
+        <v>29.48251568012854</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>34.55707256110906</v>
+        <v>33.78005745769764</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.5971249171802</v>
+        <v>28.90769288311557</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.39012695535275</v>
+        <v>29.22016522907534</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.91816721619293</v>
+        <v>29.35641209275166</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.04375696526731</v>
+        <v>31.49590934649753</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.27116120686354</v>
+        <v>30.33778683118163</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.31711333906832</v>
+        <v>31.59253390053242</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.5867122041917</v>
+        <v>36.70964628280543</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.79731940268302</v>
+        <v>36.83349100309255</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.21622443312418</v>
+        <v>32.22565513266847</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.7444607240745</v>
+        <v>37.90972012813793</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>49.51652458760967</v>
+        <v>40.08914958298853</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>49.48992844975213</v>
+        <v>40.12136168978367</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>37.9014408409182</v>
+        <v>34.54144490545911</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.62060110776741</v>
+        <v>34.86609527012141</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.94223681927508</v>
+        <v>31.711222810591</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.06490930611407</v>
+        <v>37.62441653445411</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>46.49950485289131</v>
+        <v>38.65452216382298</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.03715908467704</v>
+        <v>38.95139903163252</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.99434673227902</v>
+        <v>31.59412616935526</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.02617884699279</v>
+        <v>32.35354060498331</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.10732194681002</v>
+        <v>32.15693497398352</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.5588884166926</v>
+        <v>37.65388810448029</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>44.25296424974114</v>
+        <v>37.61524874026413</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>46.13293572951486</v>
+        <v>38.40291206411028</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.11599671736808</v>
+        <v>31.23885045283108</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>38.31637064236195</v>
+        <v>35.5947874600723</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.26594863605611</v>
+        <v>32.17218691817399</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.74123142278068</v>
+        <v>32.43228140954567</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.40088829988085</v>
+        <v>31.81757521277476</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>34.73819804288269</v>
+        <v>33.55810854651145</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.52702051704657</v>
+        <v>31.66512710235335</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.46070211675303</v>
+        <v>36.56813760815846</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.44597567389273</v>
+        <v>39.27724556468888</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>46.09710193490669</v>
+        <v>39.17897355723228</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.81670878866221</v>
+        <v>31.94285432602841</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.12229915609129</v>
+        <v>35.92834356737897</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.89570203677246</v>
+        <v>30.91659675529447</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.67420229095563</v>
+        <v>36.28473172839472</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>46.22659780901384</v>
+        <v>38.14598718052856</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>46.86584209992744</v>
+        <v>38.46506486828785</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.99947587498468</v>
+        <v>31.64201870159422</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.37977530698824</v>
+        <v>35.62617058001429</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>23.60698028257628</v>
+        <v>29.1156887117492</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>38.79931735918801</v>
+        <v>35.35944953365058</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>46.26384840913017</v>
+        <v>38.23571553927503</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>46.10599703688258</v>
+        <v>38.29765207833427</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.86238296240074</v>
+        <v>31.02032618851648</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.13403486424912</v>
+        <v>35.43076971372821</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.696332649302</v>
+        <v>31.08828828493645</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.40086317011567</v>
+        <v>31.41232096374516</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.11731813324377</v>
+        <v>30.80775896570965</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.96032304656202</v>
+        <v>32.86448925560941</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>33.72104228367411</v>
+        <v>32.68906013122866</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.01117515699006</v>
+        <v>33.72302439035332</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.49944284394901</v>
+        <v>37.71476214384843</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.45247701829314</v>
+        <v>37.74639518097573</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.7979150601712</v>
+        <v>33.36315138548406</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.34637230741833</v>
+        <v>38.28727195158844</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>52.92354475255389</v>
+        <v>41.85973315431077</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>52.53891202795835</v>
+        <v>41.77821369638571</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.98158484722473</v>
+        <v>37.07397514374588</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>43.7961234544793</v>
+        <v>37.42812809763796</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>32.42330921110007</v>
+        <v>33.7836856217648</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.67549449894113</v>
+        <v>38.96757778813111</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>53.33044761258758</v>
+        <v>42.00789001270628</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>53.21893524965157</v>
+        <v>42.02926947823718</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.01045628435612</v>
+        <v>34.09156849287805</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.7675791394378</v>
+        <v>34.47480432034603</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.9148252744272</v>
+        <v>33.75660346051558</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>45.12977647353982</v>
+        <v>39.36820152367221</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>51.34946124285717</v>
+        <v>41.28316814695379</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>51.97328846829755</v>
+        <v>41.53869972564834</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.69243671972782</v>
+        <v>29.083994055247</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.17052569714134</v>
+        <v>31.82260306633581</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.73292009265395</v>
+        <v>28.16243087710046</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.98295957670827</v>
+        <v>28.60728776495876</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.61429153158759</v>
+        <v>26.72970705790302</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.21916061817613</v>
+        <v>28.57327867139315</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.0059120397643</v>
+        <v>30.41512857412053</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.30558633514056</v>
+        <v>36.02117850751871</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>41.97594297141578</v>
+        <v>36.49360218647868</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>42.36206742828169</v>
+        <v>36.69954200015584</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.12735882018447</v>
+        <v>29.38845291373707</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.04274930364355</v>
+        <v>34.37341499578088</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.75204231975829</v>
+        <v>29.09385308551408</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.10487105931568</v>
+        <v>34.2014337215476</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>41.19157836323862</v>
+        <v>36.20761253120305</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.59296348360571</v>
+        <v>36.37018006063236</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.16975087986614</v>
+        <v>29.44466078332612</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.36589153924829</v>
+        <v>33.66708110104327</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.82137584250506</v>
+        <v>28.02103367097499</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.1874220583151</v>
+        <v>31.54960474375122</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>34.28863379986605</v>
+        <v>32.97339986991282</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.18843249931718</v>
+        <v>34.55356886607014</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.61976390064287</v>
+        <v>28.19833725409894</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.33050302036466</v>
+        <v>31.44215121789172</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.36489572690776</v>
+        <v>27.49324670228361</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.72139381623039</v>
+        <v>27.62352394437875</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.25046207478215</v>
+        <v>28.12923703365853</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.35657717551834</v>
+        <v>29.73707070971644</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.48505208035903</v>
+        <v>28.99938613114366</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.30712591673152</v>
+        <v>29.79396783920357</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>38.91542965961965</v>
+        <v>34.92908276917321</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.43785382029181</v>
+        <v>34.71655978644313</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.67785598233606</v>
+        <v>31.25568611529254</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>42.33350444581919</v>
+        <v>37.38818332116612</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.10229940399624</v>
+        <v>38.01478904425064</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.8667944726553</v>
+        <v>37.92746349628568</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.40930975267123</v>
+        <v>33.68478609770128</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>37.73775900247811</v>
+        <v>34.1753857266218</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.46027493835985</v>
+        <v>31.40265523592803</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.64543365573664</v>
+        <v>36.3825452173856</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.83441721899378</v>
+        <v>37.40499986105643</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.54911343281561</v>
+        <v>38.10955410785596</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.22220411116042</v>
+        <v>29.85076914275332</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.71682283601855</v>
+        <v>30.85802728030357</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.18889141172643</v>
+        <v>30.38828009717244</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.34446340745113</v>
+        <v>34.00716937288473</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.57654129495665</v>
+        <v>34.08257857712817</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.51093675638242</v>
+        <v>35.74837196991196</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>18.41587942662993</v>
+        <v>24.60035872521584</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.10791523695965</v>
+        <v>25.35219361354025</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.00474808565022</v>
+        <v>26.01965933092599</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>19.98830096847591</v>
+        <v>25.95706010237873</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.9882071816338</v>
+        <v>26.17009409908554</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.30712463788357</v>
+        <v>27.10883520374231</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>19.08666202226711</v>
+        <v>24.9437801452227</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.01065076035923</v>
+        <v>26.61246092248544</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.00359835494704</v>
+        <v>28.92845759546991</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.00987809257679</v>
+        <v>28.96496279153556</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.93992954856987</v>
+        <v>29.04256318396884</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.10128243420677</v>
+        <v>33.75455241939794</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.84499879310147</v>
+        <v>24.20149525567212</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.00181799908745</v>
+        <v>25.62951083762508</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.67722912217912</v>
+        <v>28.11307785499455</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.88406314641921</v>
+        <v>28.17596724632681</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.52489402831776</v>
+        <v>28.246055018061</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.14364100311536</v>
+        <v>30.4423700755868</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>15.97198913185396</v>
+        <v>23.24064606723377</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>19.51833569921777</v>
+        <v>24.84931656879225</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.0720750039441</v>
+        <v>27.88218650365956</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.53183179190037</v>
+        <v>27.95384331391104</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.26090215184658</v>
+        <v>27.83216344958319</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.52380716182812</v>
+        <v>30.0632605420293</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.83868638869558</v>
+        <v>25.73917861743061</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.34359504168533</v>
+        <v>25.9121316231745</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.33051018293624</v>
+        <v>25.7938890442141</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.57131633630194</v>
+        <v>26.71882080105566</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.17664713693041</v>
+        <v>25.96037493197777</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.07362234083593</v>
+        <v>26.24883820153271</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>37.39643942976576</v>
+        <v>34.1695947353025</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>37.71183208908103</v>
+        <v>34.24853300558505</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.26314254104792</v>
+        <v>33.26185013463245</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.42717561172886</v>
+        <v>38.38595984382805</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>48.28265775095893</v>
+        <v>39.55676347748491</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.60495778746324</v>
+        <v>39.73504095661114</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.73686154935047</v>
+        <v>30.31332855312146</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>32.84300307254231</v>
+        <v>32.01909475702183</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.30533249034891</v>
+        <v>31.84420193518178</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.63697514102613</v>
+        <v>36.13199930638019</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.99613719627682</v>
+        <v>35.68685940504493</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.66893872895866</v>
+        <v>36.81834654934766</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.15821754316218</v>
+        <v>28.98551644717276</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.91735379451584</v>
+        <v>30.93493359496912</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.91396171995682</v>
+        <v>31.25670473781024</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.7266807674446</v>
+        <v>34.52343472222649</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.47297693774573</v>
+        <v>32.02188596489011</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.06887630305499</v>
+        <v>34.40782977281734</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>15.71575535216755</v>
+        <v>22.61091021263734</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.2063217526859</v>
+        <v>23.274557736186</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.11975650733471</v>
+        <v>24.94111211788339</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>17.75368228799484</v>
+        <v>24.78043202176413</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>23.54077080888228</v>
+        <v>27.73308069476494</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.94168716743225</v>
+        <v>28.360118651053</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.25542791000687</v>
+        <v>23.77278692054847</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.62158414786792</v>
+        <v>25.0215484855036</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.95178015166233</v>
+        <v>30.56254293864519</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.62697430073105</v>
+        <v>30.7223127505051</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.99324918768861</v>
+        <v>28.61149599502335</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.28755498572082</v>
+        <v>30.65409387537946</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.81352798868997</v>
+        <v>29.82668984227528</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.60246965699712</v>
+        <v>33.97537157974187</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>35.53505790633299</v>
+        <v>33.73147632681525</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.32711872887501</v>
+        <v>34.00022938650775</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.08890436793818</v>
+        <v>29.39023899073712</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.47294831433848</v>
+        <v>32.49685048035632</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>21.83976646592749</v>
+        <v>27.40350639946007</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.54377508649845</v>
+        <v>31.0628810371004</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.53965274517131</v>
+        <v>31.3670154537249</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.03395165955136</v>
+        <v>31.5981130274428</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.63312575297715</v>
+        <v>28.44998460207637</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.30621126592512</v>
+        <v>31.18598360504767</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.94263541405588</v>
+        <v>26.18720556991729</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.85238299883535</v>
+        <v>26.69669725088395</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>19.62222580498343</v>
+        <v>25.37687722550206</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>20.73730098065552</v>
+        <v>25.85050629421163</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>18.17565206772874</v>
+        <v>24.81443693569461</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>19.62020102676924</v>
+        <v>25.03422963315219</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.73777167993834</v>
+        <v>30.57794043318661</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.92172475380183</v>
+        <v>32.89841452350622</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.25241605107432</v>
+        <v>30.29924885999086</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>34.41033647063727</v>
+        <v>33.27390259426593</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>41.12465289329418</v>
+        <v>35.75468978411448</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>44.16645004400294</v>
+        <v>37.32239844961987</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.57200767054824</v>
+        <v>31.22365154059959</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.39065794670318</v>
+        <v>33.17048405395469</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.42657959658667</v>
+        <v>31.08366533881044</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>38.76045614432213</v>
+        <v>35.96960957489954</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.83580580420045</v>
+        <v>36.60410606943535</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>44.0586563791796</v>
+        <v>37.44307530321799</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.04078513456077</v>
+        <v>29.44571249939324</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.79553366260711</v>
+        <v>31.40354838223537</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>24.73945198940962</v>
+        <v>29.75363615104951</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.43955016202491</v>
+        <v>33.00959917062169</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>32.06746956806668</v>
+        <v>31.64497650206108</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>37.60430452195954</v>
+        <v>34.00039782123375</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>27.60228123945319</v>
+        <v>31.01726399061483</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>38.3578362607045</v>
+        <v>35.64300753939607</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.70800060634205</v>
+        <v>32.39088398343199</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.19348899268835</v>
+        <v>32.60363837688749</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.3359559731888</v>
+        <v>28.97464280808833</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.49447484613514</v>
+        <v>31.43262181046856</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.53921491490282</v>
+        <v>30.93435992972749</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>38.93732469419973</v>
+        <v>35.46799357488409</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>45.70498214727885</v>
+        <v>38.06012836435996</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>45.30811575284902</v>
+        <v>38.02240459710173</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>27.34487936903981</v>
+        <v>30.72886248758879</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>38.38154050680578</v>
+        <v>35.27474440017923</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>24.87855173190657</v>
+        <v>29.62085874661887</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>37.62175277999476</v>
+        <v>34.91286699058845</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>43.76605137264575</v>
+        <v>37.39589129965868</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>43.69645936772906</v>
+        <v>37.43846147730322</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.77013489531554</v>
+        <v>30.69822502361044</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>37.27142763298231</v>
+        <v>34.98848574220193</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.59218479432288</v>
+        <v>28.51571292798337</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.52101862317277</v>
+        <v>34.34769860472184</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>43.15697388432237</v>
+        <v>37.09532938629924</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.45776929846923</v>
+        <v>37.24280585233728</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.89181754164967</v>
+        <v>29.42820781372127</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.22708456089131</v>
+        <v>34.23063347616198</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.23719919488573</v>
+        <v>30.26286049952961</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.90294981255759</v>
+        <v>30.56854232485913</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.43020138484499</v>
+        <v>29.61369161154487</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>30.81964666481296</v>
+        <v>31.80656199375827</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.16103178172519</v>
+        <v>30.87046968646364</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>32.77554795774867</v>
+        <v>31.93277090454685</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>42.48511571863206</v>
+        <v>36.46416506978649</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>42.43624311614424</v>
+        <v>36.49081042203997</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.08017367885137</v>
+        <v>31.88492529188259</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.59479280124168</v>
+        <v>37.58341092187948</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>50.58887206265138</v>
+        <v>40.46828594194855</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>50.25898861510659</v>
+        <v>40.36519254829237</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>41.60369595609035</v>
+        <v>36.26197522799375</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>42.25740768299534</v>
+        <v>36.52842898459515</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.00478205519851</v>
+        <v>32.05274021032888</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>42.8195663390191</v>
+        <v>37.71277378510322</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>48.48257285386458</v>
+        <v>39.53818674400591</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>48.79225215234796</v>
+        <v>39.72888722236684</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>36.8117589427058</v>
+        <v>33.91653862916719</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>37.4120857176637</v>
+        <v>34.14874064177368</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>28.00823548973848</v>
+        <v>31.34698168501283</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>41.96963293474304</v>
+        <v>37.22400327984153</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.34786831700013</v>
+        <v>38.08716562635053</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>46.34820099306795</v>
+        <v>38.45359349158741</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>22.34484451257015</v>
+        <v>27.23618382411899</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>27.13663729737755</v>
+        <v>29.30034411239161</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>23.33961841927727</v>
+        <v>27.41881294184904</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.11157072572243</v>
+        <v>27.73678979740433</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.03552350266455</v>
+        <v>25.99614774428061</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.6845625683558</v>
+        <v>27.94218457923378</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.37365188266611</v>
+        <v>29.92590286306125</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>38.55447488741782</v>
+        <v>35.46564937994987</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>41.43163059609886</v>
+        <v>36.17485052252002</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>41.06089258268983</v>
+        <v>36.05772078618639</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>24.81164040632268</v>
+        <v>29.5981330010171</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.64465421914369</v>
+        <v>34.38722149170987</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.10611095800389</v>
+        <v>29.33645449969008</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>36.70002711677968</v>
+        <v>34.46381044934977</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>41.2924840347362</v>
+        <v>36.20661305053332</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>41.11127689033602</v>
+        <v>36.17201605100691</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>25.49493626993655</v>
+        <v>29.77926494702296</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>36.46777992765077</v>
+        <v>34.39244532989625</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>20.81860962469174</v>
+        <v>27.28537000896773</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>30.95587072824144</v>
+        <v>31.56183480629591</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>36.07797401636953</v>
+        <v>33.67437939077786</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>37.81250611636922</v>
+        <v>34.38582712692069</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>22.05515734095847</v>
+        <v>27.97905329888493</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.68130803779721</v>
+        <v>31.16588858926552</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.9002324107798</v>
+        <v>28.32736549552081</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.11710216393562</v>
+        <v>28.8359930373354</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>24.20712121740287</v>
+        <v>28.48994114640305</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>27.88430894590005</v>
+        <v>30.06585871045312</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>25.37594069703936</v>
+        <v>28.6307566551254</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>27.07705893604361</v>
+        <v>29.27612245315915</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.65342791299908</v>
+        <v>34.77646853393212</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.53799143268268</v>
+        <v>34.79219046568026</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>28.54543226475071</v>
+        <v>31.75310399768496</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>42.94828164697832</v>
+        <v>37.78971717314031</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>45.55020009640576</v>
+        <v>38.09102764347851</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>45.54837979219097</v>
+        <v>38.08143599148842</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>37.48757414427421</v>
+        <v>34.37478906275898</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>38.58014122483358</v>
+        <v>34.84379135469543</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>28.00659235537148</v>
+        <v>31.88705612272323</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.02388094903814</v>
+        <v>36.77065784958381</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>43.18498293164074</v>
+        <v>37.12402364319433</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>45.10397258330946</v>
+        <v>37.89702900347034</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.34641165806989</v>
+        <v>30.38345873271905</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>32.22164337040965</v>
+        <v>31.49215108445064</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>24.84272813030905</v>
+        <v>30.20783013181421</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.65481294590798</v>
+        <v>33.26219776788168</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>34.07030318232637</v>
+        <v>32.93473533762782</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>39.01634834237501</v>
+        <v>35.01511455403045</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.445</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.332</v>
+        <v>16.803</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.265</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.841</v>
+        <v>16.663</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2.024</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.86616895465413</v>
+        <v>15.54257597697324</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.74146630431139</v>
+        <v>18.12893916647922</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.28273583845607</v>
+        <v>15.76879856123058</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.30828185385626</v>
+        <v>15.95106160832617</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.16981454766015</v>
+        <v>23.90660013197673</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.79289778602423</v>
+        <v>29.37569167417143</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.75874829667973</v>
+        <v>14.60697207192505</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.71847902500102</v>
+        <v>21.31082799618325</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.94942218608193</v>
+        <v>25.92508346469515</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.89799924458149</v>
+        <v>25.83053364637768</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.70507142915272</v>
+        <v>23.93831055861071</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.98997575768774</v>
+        <v>40.07325434986545</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.71188888886302</v>
+        <v>10.01970799404739</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.37726360347528</v>
+        <v>15.81885938894015</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.59288941880131</v>
+        <v>21.98992789990963</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.67881131698767</v>
+        <v>22.52843605751064</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.45522816292631</v>
+        <v>20.42286254136117</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.16528174560577</v>
+        <v>31.69391122186538</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.57005201583898</v>
+        <v>8.916502982501139</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.32576672195374</v>
+        <v>14.62086948487474</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.66880316701494</v>
+        <v>19.48812816158864</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.85480419115289</v>
+        <v>20.3829986336612</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.46727813826601</v>
+        <v>18.89313772509661</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.12565138116221</v>
+        <v>28.60223333511013</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.96580834465843</v>
+        <v>25.25773667363966</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.44849345452486</v>
+        <v>27.32727772440914</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.56500957139153</v>
+        <v>24.66293645664213</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.83762008008625</v>
+        <v>29.10459147522288</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.66596169945181</v>
+        <v>24.45293722563902</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.17461238137692</v>
+        <v>26.90414266772848</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>37.5336499869031</v>
+        <v>46.05807567493861</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.97206867472693</v>
+        <v>48.90294701316549</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.61811772188588</v>
+        <v>30.93653250675316</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.12104066807045</v>
+        <v>49.42376453203595</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.57010008732954</v>
+        <v>58.93709023632702</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.94272497604116</v>
+        <v>60.50176428547143</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.96258759469759</v>
+        <v>33.35028417039449</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.32890366603167</v>
+        <v>40.93344302660916</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32.51692563691178</v>
+        <v>24.53764611138219</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.52259389508606</v>
+        <v>42.39377289639368</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.44015465342094</v>
+        <v>50.55013156692574</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>39.63650608201095</v>
+        <v>54.7098788942633</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.44471428559402</v>
+        <v>28.74558214116938</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.68600671716229</v>
+        <v>36.76844403403922</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.58608213369504</v>
+        <v>27.26109483724337</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>38.51996314971065</v>
+        <v>45.03302526948497</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>38.06924058692793</v>
+        <v>49.80433475288588</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.39170859913852</v>
+        <v>54.50116649465811</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.51666750856364</v>
+        <v>22.27709162996869</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.38825014034521</v>
+        <v>39.80591738318975</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.82452907979431</v>
+        <v>32.92568757293048</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.59175953047343</v>
+        <v>35.43788959685392</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.05804643316657</v>
+        <v>23.51357319605433</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.94241038491096</v>
+        <v>33.86608578761037</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.56416892460538</v>
+        <v>23.09613122002045</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.55732139058154</v>
+        <v>44.54067039847353</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.99480130849907</v>
+        <v>44.63696658969609</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.06156834359817</v>
+        <v>44.74548074275986</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.86547216352973</v>
+        <v>23.64011756042652</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.80067205454058</v>
+        <v>44.69119289439256</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30.67756489670478</v>
+        <v>21.4996147289658</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.23750105833095</v>
+        <v>41.52223585195601</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.97382111980644</v>
+        <v>45.32537654807888</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.79008578750639</v>
+        <v>45.32540083992531</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.37911807920391</v>
+        <v>21.35819670034052</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.80718866640091</v>
+        <v>37.81400585822605</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.29948930355745</v>
+        <v>21.26057056862451</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.06204802846526</v>
+        <v>42.28983262417756</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.44804531231877</v>
+        <v>42.8488613490204</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.8761239918627</v>
+        <v>44.5054393577741</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.57128353840288</v>
+        <v>21.29641121703731</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.17863993775467</v>
+        <v>34.14446724567372</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.54678770693289</v>
+        <v>29.50690404079856</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.80416383237734</v>
+        <v>31.18228707440597</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.2105477912502</v>
+        <v>23.00701406191002</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.32126620846707</v>
+        <v>34.21194014549564</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.05482035105727</v>
+        <v>33.34836626183801</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.54263256697334</v>
+        <v>38.73141711475995</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.38658541488029</v>
+        <v>47.66450947832596</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.95172858958562</v>
+        <v>49.54660573352056</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.6702782730889</v>
+        <v>25.93382754688599</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>41.02257909548602</v>
+        <v>52.22449496554515</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>40.69368703684555</v>
+        <v>58.30620004442119</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.87233700585941</v>
+        <v>58.48666198848921</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>35.06504425050116</v>
+        <v>41.04566138803958</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.32791230774703</v>
+        <v>45.64922942914719</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.63043885258458</v>
+        <v>23.10571086273778</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.12437663651242</v>
+        <v>46.81387431212194</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.31991207720119</v>
+        <v>53.16534057715462</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>39.70331387058764</v>
+        <v>54.41077321251848</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.24042209916621</v>
+        <v>33.7379262579594</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.17593484404922</v>
+        <v>40.52827199534289</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.34264964245767</v>
+        <v>24.03826856067896</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.52343795072726</v>
+        <v>43.2870455041153</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>38.08312713391927</v>
+        <v>49.02411760904664</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.55459247987054</v>
+        <v>54.41583363131602</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.95552681597918</v>
+        <v>20.67716545606362</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.79106328844075</v>
+        <v>34.32295848749285</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.23809619548637</v>
+        <v>29.33032569992593</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.40434732652032</v>
+        <v>29.96096432734335</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.49904680690866</v>
+        <v>25.07171399551768</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.61649581095138</v>
+        <v>35.98699169310187</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.05569761442836</v>
+        <v>24.88493402621028</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.86704646543245</v>
+        <v>45.55428403365666</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.23231480034885</v>
+        <v>50.62947067593015</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.99061899502598</v>
+        <v>49.91165773070112</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.59759925293881</v>
+        <v>25.83353665456145</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.39989104305051</v>
+        <v>46.48872966183142</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>30.39770564732486</v>
+        <v>21.60017205246425</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.30189406026733</v>
+        <v>43.26959442327831</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.42352723403394</v>
+        <v>45.87181539828727</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.33247554287775</v>
+        <v>45.42270945542735</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>32.48869347246676</v>
+        <v>24.62908402310749</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.1067166459825</v>
+        <v>44.82092904922115</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.3538129592598</v>
+        <v>20.65559465003466</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.72806553591865</v>
+        <v>43.39653265484996</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.02267405246043</v>
+        <v>47.01391851943792</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>37.14677796712112</v>
+        <v>47.46502111801919</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.99700658711715</v>
+        <v>22.26249928472199</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.48770934588185</v>
+        <v>41.7030648749618</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.76199717587939</v>
+        <v>32.9301077786094</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.95742270822945</v>
+        <v>33.80853733129324</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.98254567168067</v>
+        <v>24.62087366575614</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.00608428688646</v>
+        <v>35.20627474062559</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.81113997703977</v>
+        <v>35.28725243840258</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.06513890133709</v>
+        <v>39.83611237518117</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.85965002723756</v>
+        <v>54.92058258777903</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.24476479208909</v>
+        <v>55.95649828050702</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>33.69588535467143</v>
+        <v>26.91840734654931</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>39.93603530353303</v>
+        <v>50.13885893071149</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>41.93613323117674</v>
+        <v>61.62243126587259</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>42.08410098722671</v>
+        <v>61.86601942219409</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.39827371357958</v>
+        <v>50.72863008726148</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.87315902932005</v>
+        <v>52.20855935496212</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>32.80383988543196</v>
+        <v>24.38816051327901</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>39.49250681785657</v>
+        <v>48.61756798307464</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.80798009706105</v>
+        <v>57.50643589925046</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.04344616244187</v>
+        <v>57.67752850645127</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>34.96166492711495</v>
+        <v>41.97515392135893</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>35.73513595525892</v>
+        <v>44.44347526572355</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>33.00370985335631</v>
+        <v>25.32069140890683</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.94000754713863</v>
+        <v>50.33844348774559</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>40.22388088200449</v>
+        <v>56.12453523378916</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.47061601531286</v>
+        <v>56.80380944171856</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.76484473766332</v>
+        <v>17.63473833988873</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.04104035803439</v>
+        <v>17.43339001754117</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.58541810930282</v>
+        <v>26.41298480065028</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.62293456193608</v>
+        <v>26.68563352384393</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.96082716662394</v>
+        <v>24.42759663984695</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.87598540356004</v>
+        <v>27.66284927588844</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.79191653554914</v>
+        <v>17.57841332918021</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.3358645709261</v>
+        <v>22.91176486174587</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.54859464841594</v>
+        <v>37.37991163089448</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.52022954481851</v>
+        <v>37.24811152132312</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.47795168004791</v>
+        <v>27.5970786811537</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.99835744011157</v>
+        <v>43.93390995479976</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.26348737656718</v>
+        <v>14.31460625644688</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.85605409726569</v>
+        <v>18.93833657079024</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.47996521705327</v>
+        <v>33.69192812707709</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.49001981817081</v>
+        <v>34.06496121725847</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>30.50701908390862</v>
+        <v>20.35560015697182</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>33.69998929100046</v>
+        <v>31.59520119718984</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.51106306565668</v>
+        <v>13.78274744201152</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.84470317792288</v>
+        <v>17.99343118145618</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.84187285709909</v>
+        <v>32.04712050950339</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.00314883787645</v>
+        <v>32.71005400143724</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.56933904603575</v>
+        <v>17.04397841490518</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.99076512416766</v>
+        <v>25.64637098834478</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.87368095337349</v>
+        <v>19.95522315924513</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.17428021313729</v>
+        <v>21.84844366367503</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.76243505024339</v>
+        <v>18.47014505192373</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.95027293322429</v>
+        <v>22.72163456648207</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.0775501368621</v>
+        <v>20.12468407629459</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.51776466586523</v>
+        <v>22.01890484679906</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.63712073666117</v>
+        <v>48.24493948191655</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>39.04623999947982</v>
+        <v>51.48458972325469</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>35.43468215172548</v>
+        <v>32.08769636480696</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>40.85050289087589</v>
+        <v>50.91341766948328</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.26638630799152</v>
+        <v>59.95641087500285</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.67575782993993</v>
+        <v>61.72712553440611</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.50345044332204</v>
+        <v>33.87435200086934</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>34.68213476290141</v>
+        <v>41.63631419877095</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.32000485259372</v>
+        <v>28.89215493271617</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>38.13620856381227</v>
+        <v>42.50182872480269</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.29783715044218</v>
+        <v>47.93564288786764</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>39.06436993228075</v>
+        <v>53.95234550510265</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.53359859037489</v>
+        <v>23.81805466334696</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>30.94299813189367</v>
+        <v>32.26459248437725</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.71465498426355</v>
+        <v>25.89397113345984</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.2561913529437</v>
+        <v>39.08240864052654</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.52038179217673</v>
+        <v>42.97299735242741</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.1755305536827</v>
+        <v>48.83772542112951</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.79947327539995</v>
+        <v>14.68354849469194</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.31748460011823</v>
+        <v>26.64026513044832</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.10613465676247</v>
+        <v>24.48518477704147</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.1004775318114</v>
+        <v>24.48376516802128</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.52452261638647</v>
+        <v>22.81564866607428</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.44170612326226</v>
+        <v>33.48815348404391</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.04593059089314</v>
+        <v>23.84672109792404</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.76782076918479</v>
+        <v>46.68757219364052</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.76809098529244</v>
+        <v>49.23625908167404</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.52049377458917</v>
+        <v>48.72342256767815</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.12796794950081</v>
+        <v>27.71850226278026</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>39.88773238212535</v>
+        <v>49.0795557310725</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>30.06629406847466</v>
+        <v>18.75825092834075</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>35.834887336668</v>
+        <v>40.08957345888371</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.10521596612575</v>
+        <v>49.50814738675188</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.40493910747623</v>
+        <v>50.33900137939526</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.82063414437651</v>
+        <v>25.42808007173231</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.62759470966968</v>
+        <v>45.93953826259877</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.14030010399505</v>
+        <v>23.10775030021225</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>38.94219126022696</v>
+        <v>47.4664943909919</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>39.28231654020226</v>
+        <v>52.72397435315362</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.39473385029676</v>
+        <v>52.58685637054634</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.67769740028854</v>
+        <v>24.97056414284285</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.61808505469515</v>
+        <v>45.94065333677162</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.37969938672916</v>
+        <v>35.2180421292879</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>32.55426384178131</v>
+        <v>36.02958651939892</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.09312434669891</v>
+        <v>24.95623278386041</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.58422454443198</v>
+        <v>33.90188610997163</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.12211459955169</v>
+        <v>33.76728840491486</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.18837258828808</v>
+        <v>37.29303238063774</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.68295862167621</v>
+        <v>60.30739724886554</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>42.05148297401665</v>
+        <v>61.08934144283769</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>34.3720297150677</v>
+        <v>29.86242136248306</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.59587875856261</v>
+        <v>52.10003532829818</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.40718426872176</v>
+        <v>64.78795892377356</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>43.47064536130176</v>
+        <v>64.7809906483571</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>40.4109096403067</v>
+        <v>56.70676712933571</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.52010386064613</v>
+        <v>27.21129687699051</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.94815641174352</v>
+        <v>46.90846436909419</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>41.11015122539323</v>
+        <v>58.968737882483</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>41.59995133779909</v>
+        <v>60.25084853185377</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.07473147551178</v>
+        <v>50.52479838256642</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.46455055024904</v>
+        <v>51.90865542177455</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>35.03315675960324</v>
+        <v>30.26191065480748</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.55596120253684</v>
+        <v>53.57183272515618</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.2717796621233</v>
+        <v>61.84864121816295</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42.42149472692964</v>
+        <v>62.35187680851944</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.76206578871796</v>
+        <v>17.46053456535023</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.68630309337251</v>
+        <v>35.07472486320911</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.58160542401774</v>
+        <v>27.10986779733108</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.74360051744642</v>
+        <v>27.57423135343089</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.9336478147726</v>
+        <v>23.76414139699227</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>35.08723466515193</v>
+        <v>38.60622240684995</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.33904812742806</v>
+        <v>22.89466784794701</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37.43627119807624</v>
+        <v>44.52954453670395</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.52450683395753</v>
+        <v>46.15373336053258</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.43838140075911</v>
+        <v>45.71021769125637</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.05787393591947</v>
+        <v>27.37105560309785</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>40.51390125917327</v>
+        <v>50.29075903898116</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.73345503377546</v>
+        <v>16.57287499326867</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.36869859245477</v>
+        <v>37.60348965288233</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>37.90306931010286</v>
+        <v>49.10527976796555</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.84400038548952</v>
+        <v>48.41709153820486</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.0886436273777</v>
+        <v>24.61645077307971</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.72807993715033</v>
+        <v>48.26331548373251</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.85750836294759</v>
+        <v>18.35704495826982</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>37.00189885599447</v>
+        <v>43.96651124600923</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.5056254131826</v>
+        <v>53.29520860569135</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>39.6640958499921</v>
+        <v>53.4724847831458</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.07586935983452</v>
+        <v>24.64419336481433</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>39.17343010677052</v>
+        <v>46.30314647391501</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.48781834530376</v>
+        <v>37.71477397009262</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.88617301656954</v>
+        <v>39.23937674495855</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.77893406471404</v>
+        <v>24.8181774793055</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.22729668893586</v>
+        <v>37.15166772566819</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>33.32874465230748</v>
+        <v>36.51648122895771</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.44232805702302</v>
+        <v>40.38110813190416</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>40.46074666022485</v>
+        <v>56.45855831690934</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>40.78264866078997</v>
+        <v>57.50366341371516</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.15066821673685</v>
+        <v>28.15209242646513</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>40.897735992093</v>
+        <v>57.94536243805056</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>41.07960817587271</v>
+        <v>58.37449081141948</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.45479869182088</v>
+        <v>51.32618136245229</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.03522868896579</v>
+        <v>53.0330479817111</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>33.02178679447478</v>
+        <v>26.30561251326132</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.48332742417638</v>
+        <v>49.49557239378085</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.49865873540622</v>
+        <v>56.30620238847782</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.58726473774947</v>
+        <v>56.39569942678308</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.79258657574065</v>
+        <v>43.90040413436609</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.78511600153996</v>
+        <v>47.00770150280987</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.52373542213072</v>
+        <v>27.47933882559519</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>41.38391065060603</v>
+        <v>52.07227925377342</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>39.91120272459843</v>
+        <v>55.05805766020392</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>40.28850920817889</v>
+        <v>56.21053758877675</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.20498999545951</v>
+        <v>15.01062914675026</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.88261089921654</v>
+        <v>16.97849424806533</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.00285026581977</v>
+        <v>17.241562002971</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.02860260496422</v>
+        <v>17.35056116421834</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.44836255873032</v>
+        <v>22.1821050884423</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.50759985605428</v>
+        <v>28.97526403363586</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.13107045571631</v>
+        <v>11.36548407581148</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.67007865197814</v>
+        <v>17.06197221715544</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.79839380777069</v>
+        <v>25.64058869356597</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.75104550143764</v>
+        <v>25.40259632325439</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.52196913250417</v>
+        <v>20.83455548696958</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.93340107213334</v>
+        <v>36.57266688763664</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.935921918114</v>
+        <v>6.30842464450966</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.19691695152912</v>
+        <v>11.49738796531686</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.44182064056773</v>
+        <v>21.39695339794099</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.41987843693752</v>
+        <v>21.33680157175332</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.47605518596214</v>
+        <v>19.40722897368329</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.5564242672446</v>
+        <v>30.99833378987971</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.87992175025057</v>
+        <v>6.084353246600426</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.08359000996234</v>
+        <v>10.93267508297037</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.98071114083193</v>
+        <v>17.55388599021013</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.11670278672261</v>
+        <v>18.07109965118416</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.7006362887592</v>
+        <v>18.47994235181271</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.75483082361056</v>
+        <v>29.39478661018936</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.95159178157743</v>
+        <v>25.44618392199539</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.18916419517456</v>
+        <v>26.54715050938356</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.64794609616736</v>
+        <v>21.64656969240064</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.16420725031773</v>
+        <v>27.09286684728325</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.34998180171292</v>
+        <v>26.52902609030102</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.9379327099094</v>
+        <v>28.8621696710951</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.35326346067746</v>
+        <v>40.47516957519235</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.69711229124562</v>
+        <v>41.67371015384246</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.77574551583032</v>
+        <v>26.40791210680708</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.05832212236884</v>
+        <v>45.33734383963719</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>39.41539808412701</v>
+        <v>54.15690709521508</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.6293504877121</v>
+        <v>54.88208970119318</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.50506137084443</v>
+        <v>34.28749908188953</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.77135600419609</v>
+        <v>38.84710477024711</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.20603590144975</v>
+        <v>23.6133126625869</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>37.33880947420117</v>
+        <v>42.54214657106264</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>38.10594634003153</v>
+        <v>49.92290088484832</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.71529071853153</v>
+        <v>52.21406247581446</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>30.01750544205164</v>
+        <v>28.04708826849181</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.24472101104528</v>
+        <v>32.54134518467382</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.26760301325831</v>
+        <v>24.78164395334809</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.92663424859235</v>
+        <v>45.12164240547769</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>38.0778572159181</v>
+        <v>49.42442374803817</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.73033337002398</v>
+        <v>51.52133799015749</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.10692432759611</v>
+        <v>10.63600184070764</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.93051474790296</v>
+        <v>13.10002202573111</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.00245161760788</v>
+        <v>12.4602510568828</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>23.93876416185548</v>
+        <v>12.36230306379398</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.21990424942639</v>
+        <v>17.82333340686779</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.58034018304308</v>
+        <v>18.45184748999868</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.92301786652155</v>
+        <v>11.77194095006587</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.17476436198855</v>
+        <v>16.17975325147409</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.60088606008421</v>
+        <v>19.91481832059024</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.46121635546484</v>
+        <v>19.61313811736171</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.24075329261139</v>
+        <v>7.535643266985204</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.6146780740882</v>
+        <v>12.90911758191592</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.62082095809326</v>
+        <v>11.04273761832611</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.06455230357587</v>
+        <v>15.39648495179101</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.38890694226995</v>
+        <v>16.15537249296194</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.2391226962537</v>
+        <v>16.09059597044716</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.74485927251362</v>
+        <v>8.274878908531271</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.47547552633077</v>
+        <v>10.70822945172292</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>20.37941431482354</v>
+        <v>6.542000185671913</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.26876782208931</v>
+        <v>9.450070098364954</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.35740068357251</v>
+        <v>10.75893196975836</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.40805569840547</v>
+        <v>11.23749912838439</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>21.44405829485801</v>
+        <v>7.684549646723113</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.18302934411251</v>
+        <v>9.517020076275102</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.50901920750876</v>
+        <v>16.17015771429156</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.75940141882305</v>
+        <v>17.32085297937989</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.30027867732</v>
+        <v>11.20173790929672</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>23.64687156317787</v>
+        <v>12.02111217889734</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.03726892698885</v>
+        <v>18.50572689947849</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.16450099916237</v>
+        <v>21.76413916339979</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.31583265501776</v>
+        <v>21.48785760824102</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.17822460678564</v>
+        <v>24.39572747495497</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.82869747291619</v>
+        <v>15.68728080741949</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.2603283267239</v>
+        <v>24.64253040452047</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.12123410907987</v>
+        <v>31.94870627930436</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.07390637655685</v>
+        <v>38.88658566171722</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.8552274044763</v>
+        <v>16.05648530451599</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.42314339504377</v>
+        <v>21.52039778455237</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.87527694122601</v>
+        <v>15.10342333333226</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.39710996828895</v>
+        <v>20.89835472566295</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.22382424737895</v>
+        <v>27.57803868602495</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.93471475325506</v>
+        <v>37.35933576867373</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.62899557511307</v>
+        <v>10.50342504120503</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.07755736543604</v>
+        <v>13.06446350753352</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.90051233414822</v>
+        <v>16.94551166946783</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.04933010427177</v>
+        <v>21.81805141600716</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.0960210763854</v>
+        <v>24.40733537938461</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.28162530157115</v>
+        <v>35.73107243675665</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.15491564833759</v>
+        <v>22.31987882384006</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>34.38044783192736</v>
+        <v>37.51458501675023</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>32.64755711725471</v>
+        <v>35.64699477950572</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.71097889260124</v>
+        <v>35.99008000374456</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.45032835016362</v>
+        <v>21.35845194252485</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.09626987105731</v>
+        <v>30.7358031884225</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.03542110614478</v>
+        <v>25.63577894628943</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>37.06101918852739</v>
+        <v>43.81084685082568</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.00156213882592</v>
+        <v>54.38647302471332</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.87659048473347</v>
+        <v>54.05703980467806</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.31210129768313</v>
+        <v>22.59314821820469</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.03210674289958</v>
+        <v>39.56936503612337</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.32066261069028</v>
+        <v>19.65098242869654</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.13243457038143</v>
+        <v>40.7746788868881</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.80636610159797</v>
+        <v>49.30898059121087</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.12297268513461</v>
+        <v>49.97281059121394</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>30.20429165335199</v>
+        <v>21.40578958711695</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.83903048558329</v>
+        <v>38.11015232333648</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.80773259756059</v>
+        <v>16.16815995250359</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.28854179436945</v>
+        <v>37.25243465469065</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.57193377232279</v>
+        <v>46.09721852791493</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.80477520433775</v>
+        <v>46.56102218475259</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.95683650244769</v>
+        <v>18.18493681885369</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>33.12887172446469</v>
+        <v>33.4878731297141</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.19539968505729</v>
+        <v>29.29234342781719</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.40384386777566</v>
+        <v>29.89197081058563</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.4956624388863</v>
+        <v>22.55721820342968</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>33.38318075688745</v>
+        <v>32.83433078055251</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.9009049884797</v>
+        <v>33.18383082282755</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>33.10290614990656</v>
+        <v>37.54540209862014</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.71377877906886</v>
+        <v>47.72304916891427</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.7174897512249</v>
+        <v>47.53258253344845</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.78822224892529</v>
+        <v>26.73043339457432</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.47572989024634</v>
+        <v>47.50931206588695</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.43904767831763</v>
+        <v>57.55729458252183</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.67264032203958</v>
+        <v>57.98635034998284</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.64691204651812</v>
+        <v>43.8674068359847</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>35.9418631684993</v>
+        <v>44.80473709273371</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.63456167533275</v>
+        <v>25.06467313953614</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>38.59244105963166</v>
+        <v>47.18901028570217</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.91784596923914</v>
+        <v>55.05911690147346</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>40.10596937565605</v>
+        <v>55.35597351917503</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.93714971350832</v>
+        <v>33.40764493158522</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.348324383131</v>
+        <v>35.04031573347292</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.42423461752357</v>
+        <v>24.51990573995934</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.73951992513484</v>
+        <v>47.16179563226886</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.94013036145855</v>
+        <v>52.34742292323533</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>39.12093831483551</v>
+        <v>53.2163028473291</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.39611667997769</v>
+        <v>11.80099568651783</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.82122322656016</v>
+        <v>12.95709347749174</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.07724824177104</v>
+        <v>11.94660875554368</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.04036154713686</v>
+        <v>11.87174578478704</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.84698963297709</v>
+        <v>18.02312515686125</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.45838754795876</v>
+        <v>20.61683579617257</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.37048044594412</v>
+        <v>11.44468888402422</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.55395812412539</v>
+        <v>16.16526035823294</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.68180349686605</v>
+        <v>20.01034289239885</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.74847196189731</v>
+        <v>20.11726802067977</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.82886940649324</v>
+        <v>17.26777571897216</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.87278399299158</v>
+        <v>29.72233147338567</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.95168434443453</v>
+        <v>10.40580548856514</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.19604721906325</v>
+        <v>14.11413323601446</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.3141251370005</v>
+        <v>18.06905720876492</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.37322840819234</v>
+        <v>18.6136719451515</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.76330545632113</v>
+        <v>14.62590265346631</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.70092540841289</v>
+        <v>18.49821434498465</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.178717092741</v>
+        <v>6.969923820733516</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.12098123685801</v>
+        <v>10.51305534589574</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.45686192844707</v>
+        <v>13.3371861577838</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.58485706594909</v>
+        <v>14.17675285701353</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.0106721942558</v>
+        <v>10.27936596827622</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.67358574067287</v>
+        <v>12.88019895011586</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.29989265180478</v>
+        <v>15.62123136754037</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.49643164489073</v>
+        <v>16.64238559459463</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.78251133472524</v>
+        <v>15.80673985324061</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.76473099673533</v>
+        <v>18.76138635028217</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.70572313023009</v>
+        <v>16.48042243847543</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.73598534537778</v>
+        <v>17.10758648868104</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.99213509229594</v>
+        <v>32.70934885488956</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>32.3464335504306</v>
+        <v>34.96344944867101</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.90665744903702</v>
+        <v>28.42734468567378</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.49458271416577</v>
+        <v>41.54559220117996</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>37.83701242162951</v>
+        <v>47.49516536056331</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.36397559354928</v>
+        <v>49.80312238332338</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.21600910744535</v>
+        <v>19.77765025403478</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.54721431155513</v>
+        <v>28.09613632232964</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.50219244091145</v>
+        <v>25.76316867051944</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.36705258539197</v>
+        <v>33.03451908450636</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.66836045580711</v>
+        <v>37.36405518265056</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.11690898053941</v>
+        <v>45.83256236692333</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.2034277579031</v>
+        <v>11.83243777814511</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.69262918236916</v>
+        <v>17.76694512075116</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.63053944698765</v>
+        <v>21.78669655097577</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>33.12730630048955</v>
+        <v>30.70454049980522</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.2680489490224</v>
+        <v>31.02905066651258</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>33.53628264309815</v>
+        <v>39.0256408247831</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.59612581077146</v>
+        <v>6.459524966875787</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>19.74417095448082</v>
+        <v>6.034567043237992</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.90345542857821</v>
+        <v>6.620395849469681</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.75444924786603</v>
+        <v>6.475379559073385</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.62684184628666</v>
+        <v>21.06145434658808</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.29649420572629</v>
+        <v>29.95589982218306</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.69419842097263</v>
+        <v>5.572717151131197</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>20.03534948492118</v>
+        <v>7.097647499974393</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>23.05784453887093</v>
+        <v>10.00797517336182</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.96409952371017</v>
+        <v>9.964137298110419</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.84283548434632</v>
+        <v>19.75836929887851</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.57267580236019</v>
+        <v>36.79609783461897</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>22.36938770590545</v>
+        <v>11.49858023032621</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.62351273767592</v>
+        <v>12.23984583355154</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.58564150086627</v>
+        <v>11.5659740259043</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.95819757450662</v>
+        <v>12.82011915902607</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.18983923497887</v>
+        <v>21.35336209889756</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.83256580586801</v>
+        <v>38.10857878314837</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.43256298367506</v>
+        <v>9.340639680156777</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.77587623841264</v>
+        <v>10.66400456544681</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.9944381518401</v>
+        <v>9.511938803017475</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.75024641921374</v>
+        <v>12.09569775674837</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.15916703530144</v>
+        <v>19.63291850080406</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>33.33504678466213</v>
+        <v>34.90002663714257</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.24688002152946</v>
+        <v>28.90702074505684</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.6122085660468</v>
+        <v>30.55420770738827</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.00075688252018</v>
+        <v>24.86145497603153</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.99285036639006</v>
+        <v>32.03957146814258</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>30.4707052345645</v>
+        <v>28.93640880896798</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.67386344794848</v>
+        <v>33.48181928745615</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.64143683481194</v>
+        <v>43.71482431859472</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.83582315289739</v>
+        <v>44.19334056926633</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>33.52192021065425</v>
+        <v>27.06568655386629</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.56761267464903</v>
+        <v>48.921312352966</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>40.31620387651486</v>
+        <v>56.6872082139167</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>40.61554164383739</v>
+        <v>57.38480808748933</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.25626207626119</v>
+        <v>42.51176755423875</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.48939308088097</v>
+        <v>43.22430418056042</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.00536698664813</v>
+        <v>27.26409876473329</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.26449914889832</v>
+        <v>50.04250364828255</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.91774043696331</v>
+        <v>54.69227789415122</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>40.08253419542117</v>
+        <v>55.01500469107515</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.71278565703579</v>
+        <v>36.19030099547086</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.14536017259357</v>
+        <v>37.50538282087419</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.8299805457836</v>
+        <v>27.80197601534241</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.21563672247282</v>
+        <v>50.71822721338886</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.90983127406015</v>
+        <v>54.60035241442789</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.25289305852525</v>
+        <v>55.56096209464137</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.67020682411807</v>
+        <v>16.14019757456385</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.26841035610987</v>
+        <v>17.78497467953666</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.37057764437662</v>
+        <v>18.53653914753895</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.05855346562757</v>
+        <v>17.67827419296866</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.39175474543084</v>
+        <v>15.46259187022407</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.85123529066251</v>
+        <v>16.26353576235434</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.46407980768892</v>
+        <v>13.13405850274925</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.15726982153174</v>
+        <v>19.00366236143723</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.2620325592074</v>
+        <v>23.74627499403312</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.19932778096353</v>
+        <v>23.76927316170671</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.50641660271023</v>
+        <v>13.84135018215201</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.95227587886458</v>
+        <v>19.31528167170039</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.82034431819908</v>
+        <v>12.62507887418031</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.44255251955759</v>
+        <v>18.05485255687958</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.47639033030542</v>
+        <v>24.44333720912105</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.65933644919856</v>
+        <v>25.07859245372899</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.89813648538845</v>
+        <v>11.96255910210693</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.72272640826819</v>
+        <v>15.31483407130993</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.73454581809215</v>
+        <v>9.032684619037386</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.97728087715121</v>
+        <v>13.64457071767051</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.13692135605599</v>
+        <v>17.88263442678554</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.47664841330914</v>
+        <v>19.01438909996542</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.91675086834177</v>
+        <v>9.502765258301512</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.43628285913688</v>
+        <v>11.70669944017268</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.45895577080381</v>
+        <v>12.9658006669232</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.50682399790276</v>
+        <v>13.89656708438063</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.8254757567864</v>
+        <v>16.28661980410207</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.41673685420285</v>
+        <v>21.03830293659489</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.03678230153246</v>
+        <v>19.61327440276479</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.45350405887324</v>
+        <v>21.63942708081417</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.275303193996</v>
+        <v>20.77308148827177</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.55900208908725</v>
+        <v>25.56101852290777</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.63948083162387</v>
+        <v>25.8147872141201</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>34.39029832276248</v>
+        <v>35.83397280471674</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.47231036951281</v>
+        <v>42.52845980130974</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.40693706534218</v>
+        <v>45.86155688225112</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.69908062732527</v>
+        <v>15.79055767556242</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.31991257807655</v>
+        <v>21.70823613113965</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>30.4978896969641</v>
+        <v>22.72242841153164</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.72464874682831</v>
+        <v>34.34367286674093</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.86219077200348</v>
+        <v>38.43426768211636</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.85080920650352</v>
+        <v>41.79948598062563</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.75740440578226</v>
+        <v>11.1449697933176</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.83816907454647</v>
+        <v>15.16880131329411</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.84940231872077</v>
+        <v>18.92905277659381</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.49404028141872</v>
+        <v>32.00708742957053</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.06044784191554</v>
+        <v>33.6778295071484</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.57247692838516</v>
+        <v>35.57519455376646</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>19.61913309049751</v>
+        <v>6.413652566130136</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.78853000269353</v>
+        <v>6.54416299698056</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.04763617555354</v>
+        <v>6.940779065115994</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.86050236677801</v>
+        <v>6.610433458407044</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.82111974876288</v>
+        <v>6.871681053927034</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.08255223174493</v>
+        <v>6.8702182458021</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>20.93425794903739</v>
+        <v>7.217755774380841</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.55983271022422</v>
+        <v>9.178086354071809</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.38978252590735</v>
+        <v>10.93363812719479</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.35777617275589</v>
+        <v>11.0102297431683</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.31005057091742</v>
+        <v>5.719144469096367</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.79794734387954</v>
+        <v>7.369215414536889</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.35340684976222</v>
+        <v>9.072444676538893</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.88625710627429</v>
+        <v>10.71516630341317</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.63173286608842</v>
+        <v>11.52768101112937</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.64467920384773</v>
+        <v>11.47554127881998</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.47245588155545</v>
+        <v>5.985241890606932</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.84181170288729</v>
+        <v>6.756699227870676</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.35577853770066</v>
+        <v>5.425036961540744</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.63287954124843</v>
+        <v>6.798519181704791</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.47828492862457</v>
+        <v>8.378769603121484</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.68012474298747</v>
+        <v>9.182601040908768</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.02351465944702</v>
+        <v>5.288425326699954</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.30180711076771</v>
+        <v>5.968850459338018</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.23022701021205</v>
+        <v>7.264528241263452</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.01174745302722</v>
+        <v>7.043724522361256</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.78622934845891</v>
+        <v>14.58788815482056</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.93563891529244</v>
+        <v>18.15112023817169</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.95083462496897</v>
+        <v>14.85563915182292</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.19189294809205</v>
+        <v>15.69118924786486</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.9618166995533</v>
+        <v>9.660045156607442</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.98785978516632</v>
+        <v>9.928998309386191</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.39950961857443</v>
+        <v>20.34933263374894</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.8374285484864</v>
+        <v>25.57215288928697</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.71878276226559</v>
+        <v>33.62186772273331</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.92185963675327</v>
+        <v>34.35447398005691</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.45050715565613</v>
+        <v>7.424186764993465</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.44469199734869</v>
+        <v>8.022660829871182</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.10585829635468</v>
+        <v>19.57189405975267</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.72296377856718</v>
+        <v>24.96835882574822</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.29428132437069</v>
+        <v>31.80700813192286</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.43702342978385</v>
+        <v>32.54033717827466</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.12979427250248</v>
+        <v>6.934090598094617</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.02714191048964</v>
+        <v>7.026717558863567</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.00727885471122</v>
+        <v>17.78374642961142</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.15677316622523</v>
+        <v>25.77877899378839</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.95977458100804</v>
+        <v>28.37605033708335</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.02901617806359</v>
+        <v>28.84429964514828</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.95212581908723</v>
+        <v>23.29218713956172</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>30.61856519229762</v>
+        <v>28.71862207664742</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.7409813418207</v>
+        <v>22.00759447405371</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.10232186730395</v>
+        <v>23.57462729261551</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.42614537437521</v>
+        <v>20.52617733519206</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.14096881239254</v>
+        <v>21.88321804657672</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.98309534574827</v>
+        <v>26.50759169184028</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.68640102159558</v>
+        <v>39.498969122198</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.7673026738027</v>
+        <v>44.59978993087787</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.81776894852116</v>
+        <v>44.8099471603708</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.55762179606993</v>
+        <v>21.00798414952439</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.99209840050608</v>
+        <v>29.95731892139533</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.77059326754251</v>
+        <v>26.51550635111092</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.41649635529947</v>
+        <v>39.32474283641211</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.84554239728989</v>
+        <v>44.25829936256481</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.24476537045833</v>
+        <v>45.49571926126714</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.99025222378769</v>
+        <v>22.50722138192628</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.40473340315918</v>
+        <v>30.65183732800165</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.22481169809262</v>
+        <v>16.28732068603226</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.44055714018831</v>
+        <v>24.62954735204313</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.9076650784161</v>
+        <v>25.02489812842147</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.06609491887545</v>
+        <v>29.18152356141414</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.31984235875825</v>
+        <v>17.40540070769266</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.62451910786811</v>
+        <v>25.14188048484855</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.30099327905801</v>
+        <v>13.02981077072639</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.36645528143481</v>
+        <v>13.69053429082229</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.52407266368288</v>
+        <v>24.92452387796459</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.37901325214141</v>
+        <v>27.84711098042852</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.46307191700834</v>
+        <v>18.50067024365524</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.03136538407731</v>
+        <v>20.91402357069833</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.55968563908075</v>
+        <v>33.22243543593773</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.55185139653086</v>
+        <v>33.28285616922037</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.16791738718138</v>
+        <v>31.47230015033915</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.34871743755532</v>
+        <v>47.04055388553255</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.77163786244095</v>
+        <v>55.36829418834134</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.91635765966198</v>
+        <v>55.56177836135686</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.34639548897567</v>
+        <v>32.00542093042097</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.76834359461283</v>
+        <v>33.88090344823937</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.0531890515928</v>
+        <v>31.03502336393387</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.3651343159919</v>
+        <v>46.42871683819567</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.72582508679435</v>
+        <v>54.55172593402119</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.15360865007961</v>
+        <v>56.16671964555556</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.44960718285202</v>
+        <v>20.82407592466576</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.21129852095242</v>
+        <v>23.8475763015056</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>32.16398255047213</v>
+        <v>25.34542040364255</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.69835979073338</v>
+        <v>41.58559487200817</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.35267305423925</v>
+        <v>42.25875807916087</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.28403456845196</v>
+        <v>45.50033766218536</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.40467043946289</v>
+        <v>24.87952805992878</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.69412778258722</v>
+        <v>39.82376810557637</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.23790192070886</v>
+        <v>37.03322989913515</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.56405273179325</v>
+        <v>38.11441580373684</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.72403651288606</v>
+        <v>22.04415694997017</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.28209734388962</v>
+        <v>31.43352109334195</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.37730623439147</v>
+        <v>24.23952203836501</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.8416487447965</v>
+        <v>40.85088070130825</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.32264428870599</v>
+        <v>48.45075763392406</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.53894691380124</v>
+        <v>48.74695869542113</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>30.46368804437764</v>
+        <v>22.1329172157787</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.23597553967342</v>
+        <v>39.56587820051287</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.02654012313013</v>
+        <v>20.58423857233404</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>34.46079047886997</v>
+        <v>36.5722722412543</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.16635759751301</v>
+        <v>44.62363207428497</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.70428630373614</v>
+        <v>46.27854180858425</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.10719272896801</v>
+        <v>20.64493773076266</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.13603054668859</v>
+        <v>35.26854587678785</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.05573081686921</v>
+        <v>20.39123498716638</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.3425223947637</v>
+        <v>39.3920309027662</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.13452423495366</v>
+        <v>47.13062270204222</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.54122317062752</v>
+        <v>48.76470114361317</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.32442492091095</v>
+        <v>19.42455491367443</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>32.6389375089981</v>
+        <v>31.6751844948142</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.49945913368656</v>
+        <v>27.48017368237755</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.52274263426232</v>
+        <v>27.5921072258099</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.89024665280566</v>
+        <v>19.59953407228078</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.84048493599521</v>
+        <v>27.14882784608898</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.93519899845359</v>
+        <v>27.81035638618965</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.35641632273351</v>
+        <v>32.78529708878277</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.68533201331023</v>
+        <v>44.18973185413928</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.74973240368582</v>
+        <v>44.12732155602247</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>31.57292258374803</v>
+        <v>23.57593540575288</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.29539390473721</v>
+        <v>44.11949955977286</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.02540463001253</v>
+        <v>52.98729765116836</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.13187847842929</v>
+        <v>52.9671983708561</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.63600385457754</v>
+        <v>37.51808960699938</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.54147715160548</v>
+        <v>40.79836896587523</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.15286655585951</v>
+        <v>21.13648369293162</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.81659603508793</v>
+        <v>38.53611384554925</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.76125037140811</v>
+        <v>45.72668937572723</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>37.78423513244131</v>
+        <v>49.37499126447304</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.21490591952746</v>
+        <v>28.57212932660452</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.45564725092635</v>
+        <v>32.85036236036679</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.42206322188896</v>
+        <v>21.71470149113971</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>35.81088465608629</v>
+        <v>37.73447630136263</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.48985680228344</v>
+        <v>42.40713744022962</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.99623698245459</v>
+        <v>47.94212039722154</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.59689759714741</v>
+        <v>21.83053303221554</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.12233108086559</v>
+        <v>39.07647203469597</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.37924097863339</v>
+        <v>31.16374196180179</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.61348442006802</v>
+        <v>32.57278668965448</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.09285909890411</v>
+        <v>23.15450087724767</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.13487756063843</v>
+        <v>30.9119527842944</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.86207146075786</v>
+        <v>22.07962419154081</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.69608107486667</v>
+        <v>40.24680259710538</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.47386191250958</v>
+        <v>44.24486255591042</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.47150251811097</v>
+        <v>44.05660000390414</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.38665797694237</v>
+        <v>21.54918843595226</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.8580139019716</v>
+        <v>38.38535228672692</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.43044420706268</v>
+        <v>19.80666554441413</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.60179265454813</v>
+        <v>38.93611148033482</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.14791410616036</v>
+        <v>47.59402965536587</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.40872381657466</v>
+        <v>48.05758867839191</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.93431822460376</v>
+        <v>20.37241922233765</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.64952563495158</v>
+        <v>36.83185214862873</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.26081198506254</v>
+        <v>15.19154970735932</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>33.79697682602187</v>
+        <v>35.84721256140872</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.51893763202141</v>
+        <v>44.40997434666748</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.9427815560131</v>
+        <v>45.36263252694643</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.48251568012854</v>
+        <v>19.33589799687949</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.78005745769764</v>
+        <v>34.52526865681617</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.90769288311557</v>
+        <v>25.68109281637675</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.22016522907534</v>
+        <v>26.80666199691333</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.35641209275166</v>
+        <v>22.68747104353207</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.49590934649753</v>
+        <v>30.34230957376777</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.33778683118163</v>
+        <v>28.92435287415228</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.59253390053242</v>
+        <v>33.15433258084093</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.70964628280543</v>
+        <v>45.64532776144355</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.83349100309255</v>
+        <v>45.76520158819318</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>32.22565513266847</v>
+        <v>24.67603803476205</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.90972012813793</v>
+        <v>45.16806069101968</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.08914958298853</v>
+        <v>55.597732555638</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.12136168978367</v>
+        <v>55.39678127523661</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>34.54144490545911</v>
+        <v>39.99514372202118</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.86609527012141</v>
+        <v>41.39175376457918</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.711222810591</v>
+        <v>22.93820988690849</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.62441653445411</v>
+        <v>44.14889042819173</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.65452216382298</v>
+        <v>52.08685969221283</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>38.95139903163252</v>
+        <v>52.72412947777897</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>31.59412616935526</v>
+        <v>32.37423018738517</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.35354060498331</v>
+        <v>35.33259978852882</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.15693497398352</v>
+        <v>22.8336842833886</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.65388810448029</v>
+        <v>43.21514660012371</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>37.61524874026413</v>
+        <v>48.53780983949108</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.40291206411028</v>
+        <v>51.15153673810445</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.23885045283108</v>
+        <v>25.32974821162536</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.5947874600723</v>
+        <v>38.73117706809283</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.17218691817399</v>
+        <v>34.78636236839416</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.43228140954567</v>
+        <v>35.45174510556623</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.81757521277476</v>
+        <v>29.54327486658012</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>33.55810854651145</v>
+        <v>35.91514204862943</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.66512710235335</v>
+        <v>24.14561111827231</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.56813760815846</v>
+        <v>42.17017438825599</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.27724556468888</v>
+        <v>51.31790684709285</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.17897355723228</v>
+        <v>50.95748880396216</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.94285432602841</v>
+        <v>26.50160498496436</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.92834356737897</v>
+        <v>40.49415960542226</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.91659675529447</v>
+        <v>22.24313669943987</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.28473172839472</v>
+        <v>41.24289732278632</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.14598718052856</v>
+        <v>52.98170873102756</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.46506486828785</v>
+        <v>53.5679339057224</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.64201870159422</v>
+        <v>25.38364321816195</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.62617058001429</v>
+        <v>39.38675647716045</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.1156887117492</v>
+        <v>17.57854972222248</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.35944953365058</v>
+        <v>40.0992140222256</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.23571553927503</v>
+        <v>51.50740554030857</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.29765207833427</v>
+        <v>50.79282040271011</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.02032618851648</v>
+        <v>23.65143741703789</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.43076971372821</v>
+        <v>38.9426906947316</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.08828828493645</v>
+        <v>30.62310631884328</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.41232096374516</v>
+        <v>31.25706504441224</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.80775896570965</v>
+        <v>26.22521199090988</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.86448925560941</v>
+        <v>33.32865354281152</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.68906013122866</v>
+        <v>34.23352651811907</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.72302439035332</v>
+        <v>36.06751848720101</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.71476214384843</v>
+        <v>48.85196317876101</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.74639518097573</v>
+        <v>48.94055652697624</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>33.36315138548406</v>
+        <v>28.223296123065</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.28727195158844</v>
+        <v>45.59483078357156</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.85973315431077</v>
+        <v>59.74976738948147</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.77821369638571</v>
+        <v>59.20511685387125</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>37.07397514374588</v>
+        <v>46.61998345772484</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.42812809763796</v>
+        <v>47.71402984693565</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.7836856217648</v>
+        <v>28.86686847564603</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>38.96757778813111</v>
+        <v>46.77889824398279</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.00789001270628</v>
+        <v>59.64296949530802</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.02926947823718</v>
+        <v>59.63266320619037</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.09156849287805</v>
+        <v>38.91574513139598</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.47480432034603</v>
+        <v>39.88821174374092</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>33.75660346051558</v>
+        <v>27.90313174405572</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.36820152367221</v>
+        <v>47.15910815453739</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.28316814695379</v>
+        <v>56.87295497129846</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.53869972564834</v>
+        <v>57.91198403498726</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.083994055247</v>
+        <v>21.22523583925393</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.82260306633581</v>
+        <v>30.93087329149349</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.16243087710046</v>
+        <v>23.14020974150318</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.60728776495876</v>
+        <v>25.07094850815896</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.72970705790302</v>
+        <v>18.64273076007838</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.57327867139315</v>
+        <v>25.39167456499118</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.41512857412053</v>
+        <v>21.20727071459065</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.02117850751871</v>
+        <v>41.24953324027914</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.49360218647868</v>
+        <v>45.92043173876485</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.69954200015584</v>
+        <v>46.27439524879499</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.38845291373707</v>
+        <v>20.24742721376473</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>34.37341499578088</v>
+        <v>38.45257497017898</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.09385308551408</v>
+        <v>17.92838430599683</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.2014337215476</v>
+        <v>36.8404335393052</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.20761253120305</v>
+        <v>44.74605728599852</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.37018006063236</v>
+        <v>45.15058573158993</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.44466078332612</v>
+        <v>20.4312786348568</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.66708110104327</v>
+        <v>36.08449607747936</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.02103367097499</v>
+        <v>15.56463022859098</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.54960474375122</v>
+        <v>29.7148675185632</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.97339986991282</v>
+        <v>36.20116558096421</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>34.55356886607014</v>
+        <v>40.88432494806514</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.19833725409894</v>
+        <v>17.53349142089341</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.44215121789172</v>
+        <v>29.18566024676581</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.49324670228361</v>
+        <v>21.50480759990749</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.62352394437875</v>
+        <v>21.9527875294984</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.12923703365853</v>
+        <v>20.44710683049798</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.73707070971644</v>
+        <v>26.24420956479527</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.99938613114366</v>
+        <v>25.47520249600067</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.79396783920357</v>
+        <v>28.25020187284103</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.92908276917321</v>
+        <v>41.84653164626967</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.71655978644313</v>
+        <v>41.00808985543893</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.25568611529254</v>
+        <v>22.88738588063091</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.38818332116612</v>
+        <v>44.89976987526519</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.01478904425064</v>
+        <v>50.4005288239738</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.92746349628568</v>
+        <v>49.87976913409123</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.68478609770128</v>
+        <v>38.55986149292795</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.1753857266218</v>
+        <v>40.31722373668671</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.40265523592803</v>
+        <v>22.17130497071215</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.3825452173856</v>
+        <v>40.62206932474355</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>37.40499986105643</v>
+        <v>47.69344965262926</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.10955410785596</v>
+        <v>50.13316271950253</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.85076914275332</v>
+        <v>27.64774841138734</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.85802728030357</v>
+        <v>31.35463278859183</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.38828009717244</v>
+        <v>19.67846215238683</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>34.00716937288473</v>
+        <v>33.47495495369852</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.08257857712817</v>
+        <v>38.2686387425027</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.74837196991196</v>
+        <v>44.17823356766067</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.60035872521584</v>
+        <v>15.17558227153429</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.35219361354025</v>
+        <v>17.29085913325862</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.01965933092599</v>
+        <v>17.1925261629165</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.95706010237873</v>
+        <v>17.16991826487545</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.17009409908554</v>
+        <v>17.64658063410047</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.10883520374231</v>
+        <v>21.04155788919413</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.9437801452227</v>
+        <v>15.12070878722276</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.61246092248544</v>
+        <v>21.12025172766208</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.92845759546991</v>
+        <v>26.45285017704784</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.96496279153556</v>
+        <v>26.49020239365759</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.04256318396884</v>
+        <v>20.13748094823567</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.75455241939794</v>
+        <v>35.81118013972667</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.20149525567212</v>
+        <v>13.51538607281056</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.62951083762508</v>
+        <v>18.13210463874055</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.11307785499455</v>
+        <v>22.99896676597765</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.17596724632681</v>
+        <v>23.37089925474521</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.246055018061</v>
+        <v>17.10802271214648</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.4423700755868</v>
+        <v>25.51668191508235</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.24064606723377</v>
+        <v>10.99237880962019</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.84931656879225</v>
+        <v>15.9543021990138</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.88218650365956</v>
+        <v>22.18702817295369</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.95384331391104</v>
+        <v>23.21412517559206</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.83216344958319</v>
+        <v>17.01897253109359</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.0632605420293</v>
+        <v>24.63330392669414</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.73917861743061</v>
+        <v>17.04193156795117</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.9121316231745</v>
+        <v>17.85919397116396</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.7938890442141</v>
+        <v>17.1090308668739</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.71882080105566</v>
+        <v>20.43999357299084</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.96037493197777</v>
+        <v>17.04840706386101</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.24883820153271</v>
+        <v>18.51836493454141</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.1695947353025</v>
+        <v>39.15496748467386</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.24853300558505</v>
+        <v>40.16725041410713</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.26185013463245</v>
+        <v>28.0641772064676</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.38595984382805</v>
+        <v>46.42314339789633</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>39.55676347748491</v>
+        <v>53.93440939788709</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>39.73504095661114</v>
+        <v>54.36751307721313</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.31332855312146</v>
+        <v>28.03611763833937</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>32.01909475702183</v>
+        <v>34.21189778653208</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.84420193518178</v>
+        <v>23.50777440596465</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.13199930638019</v>
+        <v>39.24520875500883</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>35.68685940504493</v>
+        <v>43.11584064028384</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>36.81834654934766</v>
+        <v>47.01594063261725</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.98551644717276</v>
+        <v>24.45506847750958</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.93493359496912</v>
+        <v>31.68587354850506</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>31.25670473781024</v>
+        <v>21.59715898841772</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.52343472222649</v>
+        <v>33.57638783689233</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.02188596489011</v>
+        <v>32.79724071053127</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.40782977281734</v>
+        <v>41.03974707931297</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>22.61091021263734</v>
+        <v>11.9012920526163</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.274557736186</v>
+        <v>14.16869228305889</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.94111211788339</v>
+        <v>14.93455199349674</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.78043202176413</v>
+        <v>14.53606843821714</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.73308069476494</v>
+        <v>20.82732162967346</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.360118651053</v>
+        <v>22.58717274308057</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>23.77278692054847</v>
+        <v>14.19525538030433</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.0215484855036</v>
+        <v>22.84085989883166</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.56254293864519</v>
+        <v>31.73040282538131</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.7223127505051</v>
+        <v>31.56754321183935</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.61149599502335</v>
+        <v>17.31489090552511</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.65409387537946</v>
+        <v>27.24536282303582</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.82668984227528</v>
+        <v>21.2136164839328</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>33.97537157974187</v>
+        <v>33.54849928108202</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.73147632681525</v>
+        <v>37.08611525288097</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.00022938650775</v>
+        <v>38.0880964009388</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.39023899073712</v>
+        <v>18.72004953655494</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.49685048035632</v>
+        <v>29.75985646301678</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>27.40350639946007</v>
+        <v>17.04514730252266</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.0628810371004</v>
+        <v>30.15467004069342</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.3670154537249</v>
+        <v>31.95129304390196</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.5981130274428</v>
+        <v>32.64421400004044</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.44998460207637</v>
+        <v>17.29188307910989</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.18598360504767</v>
+        <v>27.11615516387691</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.18720556991729</v>
+        <v>18.40291090803489</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.69669725088395</v>
+        <v>21.80095069293264</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.37687722550206</v>
+        <v>15.37218577359304</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.85050629421163</v>
+        <v>17.17344410515588</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>24.81443693569461</v>
+        <v>14.03781434142878</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.03422963315219</v>
+        <v>16.82756053493169</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.57794043318661</v>
+        <v>30.76384930787268</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.89841452350622</v>
+        <v>37.19262216780537</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.29924885999086</v>
+        <v>21.56520652303763</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.27390259426593</v>
+        <v>35.64752265495202</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>35.75468978411448</v>
+        <v>45.21492946551155</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.32239844961987</v>
+        <v>48.49241071279712</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.22365154059959</v>
+        <v>30.36213071710981</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.17048405395469</v>
+        <v>37.54677066475935</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.08366533881044</v>
+        <v>22.7040345672755</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.96960957489954</v>
+        <v>39.0018335685228</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.60410606943535</v>
+        <v>44.58717432092763</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>37.44307530321799</v>
+        <v>48.16553995592541</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.44571249939324</v>
+        <v>25.93445914465982</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>31.40354838223537</v>
+        <v>33.0245030509648</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.75363615104951</v>
+        <v>19.95706320231853</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>33.00959917062169</v>
+        <v>32.51137511489873</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>31.64497650206108</v>
+        <v>34.73018740636155</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.00039782123375</v>
+        <v>41.71930260362717</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.01726399061483</v>
+        <v>23.81890552484654</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.64300753939607</v>
+        <v>39.84473147108975</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>32.39088398343199</v>
+        <v>35.30498347393562</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.60363837688749</v>
+        <v>35.95831541920565</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.97464280808833</v>
+        <v>22.67650285554275</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.43262181046856</v>
+        <v>31.87426051092215</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.93435992972749</v>
+        <v>22.93720983739232</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.46799357488409</v>
+        <v>40.59851233934279</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>38.06012836435996</v>
+        <v>49.6851196551427</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.02240459710173</v>
+        <v>48.97491824268222</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>30.72886248758879</v>
+        <v>23.2815913363835</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.27474440017923</v>
+        <v>39.92366530309224</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.62085874661887</v>
+        <v>19.86731091365225</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.91286699058845</v>
+        <v>38.91909805631893</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>37.39589129965868</v>
+        <v>49.62048468350936</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.43846147730322</v>
+        <v>49.29069969968931</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>30.69822502361044</v>
+        <v>22.28621717063889</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.98848574220193</v>
+        <v>38.11265679215449</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.51571292798337</v>
+        <v>16.10182423378811</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.34769860472184</v>
+        <v>37.65088244969261</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>37.09532938629924</v>
+        <v>47.389831723889</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>37.24280585233728</v>
+        <v>47.59089899525996</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.42820781372127</v>
+        <v>19.83942000639583</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.23063347616198</v>
+        <v>36.8615322281263</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.26286049952961</v>
+        <v>29.26369913775041</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.56854232485913</v>
+        <v>30.31459912836711</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.61369161154487</v>
+        <v>21.79237699529988</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>31.80656199375827</v>
+        <v>29.84183978189892</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.87046968646364</v>
+        <v>30.146727020813</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>31.93277090454685</v>
+        <v>34.02997359635018</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.46416506978649</v>
+        <v>46.62759628191893</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.49081042203997</v>
+        <v>46.52087023575343</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>31.88492529188259</v>
+        <v>24.78736231950228</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>37.58341092187948</v>
+        <v>45.4063254446647</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>40.46828594194855</v>
+        <v>57.3317331599779</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>40.36519254829237</v>
+        <v>56.53678739536514</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>36.26197522799375</v>
+        <v>45.10761344905093</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>36.52842898459515</v>
+        <v>46.09671613035702</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>32.05274021032888</v>
+        <v>24.2171483771889</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>37.71277378510322</v>
+        <v>45.06716532007628</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>39.53818674400591</v>
+        <v>54.11459363815705</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>39.72888722236684</v>
+        <v>54.42975309163228</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>33.91653862916719</v>
+        <v>39.04755192762828</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>34.14874064177368</v>
+        <v>40.06324158687158</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>31.34698168501283</v>
+        <v>22.84694852092315</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.22400327984153</v>
+        <v>43.86906774691568</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>38.08716562635053</v>
+        <v>49.8821985314045</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>38.45359349158741</v>
+        <v>51.29750346592118</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>27.23618382411899</v>
+        <v>19.07714187820227</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.30034411239161</v>
+        <v>26.12927715526932</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>27.41881294184904</v>
+        <v>21.29527264560317</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.73678979740433</v>
+        <v>22.59346632122652</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.99614774428061</v>
+        <v>16.23847119419304</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>27.94218457923378</v>
+        <v>22.95076500777711</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.92590286306125</v>
+        <v>21.0814167249547</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>35.46564937994987</v>
+        <v>40.92426613963393</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>36.17485052252002</v>
+        <v>45.1395828697888</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>36.05772078618639</v>
+        <v>44.52000359168125</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.5981330010171</v>
+        <v>19.79723340377764</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>34.38722149170987</v>
+        <v>37.85244657565028</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.33645449969008</v>
+        <v>18.53243873604264</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>34.46381044934977</v>
+        <v>37.6616474280013</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>36.20661305053332</v>
+        <v>44.48320180162879</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>36.17201605100691</v>
+        <v>44.15906842256419</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.77926494702296</v>
+        <v>21.03270531722077</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>34.39244532989625</v>
+        <v>37.52558129609257</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>27.28537000896773</v>
+        <v>14.6183587109612</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>31.56183480629591</v>
+        <v>29.87789254914016</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>33.67437939077786</v>
+        <v>37.67665921791149</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>34.38582712692069</v>
+        <v>40.33824303249883</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>27.97905329888493</v>
+        <v>16.50467429679863</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>31.16588858926552</v>
+        <v>28.13937328045943</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>28.32736549552081</v>
+        <v>23.33351593241184</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>28.8359930373354</v>
+        <v>24.91086692247165</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>28.48994114640305</v>
+        <v>21.42814057518115</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>30.06585871045312</v>
+        <v>26.7443449104716</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>28.6307566551254</v>
+        <v>24.00431113865204</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.27612245315915</v>
+        <v>26.657816197157</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>34.77646853393212</v>
+        <v>41.42295933114179</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.79219046568026</v>
+        <v>41.13950258501066</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>31.75310399768496</v>
+        <v>23.85190191720713</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>37.78971717314031</v>
+        <v>45.56455104590965</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>38.09102764347851</v>
+        <v>50.14350981654781</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>38.08143599148842</v>
+        <v>49.99426237973825</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>34.37478906275898</v>
+        <v>39.87370075697575</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>34.84379135469543</v>
+        <v>41.55553026736589</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>31.88705612272323</v>
+        <v>22.93898340787066</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>36.77065784958381</v>
+        <v>41.11307949653702</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>37.12402364319433</v>
+        <v>46.7226060173804</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>37.89702900347034</v>
+        <v>49.53099205452713</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>30.38345873271905</v>
+        <v>29.06448666231941</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>31.49215108445064</v>
+        <v>33.32561727807776</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>30.20783013181421</v>
+        <v>19.35146477587038</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>33.26219776788168</v>
+        <v>31.1201066565406</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>32.93473533762782</v>
+        <v>34.9452975330357</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>35.01511455403045</v>
+        <v>42.244205929182</v>
       </c>
     </row>
   </sheetData>
